--- a/2023/england_national-league_2023-2024.xlsx
+++ b/2023/england_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V168"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -14933,63 +14933,63 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>2.47</v>
+        <v>1.47</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.22</v>
+        <v>1.54</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.36</v>
+        <v>4.45</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.39</v>
+        <v>4.33</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:06</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>2.84</v>
+        <v>6.56</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.36</v>
+        <v>5.84</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.6</v>
+        <v>2.47</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.62</v>
+        <v>2.22</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.11</v>
+        <v>3.39</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:06</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>5.09</v>
+        <v>2.84</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>5.32</v>
+        <v>3.36</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
         </is>
       </c>
     </row>
@@ -15109,22 +15109,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>4.92</v>
+        <v>3.87</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,15 +15148,15 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4.93</v>
+        <v>4.11</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>6.39</v>
+        <v>5.09</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>6.49</v>
+        <v>5.32</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>2.24</v>
+        <v>1.38</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.44</v>
+        <v>4.92</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.94</v>
+        <v>4.93</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         </is>
       </c>
       <c r="R161" t="n">
-        <v>3.16</v>
+        <v>6.39</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>3.07</v>
+        <v>6.49</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:20</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G162" t="n">
+        <v>5</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Ebbsfleet</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
         <v>2</v>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Bromley</t>
-        </is>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
       <c r="J162" t="n">
-        <v>1.47</v>
+        <v>2.24</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.49</v>
+        <v>2.15</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>03/10/2023 19:52</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4.57</v>
+        <v>3.44</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4.64</v>
+        <v>3.94</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>6.29</v>
+        <v>3.16</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>6.15</v>
+        <v>3.07</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:20</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.45</v>
+        <v>1.47</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.21</v>
+        <v>1.49</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>03/10/2023 16:23</t>
+          <t>03/10/2023 19:52</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.05</v>
+        <v>4.57</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.34</v>
+        <v>4.64</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>03/10/2023 16:22</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.99</v>
+        <v>6.29</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.4</v>
+        <v>6.15</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>03/10/2023 18:22</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>2</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>AFC Fylde</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
       <c r="J164" t="n">
-        <v>1.56</v>
+        <v>2.45</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.46</v>
+        <v>2.21</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 16:23</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.17</v>
+        <v>3.05</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4.76</v>
+        <v>3.34</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 16:22</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>5.08</v>
+        <v>2.99</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>6.39</v>
+        <v>3.4</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 18:22</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
         </is>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -15577,63 +15577,63 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I165" t="n">
         <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.75</v>
+        <v>4.17</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.04</v>
+        <v>4.76</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>4.02</v>
+        <v>5.08</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T165" t="n">
-        <v>4.27</v>
+        <v>6.39</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,14 +15669,14 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>4.45</v>
+        <v>3.75</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.33</v>
+        <v>4.04</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>6.56</v>
+        <v>4.02</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>5.84</v>
+        <v>4.27</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="n">
-        <v>2.92</v>
+        <v>1.74</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.51</v>
+        <v>3.4</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>2.32</v>
+        <v>4.57</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.99</v>
+        <v>3.94</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Kidderminster</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
         <v>1</v>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>FC Halifax</t>
-        </is>
-      </c>
-      <c r="I168" t="n">
-        <v>2</v>
-      </c>
       <c r="J168" t="n">
-        <v>1.74</v>
+        <v>2.92</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.4</v>
+        <v>3.51</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>4.57</v>
+        <v>2.32</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,108 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>3.94</v>
+        <v>2.99</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45203.86458333334</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Hartlepool</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-hartlepool/jeplNDtN/</t>
         </is>
       </c>
     </row>

--- a/2023/england_national-league_2023-2024.xlsx
+++ b/2023/england_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V169"/>
+  <dimension ref="A1:V181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.66</v>
+        <v>3.46</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.86</v>
+        <v>3.54</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.92</v>
+        <v>3.46</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.89</v>
+        <v>3.76</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.99</v>
+        <v>2.09</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.94</v>
+        <v>2.01</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-wealdstone/0dpVpsFm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-gateshead/EalZq1Ug/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
         <v>4</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>15/08/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>12/08/2023 16:13</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:39</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>15/08/2023 15:39</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>12/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P28" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:39</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T28" t="n">
-        <v>2.01</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 13:49</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-gateshead/EalZq1Ug/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-southend/8MmwqLq0/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.31</v>
+        <v>2.4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>2.67</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/08/2023 15:39</t>
+          <t>15/08/2023 18:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/08/2023 15:39</t>
+          <t>15/08/2023 08:07</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.17</v>
+        <v>2.96</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.89</v>
+        <v>2.58</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/08/2023 13:49</t>
+          <t>15/08/2023 18:51</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-southend/8MmwqLq0/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-barnet/nDnsrua6/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>4.16</v>
+        <v>1.66</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6.52</v>
+        <v>1.86</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.96</v>
+        <v>3.92</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.15</v>
+        <v>3.89</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>1.71</v>
+        <v>4.99</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.42</v>
+        <v>3.94</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-chesterfield/WfJgmzyn/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-wealdstone/0dpVpsFm/</t>
         </is>
       </c>
     </row>
@@ -3241,19 +3241,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>1.88</v>
@@ -3264,11 +3264,11 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 19:43</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.75</v>
+        <v>3.87</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 19:43</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.89</v>
+        <v>3.68</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.78</v>
+        <v>4.39</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 19:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-aldershot/SO3vsaEC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-maidenhead/6F2rtJTI/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.88</v>
+        <v>2.23</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.78</v>
+        <v>2.27</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>15/08/2023 19:43</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.71</v>
+        <v>3.34</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.87</v>
+        <v>3.7</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15/08/2023 19:43</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.68</v>
+        <v>3.26</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.39</v>
+        <v>3.01</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15/08/2023 19:43</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-maidenhead/6F2rtJTI/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-altrincham/hA72oE5b/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.41</v>
+        <v>1.88</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:35</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.11</v>
+        <v>3.71</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.34</v>
+        <v>3.75</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:35</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.15</v>
+        <v>3.89</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.51</v>
+        <v>3.78</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:35</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-halifax/IiFklGLu/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-aldershot/SO3vsaEC/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.27</v>
+        <v>2.01</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.34</v>
+        <v>3.62</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.7</v>
+        <v>3.47</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.26</v>
+        <v>3.62</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.01</v>
+        <v>3.85</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-altrincham/hA72oE5b/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-rochdale/EJ8bnfjh/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.92</v>
+        <v>4.16</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.01</v>
+        <v>6.52</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.47</v>
+        <v>5.15</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.62</v>
+        <v>1.71</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.85</v>
+        <v>1.42</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-rochdale/EJ8bnfjh/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-chesterfield/WfJgmzyn/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.67</v>
+        <v>1.9</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>15/08/2023 18:51</t>
+          <t>15/08/2023 20:35</t>
         </is>
       </c>
       <c r="N36" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
         <v>3.34</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>12/08/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.55</v>
-      </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>15/08/2023 08:07</t>
+          <t>15/08/2023 20:35</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.58</v>
+        <v>4.51</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>15/08/2023 18:51</t>
+          <t>15/08/2023 20:35</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-barnet/nDnsrua6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-halifax/IiFklGLu/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.8</v>
+        <v>3.04</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>16/08/2023 21:12</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.88</v>
+        <v>2.69</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:51</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.75</v>
+        <v>3.34</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>16/08/2023 21:12</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.36</v>
+        <v>3.83</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.95</v>
+        <v>2.35</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>16/08/2023 21:12</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.48</v>
+        <v>2.43</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:51</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-dorking-wanderers/d2QlcB4A/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-afc-fylde/UTwdekZM/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 04:37</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.22</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 04:37</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.84</v>
+        <v>4.12</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.69</v>
+        <v>3.42</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 04:37</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-eastleigh/Ewypbik4/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-hartlepool/zgPhdVJG/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>16/08/2023 21:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:53</t>
+          <t>19/08/2023 15:51</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>16/08/2023 21:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.37</v>
+        <v>4.36</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:53</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.12</v>
+        <v>3.95</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>16/08/2023 21:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.81</v>
+        <v>3.48</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:53</t>
+          <t>19/08/2023 15:51</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-dagenham-red/0zXuaXZc/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-dorking-wanderers/d2QlcB4A/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.04</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:53</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.83</v>
+        <v>3.37</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:53</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.35</v>
+        <v>3.12</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.43</v>
+        <v>2.81</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:53</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-afc-fylde/UTwdekZM/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-dagenham-red/0zXuaXZc/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.84</v>
+        <v>2.23</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.67</v>
+        <v>3.34</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.47</v>
+        <v>3.23</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.68</v>
+        <v>3.49</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-oxford-city/j5kkxASp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-bromley/6DXy0DKi/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.78</v>
+        <v>2.56</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19/08/2023 04:37</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.7</v>
+        <v>3.22</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.41</v>
+        <v>3.58</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>19/08/2023 04:37</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.12</v>
+        <v>2.84</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.42</v>
+        <v>3.69</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>19/08/2023 04:37</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-hartlepool/zgPhdVJG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-eastleigh/Ewypbik4/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.23</v>
+        <v>1.84</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.34</v>
+        <v>3.67</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.23</v>
+        <v>4.47</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.49</v>
+        <v>5.68</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-bromley/6DXy0DKi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-oxford-city/j5kkxASp/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>25/08/2023 20:39</t>
+          <t>25/08/2023 20:44</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.77</v>
+        <v>3.9</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>25/08/2023 20:39</t>
+          <t>25/08/2023 20:44</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.63</v>
+        <v>4.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>5.05</v>
+        <v>4.5</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>25/08/2023 20:39</t>
+          <t>25/08/2023 20:44</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-bromley/4nhv8SIS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-eastleigh/zVrA26tj/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>25/08/2023 20:44</t>
+          <t>25/08/2023 20:39</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.9</v>
+        <v>3.77</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>25/08/2023 20:44</t>
+          <t>25/08/2023 20:39</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.09</v>
+        <v>3.63</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.5</v>
+        <v>5.05</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>25/08/2023 20:44</t>
+          <t>25/08/2023 20:39</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-eastleigh/zVrA26tj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-bromley/4nhv8SIS/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:40</t>
+          <t>26/08/2023 14:04</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.41</v>
+        <v>3.83</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:39</t>
+          <t>26/08/2023 15:33</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.08</v>
+        <v>4.15</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:40</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-oxford-city/MN2Z883M/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-wealdstone/8Kx0f9lT/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.43</v>
+        <v>2.02</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.02</v>
+        <v>2.68</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.69</v>
+        <v>3.3</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:39</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.98</v>
+        <v>3.87</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.57</v>
+        <v>2.72</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-woking/GQaRAUY9/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-oldham/S4JWlmCj/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.99</v>
+        <v>2.75</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.31</v>
+        <v>3.6</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>26/08/2023 15:35</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>26/08/2023 15:35</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.58</v>
+        <v>2.56</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.03</v>
+        <v>2.04</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>26/08/2023 15:35</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-kidderminster/xz1NBAJ3/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-barnet/t87EDWli/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.6</v>
+        <v>2.02</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.46</v>
+        <v>3.36</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.6</v>
+        <v>3.69</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:39</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.56</v>
+        <v>2.98</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.04</v>
+        <v>3.57</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-barnet/t87EDWli/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-woking/GQaRAUY9/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,63 +5825,63 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.68</v>
+        <v>2.25</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:40</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.42</v>
+        <v>3.86</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:39</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.87</v>
+        <v>4.08</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:40</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-oldham/S4JWlmCj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-oxford-city/MN2Z883M/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,63 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.13</v>
+        <v>2.31</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>26/08/2023 14:04</t>
+          <t>26/08/2023 15:35</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.78</v>
+        <v>3.44</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.83</v>
+        <v>3.55</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:33</t>
+          <t>26/08/2023 15:35</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.15</v>
+        <v>3.58</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.18</v>
+        <v>3.03</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:35</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-wealdstone/8Kx0f9lT/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-kidderminster/xz1NBAJ3/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.77</v>
+        <v>2.28</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 19:41</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.85</v>
+        <v>1.75</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>28/08/2023 15:53</t>
+          <t>28/08/2023 15:52</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 19:41</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.46</v>
+        <v>3.69</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>28/08/2023 15:53</t>
+          <t>28/08/2023 15:52</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.49</v>
+        <v>3.06</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 19:41</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.47</v>
+        <v>4.85</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>28/08/2023 15:53</t>
+          <t>28/08/2023 15:52</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-rochdale/2cCWxmI2/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-maidenhead/MqvALomS/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Dag &amp; Red</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Dorking</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.58</v>
+        <v>2.58</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.49</v>
+        <v>2.33</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>28/08/2023 15:59</t>
+          <t>28/08/2023 15:40</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.2</v>
+        <v>3.31</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.71</v>
+        <v>3.73</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>28/08/2023 15:59</t>
+          <t>28/08/2023 15:40</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.78</v>
+        <v>2.63</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>6.02</v>
+        <v>2.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>28/08/2023 15:59</t>
+          <t>28/08/2023 15:40</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-dorking-wanderers/EsJlE3u2/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-dagenham-red/ziKpFqQe/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Dag &amp; Red</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>26/08/2023 19:40</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>28/08/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>26/08/2023 19:40</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>28/08/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>26/08/2023 19:40</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
         <v>2</v>
       </c>
-      <c r="J64" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:12</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>28/08/2023 15:40</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P64" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>28/08/2023 15:40</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>2.88</v>
-      </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>28/08/2023 15:40</t>
+          <t>28/08/2023 15:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-dagenham-red/ziKpFqQe/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-boreham-wood/hSUuGPAk/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.06</v>
+        <v>1.98</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.81</v>
+        <v>2.02</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,40 +6400,40 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.37</v>
+        <v>3.54</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.53</v>
+        <v>4.02</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>28/08/2023 15:55</t>
+          <t>28/08/2023 15:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.24</v>
+        <v>3.71</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>3.31</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>28/08/2023 15:57</t>
+          <t>28/08/2023 15:48</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-boreham-wood/hSUuGPAk/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-solihull-moors/vPQyH5eq/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.02</v>
+        <v>3.24</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>28/08/2023 15:57</t>
+          <t>28/08/2023 15:55</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.02</v>
+        <v>3.43</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>28/08/2023 15:57</t>
+          <t>28/08/2023 15:45</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.71</v>
+        <v>2.76</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.31</v>
+        <v>2.25</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>28/08/2023 15:48</t>
+          <t>28/08/2023 15:55</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-solihull-moors/vPQyH5eq/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-gateshead/rgu6MRXL/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>26/08/2023 19:41</t>
+          <t>26/08/2023 19:40</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.75</v>
+        <v>2.37</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>28/08/2023 15:52</t>
+          <t>28/08/2023 15:56</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.27</v>
+        <v>3.48</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>26/08/2023 19:41</t>
+          <t>26/08/2023 19:40</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.69</v>
+        <v>4.01</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>28/08/2023 15:52</t>
+          <t>28/08/2023 15:56</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.06</v>
+        <v>2.68</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>26/08/2023 19:41</t>
+          <t>26/08/2023 19:40</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.85</v>
+        <v>2.67</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>28/08/2023 15:52</t>
+          <t>28/08/2023 15:56</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-maidenhead/MqvALomS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-altrincham/ELsE1Qed/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 19:39</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.37</v>
+        <v>1.83</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>28/08/2023 15:56</t>
+          <t>28/08/2023 15:49</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.48</v>
+        <v>3.98</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 19:39</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.01</v>
+        <v>4.28</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>28/08/2023 15:56</t>
+          <t>28/08/2023 15:55</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.68</v>
+        <v>4.27</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 19:39</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.67</v>
+        <v>3.72</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>28/08/2023 15:56</t>
+          <t>28/08/2023 15:55</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-altrincham/ELsE1Qed/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-hartlepool/OjP4Om39/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>25/08/2023 21:13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.36</v>
+        <v>3.9</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>28/08/2023 15:39</t>
+          <t>28/08/2023 15:45</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>25/08/2023 21:13</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>28/08/2023 15:44</t>
+          <t>28/08/2023 15:45</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.48</v>
+        <v>2.78</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>25/08/2023 21:13</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>28/08/2023 15:44</t>
+          <t>28/08/2023 15:45</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-aldershot/2sO8N7IF/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-southend/UTP0PTm3/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>28/08/2023 15:49</t>
+          <t>28/08/2023 15:51</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.98</v>
+        <v>3.71</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.28</v>
+        <v>3.79</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>28/08/2023 15:55</t>
+          <t>28/08/2023 15:48</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.27</v>
+        <v>3.75</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.72</v>
+        <v>3.48</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/08/2023 15:55</t>
+          <t>28/08/2023 15:51</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-hartlepool/OjP4Om39/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-ebbsfleet/GQLdQ9Yd/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>26/08/2023 19:39</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.02</v>
+        <v>1.49</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>28/08/2023 15:51</t>
+          <t>28/08/2023 15:59</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.71</v>
+        <v>4.2</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>26/08/2023 19:39</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.79</v>
+        <v>4.71</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>28/08/2023 15:48</t>
+          <t>28/08/2023 15:59</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.75</v>
+        <v>4.78</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>26/08/2023 19:39</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.48</v>
+        <v>6.02</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>28/08/2023 15:51</t>
+          <t>28/08/2023 15:59</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-ebbsfleet/GQLdQ9Yd/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-dorking-wanderers/EsJlE3u2/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.24</v>
+        <v>2.36</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>28/08/2023 15:55</t>
+          <t>28/08/2023 15:39</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>28/08/2023 15:45</t>
+          <t>28/08/2023 15:44</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.76</v>
+        <v>3.48</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.25</v>
+        <v>2.92</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>28/08/2023 15:55</t>
+          <t>28/08/2023 15:44</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-gateshead/rgu6MRXL/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-aldershot/2sO8N7IF/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>2.52</v>
+        <v>2.77</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>25/08/2023 21:13</t>
+          <t>26/08/2023 19:40</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.9</v>
+        <v>2.85</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>28/08/2023 15:45</t>
+          <t>28/08/2023 15:53</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>25/08/2023 21:13</t>
+          <t>26/08/2023 19:40</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.57</v>
+        <v>3.46</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>28/08/2023 15:45</t>
+          <t>28/08/2023 15:53</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.78</v>
+        <v>2.49</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>25/08/2023 21:13</t>
+          <t>26/08/2023 19:40</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.96</v>
+        <v>2.47</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>28/08/2023 15:45</t>
+          <t>28/08/2023 15:53</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-southend/UTP0PTm3/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-rochdale/2cCWxmI2/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.27</v>
+        <v>1.73</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.05</v>
+        <v>1.92</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>02/09/2023 15:51</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.16</v>
+        <v>4.69</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.36</v>
+        <v>4.19</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>02/09/2023 15:51</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-barnet/KWs8JbHs/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-kidderminster/8G2oXHos/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2.59</v>
+        <v>2.18</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.97</v>
+        <v>1.82</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>02/09/2023 15:32</t>
+          <t>02/09/2023 13:34</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.38</v>
+        <v>3.96</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>02/09/2023 15:32</t>
+          <t>02/09/2023 13:34</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.71</v>
+        <v>3.09</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.43</v>
+        <v>4.08</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>02/09/2023 15:32</t>
+          <t>02/09/2023 13:34</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-afc-fylde/EgsCIIWm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-bromley/OC0uyRnF/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.73</v>
+        <v>2.27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.92</v>
+        <v>3.05</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:51</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.69</v>
+        <v>3.16</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.19</v>
+        <v>2.36</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:51</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-kidderminster/8G2oXHos/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-barnet/KWs8JbHs/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.77</v>
+        <v>2.82</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.76</v>
+        <v>2.91</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.69</v>
+        <v>3.39</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.03</v>
+        <v>3.55</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.49</v>
+        <v>2.47</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.32</v>
+        <v>2.39</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-oxford-city/xYFJybwQ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-eastleigh/hptGHxnf/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.7</v>
+        <v>2.29</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.76</v>
+        <v>3.41</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.28</v>
+        <v>3.8</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>4.92</v>
+        <v>3.08</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4</v>
+        <v>3.34</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-halifax/bsHFxvOJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-york-city/ALzLGd10/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>3.33</v>
+        <v>2.59</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,11 +7772,11 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4.84</v>
+        <v>2.97</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>02/09/2023 15:55</t>
+          <t>02/09/2023 15:32</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.52</v>
+        <v>3.38</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>02/09/2023 15:55</t>
+          <t>02/09/2023 15:32</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.2</v>
+        <v>2.71</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.79</v>
+        <v>2.43</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>02/09/2023 10:14</t>
+          <t>02/09/2023 15:32</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-woking/dxwXDfoJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-afc-fylde/EgsCIIWm/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.29</v>
+        <v>3.33</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.07</v>
+        <v>4.84</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:55</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.8</v>
+        <v>3.52</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:55</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.08</v>
+        <v>2.2</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.34</v>
+        <v>1.79</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 10:14</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-york-city/ALzLGd10/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-woking/dxwXDfoJ/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>1</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Bromley</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
       <c r="J83" t="n">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>02/09/2023 13:34</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.46</v>
+        <v>3.76</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.96</v>
+        <v>3.28</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>02/09/2023 13:34</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.09</v>
+        <v>4.92</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.08</v>
+        <v>4</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>02/09/2023 13:34</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-bromley/OC0uyRnF/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-halifax/bsHFxvOJ/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>2.82</v>
+        <v>1.77</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.91</v>
+        <v>1.76</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.39</v>
+        <v>3.69</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.55</v>
+        <v>4.03</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.47</v>
+        <v>4.49</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.39</v>
+        <v>4.32</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-eastleigh/hptGHxnf/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-oxford-city/xYFJybwQ/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>02/09/2023 18:42</t>
+          <t>02/09/2023 18:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>09/09/2023 15:25</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.77</v>
+        <v>3.92</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>02/09/2023 18:42</t>
+          <t>02/09/2023 18:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.27</v>
+        <v>3.91</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>09/09/2023 15:52</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.83</v>
+        <v>4.92</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>02/09/2023 18:42</t>
+          <t>02/09/2023 18:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.86</v>
+        <v>3.52</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>09/09/2023 15:52</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-aldershot/n71kWy1m/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-solihull-moors/MPFXrFpg/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>02/09/2023 18:12</t>
+          <t>02/09/2023 18:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:25</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.7</v>
+        <v>3.77</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>02/09/2023 18:12</t>
+          <t>02/09/2023 18:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.98</v>
+        <v>4.27</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:52</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.78</v>
+        <v>3.83</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>02/09/2023 18:12</t>
+          <t>02/09/2023 18:42</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.17</v>
+        <v>3.86</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:52</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-altrincham/UVjfVeGg/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-aldershot/n71kWy1m/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>09/09/2023 15:59</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.51</v>
+        <v>3.7</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.48</v>
+        <v>3.98</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>09/09/2023 15:59</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.08</v>
+        <v>3.78</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.98</v>
+        <v>4.17</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>09/09/2023 15:45</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-maidenhead/rZfbUFVa/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-altrincham/UVjfVeGg/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.39</v>
+        <v>1.9</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.47</v>
+        <v>2.38</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>09/09/2023 15:52</t>
+          <t>09/09/2023 15:59</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.95</v>
+        <v>3.51</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.83</v>
+        <v>3.48</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>09/09/2023 15:52</t>
+          <t>09/09/2023 15:59</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>7.31</v>
+        <v>4.08</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6.06</v>
+        <v>2.98</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>09/09/2023 15:52</t>
+          <t>09/09/2023 15:45</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-dagenham-red/xdf2TZp6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-maidenhead/rZfbUFVa/</t>
         </is>
       </c>
     </row>
@@ -8761,46 +8761,46 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>3.33</v>
+        <v>1.39</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>02/09/2023 19:12</t>
+          <t>02/09/2023 18:12</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.94</v>
+        <v>1.47</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>09/09/2023 15:51</t>
+          <t>09/09/2023 15:52</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.61</v>
+        <v>4.95</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>02/09/2023 19:12</t>
+          <t>02/09/2023 18:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.13</v>
+        <v>4.83</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -8808,24 +8808,24 @@
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.02</v>
+        <v>7.31</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>02/09/2023 19:12</t>
+          <t>02/09/2023 18:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.81</v>
+        <v>6.06</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>09/09/2023 15:33</t>
+          <t>09/09/2023 15:52</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-hartlepool/0AROpyGt/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-dagenham-red/xdf2TZp6/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>09/09/2023 15:37</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.09</v>
+        <v>3.95</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>09/09/2023 15:37</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.86</v>
+        <v>2.44</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>09/09/2023 15:37</t>
+          <t>09/09/2023 15:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-rochdale/CEnFQXUO/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-ebbsfleet/rZGTqeVn/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.65</v>
+        <v>2.72</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>02/09/2023 18:42</t>
+          <t>02/09/2023 19:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>09/09/2023 15:58</t>
+          <t>09/09/2023 15:37</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.06</v>
+        <v>3.28</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>02/09/2023 18:42</t>
+          <t>02/09/2023 19:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>5.04</v>
+        <v>3.09</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>09/09/2023 15:58</t>
+          <t>09/09/2023 15:37</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.89</v>
+        <v>2.62</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>02/09/2023 18:42</t>
+          <t>02/09/2023 19:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>7.27</v>
+        <v>2.86</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>09/09/2023 15:58</t>
+          <t>09/09/2023 15:37</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-dorking-wanderers/QHzckH7P/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-rochdale/CEnFQXUO/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>02/09/2023 19:12</t>
+          <t>02/09/2023 18:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.62</v>
+        <v>1.4</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 15:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.4</v>
+        <v>4.06</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>02/09/2023 19:12</t>
+          <t>02/09/2023 18:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.95</v>
+        <v>5.04</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 15:58</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.84</v>
+        <v>4.89</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>02/09/2023 19:12</t>
+          <t>02/09/2023 18:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.44</v>
+        <v>7.27</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>09/09/2023 15:50</t>
+          <t>09/09/2023 15:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-ebbsfleet/rZGTqeVn/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-dorking-wanderers/QHzckH7P/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.67</v>
+        <v>3.33</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>02/09/2023 18:12</t>
+          <t>02/09/2023 19:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.98</v>
+        <v>3.94</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 15:51</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.92</v>
+        <v>3.61</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>02/09/2023 18:12</t>
+          <t>02/09/2023 19:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.91</v>
+        <v>4.13</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 15:52</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.92</v>
+        <v>2.02</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>02/09/2023 18:12</t>
+          <t>02/09/2023 19:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.52</v>
+        <v>1.81</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 15:33</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-solihull-moors/MPFXrFpg/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-hartlepool/0AROpyGt/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.52</v>
+        <v>2.91</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16/09/2023 15:33</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>16/09/2023 15:49</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>16/09/2023 15:49</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-dagenham-red/f7L6ehUb/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-barnet/xWABfCq5/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>12/09/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>16/09/2023 15:33</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>12/09/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>16/09/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
         <v>2.62</v>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="S105" t="inlineStr">
         <is>
           <t>12/09/2023 05:42</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:57</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>12/09/2023 05:42</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:57</t>
-        </is>
-      </c>
-      <c r="R105" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>12/09/2023 05:42</t>
-        </is>
-      </c>
       <c r="T105" t="n">
-        <v>2.46</v>
+        <v>2.8</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:49</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-barnet/xWABfCq5/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-dagenham-red/f7L6ehUb/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>2</v>
       </c>
       <c r="J150" t="n">
-        <v>3.13</v>
+        <v>1.49</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>3.48</v>
+        <v>1.62</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.27</v>
+        <v>4.39</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.53</v>
+        <v>4.45</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.24</v>
+        <v>6.2</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.11</v>
+        <v>4.85</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-barnet/St9z8syJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-dorking-wanderers/ljAW8NLC/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>2</v>
       </c>
       <c r="J151" t="n">
-        <v>2.66</v>
+        <v>3.13</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>3.54</v>
+        <v>3.48</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.87</v>
+        <v>3.53</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-woking/42OADo7s/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-barnet/St9z8syJ/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2.09</v>
+        <v>2.45</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.31</v>
+        <v>2.65</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 12:17</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.29</v>
+        <v>3.59</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.31</v>
+        <v>3.77</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 08:28</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>3.67</v>
+        <v>2.61</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>3.24</v>
+        <v>2.49</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 12:17</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-eastleigh/WEFR9366/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-boreham-wood/hOGNAqi0/</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -14473,14 +14473,14 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>2.45</v>
+        <v>3.13</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.65</v>
+        <v>4.15</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>30/09/2023 12:17</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.77</v>
+        <v>3.85</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>30/09/2023 08:28</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.61</v>
+        <v>2.22</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>2.49</v>
+        <v>1.83</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>30/09/2023 12:17</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-boreham-wood/hOGNAqi0/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-gateshead/b1HJBPyf/</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -14565,14 +14565,14 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="n">
-        <v>3.13</v>
+        <v>2.17</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>4.15</v>
+        <v>2.52</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.85</v>
+        <v>3.51</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.22</v>
+        <v>3.12</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>1.83</v>
+        <v>2.76</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-gateshead/b1HJBPyf/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-dagenham-red/nRDFC5Mm/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>2.17</v>
+        <v>2.66</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.52</v>
+        <v>3.54</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.51</v>
+        <v>3.87</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.12</v>
+        <v>2.64</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-dagenham-red/nRDFC5Mm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-woking/42OADo7s/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" t="n">
-        <v>1.49</v>
+        <v>2.09</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.62</v>
+        <v>2.31</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>4.39</v>
+        <v>3.29</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>4.45</v>
+        <v>3.31</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>6.2</v>
+        <v>3.67</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>4.85</v>
+        <v>3.24</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-dorking-wanderers/ljAW8NLC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-eastleigh/WEFR9366/</t>
         </is>
       </c>
     </row>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -14933,63 +14933,63 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1.47</v>
+        <v>2.47</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.54</v>
+        <v>2.22</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>4.45</v>
+        <v>3.36</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>4.33</v>
+        <v>3.39</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:06</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>6.56</v>
+        <v>2.84</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>5.84</v>
+        <v>3.36</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
         <v>2</v>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Rochdale</t>
-        </is>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
       <c r="J159" t="n">
-        <v>2.47</v>
+        <v>1.74</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.22</v>
+        <v>2.01</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:06</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>2.84</v>
+        <v>4.57</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.87</v>
+        <v>4.45</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4.11</v>
+        <v>4.33</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>5.09</v>
+        <v>6.56</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>5.32</v>
+        <v>5.84</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I161" t="n">
         <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>4.92</v>
+        <v>3.87</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4.93</v>
+        <v>4.11</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>6.39</v>
+        <v>5.09</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>6.49</v>
+        <v>5.32</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>2.24</v>
+        <v>1.38</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.44</v>
+        <v>4.92</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.94</v>
+        <v>4.93</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="R162" t="n">
-        <v>3.16</v>
+        <v>6.39</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>3.07</v>
+        <v>6.49</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:20</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G163" t="n">
+        <v>5</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Ebbsfleet</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
         <v>2</v>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Bromley</t>
-        </is>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
       <c r="J163" t="n">
-        <v>1.47</v>
+        <v>2.24</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.49</v>
+        <v>2.15</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>03/10/2023 19:52</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.57</v>
+        <v>3.44</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4.64</v>
+        <v>3.94</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>6.29</v>
+        <v>3.16</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>6.15</v>
+        <v>3.07</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:20</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Kidderminster</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>1</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>York City</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>2</v>
-      </c>
       <c r="J164" t="n">
-        <v>2.45</v>
+        <v>2.92</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.21</v>
+        <v>2.35</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>03/10/2023 16:23</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.05</v>
+        <v>3.36</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,32 +15516,32 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>03/10/2023 16:22</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R164" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
         <v>2.99</v>
       </c>
-      <c r="S164" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T164" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>03/10/2023 18:22</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
         <v>2</v>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>AFC Fylde</t>
-        </is>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
       <c r="J165" t="n">
-        <v>1.56</v>
+        <v>2.45</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1.46</v>
+        <v>2.21</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 16:23</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>4.17</v>
+        <v>3.05</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.76</v>
+        <v>3.34</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 16:22</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>5.08</v>
+        <v>2.99</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>6.39</v>
+        <v>3.4</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 18:22</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,63 +15669,63 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.77</v>
+        <v>1.49</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 19:52</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.75</v>
+        <v>4.57</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.04</v>
+        <v>4.64</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>4.02</v>
+        <v>6.29</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>4.27</v>
+        <v>6.15</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>AFC Fylde</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>1</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>FC Halifax</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>2</v>
-      </c>
       <c r="J167" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.01</v>
+        <v>1.46</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.56</v>
+        <v>4.17</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.4</v>
+        <v>4.76</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>4.57</v>
+        <v>5.08</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>3.94</v>
+        <v>6.39</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
         </is>
       </c>
     </row>
@@ -15845,71 +15845,71 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>2.92</v>
+        <v>1.85</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.35</v>
+        <v>1.77</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.36</v>
+        <v>3.75</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.51</v>
+        <v>4.04</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>2.32</v>
+        <v>4.02</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2.99</v>
+        <v>4.27</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
         </is>
       </c>
     </row>
@@ -16002,6 +16002,1110 @@
       <c r="V169" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-hartlepool/jeplNDtN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Solihull Moors</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Aldershot</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:00</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:00</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:00</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Oxford City</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>3</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>AFC Fylde</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Oldham</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Dag &amp; Red</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-rochdale/0SSBxgtA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kidderminster</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Woking</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Gateshead</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Ebbsfleet</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:35</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Chesterfield</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:15</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:15</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Hartlepool</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>3</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Eastleigh</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-eastleigh/tQCAvFBc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>2</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-bromley/MaCfUUmj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45206.77083333334</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Dorking</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>2</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Barnet</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J181" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-barnet/zTLKHi4p/</t>
         </is>
       </c>
     </row>

--- a/2023/england_national-league_2023-2024.xlsx
+++ b/2023/england_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V181"/>
+  <dimension ref="A1:V191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,63 +3341,63 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.23</v>
+        <v>1.88</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.27</v>
+        <v>1.94</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.34</v>
+        <v>3.71</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.26</v>
+        <v>3.89</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.01</v>
+        <v>3.78</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-altrincham/hA72oE5b/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-aldershot/SO3vsaEC/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,63 +3433,63 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.88</v>
+        <v>2.23</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.94</v>
+        <v>2.27</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.71</v>
+        <v>3.34</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.89</v>
+        <v>3.26</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.78</v>
+        <v>3.01</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-aldershot/SO3vsaEC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-altrincham/hA72oE5b/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>16/08/2023 21:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 04:37</t>
+          <t>19/08/2023 15:51</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>16/08/2023 21:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.41</v>
+        <v>4.36</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 04:37</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.12</v>
+        <v>3.95</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>16/08/2023 21:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 04:37</t>
+          <t>19/08/2023 15:51</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-hartlepool/zgPhdVJG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-dorking-wanderers/d2QlcB4A/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>16/08/2023 21:12</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:51</t>
+          <t>19/08/2023 15:53</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>16/08/2023 21:12</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.36</v>
+        <v>3.37</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:53</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.95</v>
+        <v>3.12</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>16/08/2023 21:12</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.48</v>
+        <v>2.81</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:51</t>
+          <t>19/08/2023 15:53</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-dorking-wanderers/d2QlcB4A/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-dagenham-red/0zXuaXZc/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:53</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:53</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.81</v>
+        <v>3.49</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:53</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-dagenham-red/0zXuaXZc/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-bromley/6DXy0DKi/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.23</v>
+        <v>1.84</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.34</v>
+        <v>3.67</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.23</v>
+        <v>4.47</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.49</v>
+        <v>5.68</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-bromley/6DXy0DKi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-oxford-city/j5kkxASp/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 04:37</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.67</v>
+        <v>3.41</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 04:37</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.47</v>
+        <v>4.12</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>5.68</v>
+        <v>3.42</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 04:37</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-oxford-city/j5kkxASp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-hartlepool/zgPhdVJG/</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -13829,14 +13829,14 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="n">
-        <v>4.32</v>
+        <v>3.13</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>7.26</v>
+        <v>3.48</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.84</v>
+        <v>3.27</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>4.45</v>
+        <v>3.53</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>1.45</v>
+        <v>2.11</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-chesterfield/tpcIWQDJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-barnet/St9z8syJ/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:31</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.53</v>
+        <v>3.7</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:21</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.33</v>
+        <v>2.3</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:31</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-solihull-moors/YeidPr6g/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oldham/vLxgQOjm/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>2.88</v>
+        <v>2.29</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.67</v>
+        <v>2.37</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:31</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.46</v>
+        <v>3.23</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:21</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.3</v>
+        <v>3.08</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:31</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oldham/vLxgQOjm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-southend/0UwkR4ys/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>2.29</v>
+        <v>4.32</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.37</v>
+        <v>7.26</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.23</v>
+        <v>3.84</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.45</v>
+        <v>4.45</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.08</v>
+        <v>1.71</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-southend/0UwkR4ys/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-chesterfield/tpcIWQDJ/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>2</v>
       </c>
       <c r="J151" t="n">
-        <v>3.13</v>
+        <v>2.15</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>3.48</v>
+        <v>2.62</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.27</v>
+        <v>3.47</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14324,11 +14324,11 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.24</v>
+        <v>3.33</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2.11</v>
+        <v>2.63</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-barnet/St9z8syJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-solihull-moors/YeidPr6g/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
         <v>2</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Rochdale</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
       <c r="J158" t="n">
-        <v>2.47</v>
+        <v>1.74</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.22</v>
+        <v>2.01</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:06</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>2.84</v>
+        <v>4.57</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.01</v>
+        <v>1.54</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.56</v>
+        <v>4.45</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>4.57</v>
+        <v>6.56</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>3.94</v>
+        <v>5.84</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>4.45</v>
+        <v>3.87</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4.33</v>
+        <v>4.11</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>6.56</v>
+        <v>5.09</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>5.84</v>
+        <v>5.32</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I161" t="n">
         <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.87</v>
+        <v>4.92</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4.11</v>
+        <v>4.93</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>5.09</v>
+        <v>6.39</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.32</v>
+        <v>6.49</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G162" t="n">
+        <v>5</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Ebbsfleet</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
         <v>2</v>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Wealdstone</t>
-        </is>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
       <c r="J162" t="n">
-        <v>1.38</v>
+        <v>2.24</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,48 +15316,48 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.44</v>
+        <v>2.15</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
+          <t>03/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
           <t>03/10/2023 20:37</t>
         </is>
       </c>
-      <c r="N162" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="O162" t="inlineStr">
+      <c r="R162" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S162" t="inlineStr">
         <is>
           <t>30/09/2023 17:13</t>
         </is>
       </c>
-      <c r="P162" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:37</t>
-        </is>
-      </c>
-      <c r="R162" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
       <c r="T162" t="n">
-        <v>6.49</v>
+        <v>3.07</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:20</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.24</v>
+        <v>2.47</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.94</v>
+        <v>3.39</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:06</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>3.16</v>
+        <v>2.84</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.07</v>
+        <v>3.36</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>03/10/2023 20:20</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="n">
-        <v>2.92</v>
+        <v>2.45</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 16:23</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.36</v>
+        <v>3.05</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 16:22</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.32</v>
+        <v>2.99</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>2.99</v>
+        <v>3.4</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 18:22</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>2.45</v>
+        <v>1.47</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>2.21</v>
+        <v>1.49</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>03/10/2023 16:23</t>
+          <t>03/10/2023 19:52</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.05</v>
+        <v>4.57</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.34</v>
+        <v>4.64</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>03/10/2023 16:22</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>2.99</v>
+        <v>6.29</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>3.4</v>
+        <v>6.15</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>03/10/2023 18:22</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,14 +15669,14 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>03/10/2023 19:52</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>4.57</v>
+        <v>4.17</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.64</v>
+        <v>4.76</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>6.29</v>
+        <v>5.08</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>6.15</v>
+        <v>6.39</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -15761,63 +15761,63 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>4.17</v>
+        <v>3.75</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>4.76</v>
+        <v>4.04</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>5.08</v>
+        <v>4.02</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>6.39</v>
+        <v>4.27</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
         </is>
       </c>
     </row>
@@ -15845,71 +15845,71 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>1.85</v>
+        <v>2.92</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.77</v>
+        <v>2.35</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.75</v>
+        <v>3.36</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4.04</v>
+        <v>3.51</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>4.02</v>
+        <v>2.32</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T168" t="n">
-        <v>4.27</v>
+        <v>2.99</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G170" t="n">
+        <v>3</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>AFC Fylde</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Aldershot</t>
-        </is>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
       <c r="J170" t="n">
-        <v>1.79</v>
+        <v>2.86</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.91</v>
+        <v>2.99</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.83</v>
+        <v>3.53</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.79</v>
+        <v>3.41</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>4.23</v>
+        <v>2.28</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>3.88</v>
+        <v>2.4</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>2.86</v>
+        <v>1.81</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.99</v>
+        <v>1.74</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.41</v>
+        <v>3.7</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>2.28</v>
+        <v>4.36</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>2.4</v>
+        <v>4.98</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>1.81</v>
+        <v>3.35</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>4.36</v>
+        <v>2.2</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>4.98</v>
+        <v>2.23</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-rochdale/0SSBxgtA/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>3.26</v>
+        <v>2.32</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.23</v>
+        <v>3.11</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-rochdale/0SSBxgtA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.43</v>
+        <v>3.74</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.11</v>
+        <v>2.5</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -16497,14 +16497,14 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I175" t="n">
         <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.41</v>
+        <v>4.22</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.52</v>
+        <v>4.74</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.68</v>
+        <v>4.79</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.28</v>
+        <v>5.22</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I176" t="n">
         <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>1.58</v>
+        <v>2.22</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.55</v>
+        <v>2.41</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>4.22</v>
+        <v>3.28</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,15 +16620,15 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>4.74</v>
+        <v>3.36</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>4.79</v>
+        <v>3.16</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>5.22</v>
+        <v>3.01</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-bromley/MaCfUUmj/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,63 +16681,63 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>2.05</v>
+        <v>3.68</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.65</v>
+        <v>4.19</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.44</v>
+        <v>3.67</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 15:43</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -16773,63 +16773,63 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>3.68</v>
+        <v>1.79</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>4.19</v>
+        <v>1.91</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.72</v>
+        <v>3.79</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>07/10/2023 15:43</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>1.88</v>
+        <v>4.23</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>1.85</v>
+        <v>3.88</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
         </is>
       </c>
     </row>
@@ -16949,22 +16949,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I180" t="n">
         <v>2</v>
       </c>
       <c r="J180" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -16972,48 +16972,48 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N180" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
         <v>3.28</v>
       </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P180" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="Q180" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R180" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="S180" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T180" t="n">
-        <v>3.01</v>
-      </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-bromley/MaCfUUmj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
         </is>
       </c>
     </row>
@@ -17106,6 +17106,926 @@
       <c r="V181" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-barnet/zTLKHi4p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>AFC Fylde</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Ebbsfleet</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-ebbsfleet/0jBbTl3d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Aldershot</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Hartlepool</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-hartlepool/2ekshYuc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Barnet</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>3</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-maidenhead/f37ljCA9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>3</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Oxford City</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-oxford-city/Yg6hkWPF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Dag &amp; Red</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>2</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Woking</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:30</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:30</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:30</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-woking/ULa1mAfS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Eastleigh</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>3</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-york-city/n1nTrU2q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Kidderminster</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:34</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-kidderminster/04jXslIk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>3</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Oldham</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>4</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-oldham/rTuxs8Xe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>5</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Solihull Moors</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-solihull-moors/MJvttSn2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45220.77083333334</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-boreham-wood/lQSN4BP2/</t>
         </is>
       </c>
     </row>

--- a/2023/england_national-league_2023-2024.xlsx
+++ b/2023/england_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V203"/>
+  <dimension ref="A1:V215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.92</v>
+        <v>4.16</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.01</v>
+        <v>6.52</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.47</v>
+        <v>5.15</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.62</v>
+        <v>1.71</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.85</v>
+        <v>1.42</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-rochdale/EJ8bnfjh/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-chesterfield/WfJgmzyn/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Kidderminster</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Chesterfield</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
       <c r="J28" t="n">
-        <v>4.16</v>
+        <v>1.98</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6.52</v>
+        <v>2.18</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 09:37</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.96</v>
+        <v>3.57</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>5.15</v>
+        <v>3.53</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 09:37</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.71</v>
+        <v>3.68</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.42</v>
+        <v>3.31</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 09:37</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-chesterfield/WfJgmzyn/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-kidderminster/IXfQoNas/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/08/2023 09:37</t>
+          <t>15/08/2023 19:43</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.57</v>
+        <v>3.71</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,11 +3096,11 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.53</v>
+        <v>3.87</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/08/2023 09:37</t>
+          <t>15/08/2023 19:43</t>
         </is>
       </c>
       <c r="R29" t="n">
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.31</v>
+        <v>4.39</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/08/2023 09:37</t>
+          <t>15/08/2023 19:43</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-kidderminster/IXfQoNas/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-maidenhead/6F2rtJTI/</t>
         </is>
       </c>
     </row>
@@ -3149,19 +3149,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>1.88</v>
@@ -3172,11 +3172,11 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/08/2023 19:43</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/08/2023 19:43</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.68</v>
+        <v>3.89</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.39</v>
+        <v>3.78</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/08/2023 19:43</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-maidenhead/6F2rtJTI/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-aldershot/SO3vsaEC/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.94</v>
+        <v>2.67</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 18:51</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.71</v>
+        <v>3.34</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 08:07</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.89</v>
+        <v>2.96</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.78</v>
+        <v>2.58</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 18:51</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-aldershot/SO3vsaEC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-barnet/nDnsrua6/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.4</v>
+        <v>3.31</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.67</v>
+        <v>4</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>15/08/2023 18:51</t>
+          <t>15/08/2023 15:39</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15/08/2023 08:07</t>
+          <t>15/08/2023 15:39</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.96</v>
+        <v>2.17</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.58</v>
+        <v>1.89</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15/08/2023 18:51</t>
+          <t>15/08/2023 13:49</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-barnet/nDnsrua6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-southend/8MmwqLq0/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Southend</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
       <c r="J36" t="n">
-        <v>3.31</v>
+        <v>1.92</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>2.01</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>15/08/2023 15:39</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.42</v>
+        <v>3.62</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.72</v>
+        <v>3.47</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>15/08/2023 15:39</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.17</v>
+        <v>3.62</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>1.89</v>
+        <v>3.85</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>15/08/2023 13:49</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-southend/8MmwqLq0/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-rochdale/EJ8bnfjh/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>4</v>
       </c>
       <c r="J134" t="n">
-        <v>3.86</v>
+        <v>2.88</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>5.18</v>
+        <v>3.13</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>26/09/2023 20:43</t>
+          <t>26/09/2023 19:18</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.74</v>
+        <v>3.46</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.55</v>
+        <v>3.64</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>26/09/2023 20:21</t>
+          <t>26/09/2023 20:01</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>1.57</v>
+        <v>2.22</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>26/09/2023 20:43</t>
+          <t>26/09/2023 20:01</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-gateshead/hOfhe4iD/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-barnet/2gxqIRbQ/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Woking</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Altrincham</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
       <c r="J135" t="n">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.26</v>
+        <v>2.97</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>26/09/2023 20:43</t>
+          <t>26/09/2023 20:44</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.53</v>
+        <v>3.81</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>26/09/2023 20:43</t>
+          <t>26/09/2023 20:44</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>26/09/2023 20:43</t>
+          <t>26/09/2023 20:44</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-altrincham/vLjldpx7/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-woking/YJXvJ7qK/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>2.51</v>
+        <v>3.86</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.06</v>
+        <v>5.18</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>26/09/2023 19:57</t>
+          <t>26/09/2023 20:43</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.21</v>
+        <v>3.74</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.41</v>
+        <v>4.55</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>26/09/2023 19:57</t>
+          <t>26/09/2023 20:21</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.78</v>
+        <v>1.88</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.36</v>
+        <v>1.57</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>26/09/2023 19:57</t>
+          <t>26/09/2023 20:43</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-oldham/pbipcQM0/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-gateshead/hOfhe4iD/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,14 +13001,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.79</v>
+        <v>2.59</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.96</v>
+        <v>3.26</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>26/09/2023 15:22</t>
+          <t>26/09/2023 20:43</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.84</v>
+        <v>3.28</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.82</v>
+        <v>3.53</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>26/09/2023 16:01</t>
+          <t>26/09/2023 20:43</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>3.92</v>
+        <v>2.75</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>3.63</v>
+        <v>2.2</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>26/09/2023 20:30</t>
+          <t>26/09/2023 20:43</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-solihull-moors/67htb67f/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-altrincham/vLjldpx7/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2.26</v>
+        <v>2.51</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.34</v>
+        <v>3.06</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>26/09/2023 20:44</t>
+          <t>26/09/2023 19:57</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.36</v>
+        <v>3.21</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>26/09/2023 20:44</t>
+          <t>26/09/2023 19:57</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.96</v>
+        <v>2.36</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>26/09/2023 20:44</t>
+          <t>26/09/2023 19:57</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-boreham-wood/Ycd46UaE/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-oldham/pbipcQM0/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>26/09/2023 20:28</t>
+          <t>26/09/2023 18:14</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>26/09/2023 20:28</t>
+          <t>26/09/2023 18:16</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.33</v>
+        <v>4.09</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.98</v>
+        <v>3.69</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>26/09/2023 20:28</t>
+          <t>26/09/2023 17:19</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-eastleigh/UPkD48UQ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-dagenham-red/Qeyqanhl/</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -13369,14 +13369,14 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>3.19</v>
+        <v>2.18</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>26/09/2023 20:16</t>
+          <t>26/09/2023 20:28</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.66</v>
+        <v>3.42</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>26/09/2023 19:35</t>
+          <t>26/09/2023 20:28</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>2.14</v>
+        <v>3.33</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>2.52</v>
+        <v>2.98</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>26/09/2023 20:16</t>
+          <t>26/09/2023 20:28</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-southend/GMo95lFK/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-eastleigh/UPkD48UQ/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>2.88</v>
+        <v>3.19</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.13</v>
+        <v>2.68</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>26/09/2023 19:18</t>
+          <t>26/09/2023 20:16</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>26/09/2023 20:01</t>
+          <t>26/09/2023 19:35</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.22</v>
+        <v>2.52</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>26/09/2023 20:01</t>
+          <t>26/09/2023 20:16</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-barnet/2gxqIRbQ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-southend/GMo95lFK/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>1.93</v>
+        <v>2.26</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.13</v>
+        <v>2.34</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>26/09/2023 18:14</t>
+          <t>26/09/2023 20:44</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.42</v>
+        <v>3.36</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.28</v>
+        <v>3.58</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>26/09/2023 18:16</t>
+          <t>26/09/2023 20:44</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.09</v>
+        <v>3.18</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>3.69</v>
+        <v>2.96</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>26/09/2023 17:19</t>
+          <t>26/09/2023 20:44</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-dagenham-red/Qeyqanhl/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-boreham-wood/Ycd46UaE/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>2.79</v>
+        <v>1.79</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.97</v>
+        <v>1.96</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>26/09/2023 20:44</t>
+          <t>26/09/2023 15:22</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>26/09/2023 20:44</t>
+          <t>26/09/2023 16:01</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.32</v>
+        <v>3.92</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.24</v>
+        <v>3.63</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>26/09/2023 20:44</t>
+          <t>26/09/2023 20:30</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-woking/YJXvJ7qK/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-solihull-moors/67htb67f/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.66</v>
+        <v>4.32</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>3.54</v>
+        <v>7.26</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.34</v>
+        <v>3.84</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.87</v>
+        <v>4.45</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>2.64</v>
+        <v>1.71</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>1.98</v>
+        <v>1.45</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-woking/42OADo7s/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-chesterfield/tpcIWQDJ/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,48 +13936,48 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
+          <t>30/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
           <t>30/09/2023 15:39</t>
         </is>
       </c>
-      <c r="N147" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O147" t="inlineStr">
+      <c r="R147" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S147" t="inlineStr">
         <is>
           <t>26/09/2023 20:12</t>
         </is>
       </c>
-      <c r="P147" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:39</t>
-        </is>
-      </c>
-      <c r="R147" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>26/09/2023 20:12</t>
-        </is>
-      </c>
       <c r="T147" t="n">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-dagenham-red/nRDFC5Mm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-solihull-moors/YeidPr6g/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>3.13</v>
+        <v>2.88</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>4.15</v>
+        <v>2.67</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:31</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.32</v>
+        <v>3.46</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:21</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:31</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-gateshead/b1HJBPyf/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oldham/vLxgQOjm/</t>
         </is>
       </c>
     </row>
@@ -14097,71 +14097,71 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G149" t="n">
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>2</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
         <v>3</v>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Boreham Wood</t>
-        </is>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>26/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>30/09/2023 12:17</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>26/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P149" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>30/09/2023 08:28</t>
-        </is>
-      </c>
-      <c r="R149" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>26/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T149" t="n">
-        <v>2.49</v>
-      </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>30/09/2023 12:17</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-boreham-wood/hOGNAqi0/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-southend/0UwkR4ys/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Barnet</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
         <v>2</v>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Eastleigh</t>
-        </is>
-      </c>
-      <c r="I150" t="n">
-        <v>3</v>
-      </c>
       <c r="J150" t="n">
-        <v>2.09</v>
+        <v>3.13</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.31</v>
+        <v>3.48</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.31</v>
+        <v>3.53</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.67</v>
+        <v>2.24</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>3.24</v>
+        <v>2.11</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-eastleigh/WEFR9366/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-barnet/St9z8syJ/</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -14289,14 +14289,14 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>2</v>
       </c>
       <c r="J151" t="n">
-        <v>1.49</v>
+        <v>2.66</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.62</v>
+        <v>3.54</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>4.39</v>
+        <v>3.34</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.45</v>
+        <v>3.87</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>6.2</v>
+        <v>2.64</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>4.85</v>
+        <v>1.98</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-dorking-wanderers/ljAW8NLC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-woking/42OADo7s/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J152" t="n">
-        <v>3.13</v>
+        <v>2.09</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,48 +14396,48 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>3.48</v>
+        <v>2.31</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
+          <t>30/09/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
           <t>30/09/2023 15:50</t>
         </is>
       </c>
-      <c r="N152" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="O152" t="inlineStr">
+      <c r="R152" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S152" t="inlineStr">
         <is>
           <t>26/09/2023 20:12</t>
         </is>
       </c>
-      <c r="P152" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:50</t>
-        </is>
-      </c>
-      <c r="R152" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>26/09/2023 20:12</t>
-        </is>
-      </c>
       <c r="T152" t="n">
-        <v>2.11</v>
+        <v>3.24</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-barnet/St9z8syJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-eastleigh/WEFR9366/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>4.32</v>
+        <v>2.45</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>7.26</v>
+        <v>2.65</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 12:17</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>4.45</v>
+        <v>3.77</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 08:28</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>1.71</v>
+        <v>2.61</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1.45</v>
+        <v>2.49</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 12:17</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-chesterfield/tpcIWQDJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-boreham-wood/hOGNAqi0/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>2.15</v>
+        <v>3.13</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.62</v>
+        <v>4.15</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.47</v>
+        <v>3.32</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.53</v>
+        <v>3.85</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.33</v>
+        <v>2.22</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-solihull-moors/YeidPr6g/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-gateshead/b1HJBPyf/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.45</v>
+        <v>3.51</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-southend/0UwkR4ys/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-dagenham-red/nRDFC5Mm/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="n">
-        <v>2.88</v>
+        <v>1.49</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.67</v>
+        <v>1.62</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:31</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.46</v>
+        <v>4.39</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.7</v>
+        <v>4.45</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:21</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.5</v>
+        <v>4.85</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:31</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oldham/vLxgQOjm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-dorking-wanderers/ljAW8NLC/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1.74</v>
+        <v>2.47</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:06</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.57</v>
+        <v>2.84</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.94</v>
+        <v>3.36</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>4.45</v>
+        <v>3.87</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.33</v>
+        <v>4.11</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>6.56</v>
+        <v>5.09</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>5.84</v>
+        <v>5.32</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -15117,14 +15117,14 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>2.47</v>
+        <v>1.38</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.36</v>
+        <v>4.92</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,15 +15148,15 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.39</v>
+        <v>4.93</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:06</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>2.84</v>
+        <v>6.39</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>3.36</v>
+        <v>6.49</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.87</v>
+        <v>3.44</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4.11</v>
+        <v>3.94</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>5.09</v>
+        <v>3.16</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.32</v>
+        <v>3.07</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:20</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
         </is>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -15301,14 +15301,14 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 19:52</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4.92</v>
+        <v>4.57</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4.93</v>
+        <v>4.64</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>6.39</v>
+        <v>6.29</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>6.49</v>
+        <v>6.15</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 16:23</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.44</v>
+        <v>3.05</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.94</v>
+        <v>3.34</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 16:22</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>3.16</v>
+        <v>2.99</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.07</v>
+        <v>3.4</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>03/10/2023 20:20</t>
+          <t>03/10/2023 18:22</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>2.92</v>
+        <v>1.56</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.35</v>
+        <v>1.46</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.36</v>
+        <v>4.17</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.51</v>
+        <v>4.76</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.32</v>
+        <v>5.08</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>2.99</v>
+        <v>6.39</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
         </is>
       </c>
     </row>
@@ -15569,71 +15569,71 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Aldershot</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
         <v>1</v>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>York City</t>
-        </is>
-      </c>
-      <c r="I165" t="n">
-        <v>2</v>
-      </c>
       <c r="J165" t="n">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L165" t="n">
-        <v>2.21</v>
+        <v>1.77</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>03/10/2023 16:23</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.34</v>
+        <v>4.04</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>03/10/2023 16:22</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>2.99</v>
+        <v>4.02</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T165" t="n">
-        <v>3.4</v>
+        <v>4.27</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>03/10/2023 18:22</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,7 +15669,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I166" t="n">
@@ -15680,52 +15680,52 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>03/10/2023 19:52</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.64</v>
+        <v>4.33</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>6.29</v>
+        <v>6.56</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>6.15</v>
+        <v>5.84</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1.56</v>
+        <v>2.92</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.46</v>
+        <v>2.35</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>4.17</v>
+        <v>3.36</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>4.76</v>
+        <v>3.51</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>5.08</v>
+        <v>2.32</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>6.39</v>
+        <v>2.99</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
         </is>
       </c>
     </row>
@@ -15845,71 +15845,71 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
         <v>2</v>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Aldershot</t>
-        </is>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
       <c r="J168" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.77</v>
+        <v>2.01</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.75</v>
+        <v>3.56</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4.04</v>
+        <v>3.4</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>4.02</v>
+        <v>4.57</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T168" t="n">
-        <v>4.27</v>
+        <v>3.94</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
         </is>
       </c>
     </row>
@@ -16029,71 +16029,71 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>2</v>
       </c>
       <c r="J170" t="n">
-        <v>2.22</v>
+        <v>3.68</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.41</v>
+        <v>4.19</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.28</v>
+        <v>3.67</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.36</v>
+        <v>3.72</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:43</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>3.16</v>
+        <v>1.88</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="T170" t="n">
-        <v>3.01</v>
+        <v>1.85</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-bromley/MaCfUUmj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
         </is>
       </c>
     </row>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -16129,14 +16129,14 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>2</v>
       </c>
       <c r="J171" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.52</v>
+        <v>3.74</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>3.28</v>
+        <v>2.5</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -16221,14 +16221,14 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.83</v>
+        <v>4.22</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.79</v>
+        <v>4.74</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>4.23</v>
+        <v>4.79</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.88</v>
+        <v>5.22</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,63 +16313,63 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.99</v>
+        <v>1.81</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:32</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.53</v>
+        <v>3.8</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.41</v>
+        <v>4.13</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:56</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.28</v>
+        <v>4.21</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.4</v>
+        <v>3.97</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:32</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-eastleigh/tQCAvFBc/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,14 +16405,14 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>1.81</v>
+        <v>2.32</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.74</v>
+        <v>2.32</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.7</v>
+        <v>3.43</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>4.36</v>
+        <v>2.8</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>4.98</v>
+        <v>3.11</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I176" t="n">
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:32</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>4.13</v>
+        <v>3.7</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:56</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>4.21</v>
+        <v>4.36</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.97</v>
+        <v>4.98</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:32</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-eastleigh/tQCAvFBc/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>3</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>AFC Fylde</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Altrincham</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>2</v>
-      </c>
       <c r="J177" t="n">
-        <v>1.58</v>
+        <v>2.86</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.55</v>
+        <v>2.99</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>4.22</v>
+        <v>3.53</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4.74</v>
+        <v>3.41</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         </is>
       </c>
       <c r="R177" t="n">
-        <v>4.79</v>
+        <v>2.28</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>5.22</v>
+        <v>2.4</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -16773,14 +16773,14 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.65</v>
+        <v>1.91</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.44</v>
+        <v>3.83</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.74</v>
+        <v>3.79</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.4</v>
+        <v>4.23</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>2.5</v>
+        <v>3.88</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -16865,63 +16865,63 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>2</v>
       </c>
       <c r="J179" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
         <v>3.68</v>
       </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>04/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:15</t>
-        </is>
-      </c>
-      <c r="N179" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>04/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P179" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q179" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="R179" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>1.85</v>
+        <v>3.28</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
         </is>
       </c>
     </row>
@@ -16949,22 +16949,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -16972,15 +16972,15 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>2.32</v>
+        <v>2.41</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3.55</v>
+        <v>3.28</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -16988,15 +16988,15 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3.43</v>
+        <v>3.36</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>2.8</v>
+        <v>3.16</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-bromley/MaCfUUmj/</t>
         </is>
       </c>
     </row>
@@ -17133,22 +17133,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,15 +17156,15 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3.13</v>
+        <v>3.41</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -17172,15 +17172,15 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3.07</v>
+        <v>3.46</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>21/10/2023 15:34</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>4.03</v>
+        <v>3.34</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -17188,16 +17188,16 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>3.18</v>
+        <v>4.22</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-kidderminster/04jXslIk/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-solihull-moors/MJvttSn2/</t>
         </is>
       </c>
     </row>
@@ -17225,22 +17225,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J183" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.92</v>
+        <v>2.51</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17268,11 +17268,11 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>4.22</v>
+        <v>2.81</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-solihull-moors/MJvttSn2/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-oldham/rTuxs8Xe/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.4</v>
+        <v>3.13</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.46</v>
+        <v>3.07</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:34</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>3.37</v>
+        <v>4.03</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2.81</v>
+        <v>3.18</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-oldham/rTuxs8Xe/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-kidderminster/04jXslIk/</t>
         </is>
       </c>
     </row>
@@ -18053,19 +18053,19 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
         <v>2.84</v>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.41</v>
+        <v>2.87</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 20:24</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.88</v>
+        <v>3.64</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 20:24</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.02</v>
+        <v>2.37</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 19:50</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-gateshead/Ors6Hl98/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-woking/A3aJgoH1/</t>
         </is>
       </c>
     </row>
@@ -18145,71 +18145,71 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2.58</v>
+        <v>1.71</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.63</v>
+        <v>1.63</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>24/10/2023 19:49</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.26</v>
+        <v>3.96</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.35</v>
+        <v>4.35</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>24/10/2023 18:54</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>2.78</v>
+        <v>4.49</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.73</v>
+        <v>4.84</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>24/10/2023 19:49</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-hartlepool/Mw3Nh5W7/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oxford-city/Us9watgs/</t>
         </is>
       </c>
     </row>
@@ -18237,22 +18237,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G194" t="n">
+        <v>3</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Ebbsfleet</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Woking</t>
-        </is>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
       <c r="J194" t="n">
-        <v>2.84</v>
+        <v>1.67</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.87</v>
+        <v>1.51</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:24</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.64</v>
+        <v>4.67</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:24</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>2.5</v>
+        <v>4.84</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>2.37</v>
+        <v>5.78</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>24/10/2023 19:50</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-woking/A3aJgoH1/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-ebbsfleet/2ZuAG8OE/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.46</v>
+        <v>3.41</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:18</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.16</v>
+        <v>3.88</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:18</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>3.12</v>
+        <v>2.02</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:18</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-boreham-wood/Gt0FfR1e/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-gateshead/Ors6Hl98/</t>
         </is>
       </c>
     </row>
@@ -18421,22 +18421,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>1.35</v>
+        <v>2.58</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -18444,15 +18444,15 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1.26</v>
+        <v>2.63</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>24/10/2023 13:02</t>
+          <t>24/10/2023 19:49</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>5.17</v>
+        <v>3.26</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -18460,15 +18460,15 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>5.79</v>
+        <v>3.35</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 18:54</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>7.75</v>
+        <v>2.78</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -18476,16 +18476,16 @@
         </is>
       </c>
       <c r="T196" t="n">
-        <v>9.699999999999999</v>
+        <v>2.73</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 19:49</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-york-city/xj1Be7nk/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-hartlepool/Mw3Nh5W7/</t>
         </is>
       </c>
     </row>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -18521,63 +18521,63 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J197" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.6</v>
+        <v>2.46</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:18</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>3.9</v>
+        <v>3.14</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4.32</v>
+        <v>3.16</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:18</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>4.44</v>
+        <v>2.76</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="T197" t="n">
-        <v>5.25</v>
+        <v>3.12</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>24/10/2023 20:35</t>
+          <t>24/10/2023 20:18</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-solihull-moors/I5Kv1TOR/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-boreham-wood/Gt0FfR1e/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>1.96</v>
+        <v>2.73</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.23</v>
+        <v>2.82</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.44</v>
+        <v>3.71</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>3.77</v>
+        <v>2.58</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.27</v>
+        <v>2.38</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-kidderminster/OrLz299L/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-oldham/SGRR3Vv9/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>2.01</v>
+        <v>1.76</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.49</v>
+        <v>3.77</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.77</v>
+        <v>4.27</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>3.69</v>
+        <v>4.14</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.72</v>
+        <v>5.58</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-maidenhead/AuHW2kfF/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-dorking-wanderers/KE66dmXr/</t>
         </is>
       </c>
     </row>
@@ -18789,22 +18789,22 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>2.73</v>
+        <v>1.74</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.82</v>
+        <v>1.6</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>3.34</v>
+        <v>3.9</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.71</v>
+        <v>4.32</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         </is>
       </c>
       <c r="R200" t="n">
-        <v>2.58</v>
+        <v>4.44</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>2.38</v>
+        <v>5.25</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:35</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-oldham/SGRR3Vv9/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-solihull-moors/I5Kv1TOR/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,15 +18904,15 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1.51</v>
+        <v>2.23</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.96</v>
+        <v>3.56</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,15 +18920,15 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>4.67</v>
+        <v>3.44</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>4.84</v>
+        <v>3.77</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,16 +18936,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>5.78</v>
+        <v>3.27</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-ebbsfleet/2ZuAG8OE/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-kidderminster/OrLz299L/</t>
         </is>
       </c>
     </row>
@@ -18973,22 +18973,22 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G202" t="n">
+        <v>4</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
         <v>2</v>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Dorking</t>
-        </is>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
       <c r="J202" t="n">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -18996,48 +18996,48 @@
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="N202" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
         <v>3.77</v>
       </c>
-      <c r="O202" t="inlineStr">
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S202" t="inlineStr">
         <is>
           <t>21/10/2023 17:13</t>
         </is>
       </c>
-      <c r="P202" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="Q202" t="inlineStr">
-        <is>
-          <t>24/10/2023 20:43</t>
-        </is>
-      </c>
-      <c r="R202" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="S202" t="inlineStr">
-        <is>
-          <t>21/10/2023 17:13</t>
-        </is>
-      </c>
       <c r="T202" t="n">
-        <v>5.58</v>
+        <v>3.72</v>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-dorking-wanderers/KE66dmXr/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-maidenhead/AuHW2kfF/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,1175 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>Chesterfield</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>4</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>24/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T203" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-york-city/xj1Be7nk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Solihull Moors</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
           <t>Wealdstone</t>
         </is>
       </c>
-      <c r="G203" t="n">
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T204" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-wealdstone/GEaDBJxm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Oxford City</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Barnet</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T205" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-barnet/YkA8CaNt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Oldham</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:44</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T206" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-altrincham/dUItHuFP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
         <v>3</v>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Oxford City</t>
-        </is>
-      </c>
-      <c r="I203" t="n">
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Eastleigh</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T207" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-eastleigh/rRUbhdxP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kidderminster</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
         <v>1</v>
       </c>
-      <c r="J203" t="n">
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Chesterfield</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>3</v>
+      </c>
+      <c r="J208" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T208" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-chesterfield/4zWfgxNI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Gateshead</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>AFC Fylde</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>4</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T209" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-afc-fylde/bN0febh6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Ebbsfleet</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Dag &amp; Red</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:09</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T210" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-dagenham-red/401jdvw0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Dorking</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Aldershot</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T211" t="n">
+        <v>2</v>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-aldershot/jccncKNg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T212" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-southend/8Y7sb08m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Woking</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
         <v>1.71</v>
       </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>21/10/2023 17:44</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>24/10/2023 20:44</t>
-        </is>
-      </c>
-      <c r="N203" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>21/10/2023 17:44</t>
-        </is>
-      </c>
-      <c r="P203" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q203" t="inlineStr">
-        <is>
-          <t>24/10/2023 20:44</t>
-        </is>
-      </c>
-      <c r="R203" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="S203" t="inlineStr">
-        <is>
-          <t>21/10/2023 17:44</t>
-        </is>
-      </c>
-      <c r="T203" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="U203" t="inlineStr">
-        <is>
-          <t>24/10/2023 20:44</t>
-        </is>
-      </c>
-      <c r="V203" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oxford-city/Us9watgs/</t>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:22</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:22</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:22</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-bromley/f5bHAwhg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Hartlepool</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>3</v>
+      </c>
+      <c r="J214" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:15</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-rochdale/xEabfI7C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45227.77083333334</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:32</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-halifax/Ov3L9c7a/</t>
         </is>
       </c>
     </row>

--- a/2023/england_national-league_2023-2024.xlsx
+++ b/2023/england_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V215"/>
+  <dimension ref="A1:V216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.27</v>
+        <v>2.01</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.34</v>
+        <v>3.62</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.7</v>
+        <v>3.47</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.26</v>
+        <v>3.62</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.01</v>
+        <v>3.85</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-altrincham/hA72oE5b/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-rochdale/EJ8bnfjh/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.92</v>
+        <v>2.23</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.01</v>
+        <v>2.27</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.62</v>
+        <v>3.34</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.47</v>
+        <v>3.7</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.62</v>
+        <v>3.26</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.85</v>
+        <v>3.01</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-rochdale/EJ8bnfjh/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-altrincham/hA72oE5b/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>2.66</v>
+        <v>2.45</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>3.54</v>
+        <v>2.65</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 12:17</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.34</v>
+        <v>3.59</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.87</v>
+        <v>3.77</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 08:28</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>1.98</v>
+        <v>2.49</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 12:17</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-woking/42OADo7s/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-boreham-wood/hOGNAqi0/</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -14473,14 +14473,14 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>2.45</v>
+        <v>3.13</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.65</v>
+        <v>4.15</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>30/09/2023 12:17</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.77</v>
+        <v>3.85</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>30/09/2023 08:28</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.61</v>
+        <v>2.22</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>2.49</v>
+        <v>1.83</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>30/09/2023 12:17</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-boreham-wood/hOGNAqi0/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-gateshead/b1HJBPyf/</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -14565,14 +14565,14 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="n">
-        <v>3.13</v>
+        <v>2.17</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>4.15</v>
+        <v>2.52</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.85</v>
+        <v>3.51</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.22</v>
+        <v>3.12</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>1.83</v>
+        <v>2.76</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-gateshead/b1HJBPyf/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-dagenham-red/nRDFC5Mm/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>2.17</v>
+        <v>2.66</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.52</v>
+        <v>3.54</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.51</v>
+        <v>3.87</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.12</v>
+        <v>2.64</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-dagenham-red/nRDFC5Mm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-woking/42OADo7s/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
         <v>2</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Rochdale</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
       <c r="J158" t="n">
-        <v>2.47</v>
+        <v>1.74</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.22</v>
+        <v>2.01</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:06</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>2.84</v>
+        <v>4.57</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.87</v>
+        <v>4.45</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.11</v>
+        <v>4.33</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>5.09</v>
+        <v>6.56</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>5.32</v>
+        <v>5.84</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -15117,14 +15117,14 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1.38</v>
+        <v>2.47</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.44</v>
+        <v>2.22</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>4.92</v>
+        <v>3.36</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,15 +15148,15 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4.93</v>
+        <v>3.39</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:06</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>6.39</v>
+        <v>2.84</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>6.49</v>
+        <v>3.36</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>2.24</v>
+        <v>1.6</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.44</v>
+        <v>3.87</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.94</v>
+        <v>4.11</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>3.16</v>
+        <v>5.09</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>3.07</v>
+        <v>5.32</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:20</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
         </is>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -15301,14 +15301,14 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>03/10/2023 19:52</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4.57</v>
+        <v>4.92</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4.64</v>
+        <v>4.93</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>6.29</v>
+        <v>6.39</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>6.15</v>
+        <v>6.49</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>2.45</v>
+        <v>2.24</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>03/10/2023 16:23</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.05</v>
+        <v>3.44</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.34</v>
+        <v>3.94</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>03/10/2023 16:22</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.99</v>
+        <v>3.16</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>03/10/2023 18:22</t>
+          <t>03/10/2023 20:20</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>2</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>AFC Fylde</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
       <c r="J164" t="n">
-        <v>1.56</v>
+        <v>2.45</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.46</v>
+        <v>2.21</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 16:23</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.17</v>
+        <v>3.05</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4.76</v>
+        <v>3.34</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 16:22</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>5.08</v>
+        <v>2.99</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>6.39</v>
+        <v>3.4</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 18:22</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
         </is>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -15577,63 +15577,63 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1.77</v>
+        <v>1.49</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 19:52</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.75</v>
+        <v>4.57</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.04</v>
+        <v>4.64</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>4.02</v>
+        <v>6.29</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T165" t="n">
-        <v>4.27</v>
+        <v>6.15</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,63 +15669,63 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>4.45</v>
+        <v>4.17</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.33</v>
+        <v>4.76</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>6.56</v>
+        <v>5.08</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>5.84</v>
+        <v>6.39</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>2.92</v>
+        <v>1.85</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.35</v>
+        <v>1.77</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.36</v>
+        <v>3.75</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.51</v>
+        <v>4.04</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>2.32</v>
+        <v>4.02</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.99</v>
+        <v>4.27</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Kidderminster</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
         <v>1</v>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>FC Halifax</t>
-        </is>
-      </c>
-      <c r="I168" t="n">
-        <v>2</v>
-      </c>
       <c r="J168" t="n">
-        <v>1.74</v>
+        <v>2.92</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.4</v>
+        <v>3.51</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>4.57</v>
+        <v>2.32</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>3.94</v>
+        <v>2.99</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
         </is>
       </c>
     </row>
@@ -16029,71 +16029,71 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>3.68</v>
+        <v>1.81</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>4.19</v>
+        <v>1.74</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:43</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>1.88</v>
+        <v>4.36</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="T170" t="n">
-        <v>1.85</v>
+        <v>4.98</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>2</v>
       </c>
       <c r="J171" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.74</v>
+        <v>3.36</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>3.4</v>
+        <v>3.16</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>2.5</v>
+        <v>3.01</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-bromley/MaCfUUmj/</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -16221,14 +16221,14 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>1.58</v>
+        <v>2.04</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>4.22</v>
+        <v>3.41</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>4.74</v>
+        <v>3.52</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>4.79</v>
+        <v>3.68</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>5.22</v>
+        <v>3.28</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
         </is>
       </c>
     </row>
@@ -16305,15 +16305,15 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -16324,52 +16324,52 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>07/10/2023 15:32</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4.13</v>
+        <v>3.79</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>07/10/2023 15:56</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>4.21</v>
+        <v>4.23</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>07/10/2023 15:32</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-eastleigh/tQCAvFBc/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.32</v>
+        <v>2.86</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.32</v>
+        <v>2.99</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.55</v>
+        <v>3.53</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.8</v>
+        <v>2.28</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.11</v>
+        <v>2.4</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>1.81</v>
+        <v>3.68</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.74</v>
+        <v>4.19</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.4</v>
+        <v>3.67</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:43</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>4.36</v>
+        <v>1.88</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>4.98</v>
+        <v>1.85</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,63 +16681,63 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.99</v>
+        <v>1.81</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:32</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.53</v>
+        <v>3.8</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.41</v>
+        <v>4.13</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:56</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.28</v>
+        <v>4.21</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2.4</v>
+        <v>3.97</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:32</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-eastleigh/tQCAvFBc/</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -16773,14 +16773,14 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.83</v>
+        <v>4.22</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.79</v>
+        <v>4.74</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>4.23</v>
+        <v>4.79</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.88</v>
+        <v>5.22</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -16865,14 +16865,14 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>2</v>
       </c>
       <c r="J179" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.52</v>
+        <v>3.74</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.28</v>
+        <v>2.5</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
         </is>
       </c>
     </row>
@@ -16949,22 +16949,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -16972,15 +16972,15 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3.28</v>
+        <v>3.55</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -16988,15 +16988,15 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>3.16</v>
+        <v>2.8</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-bromley/MaCfUUmj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
         </is>
       </c>
     </row>
@@ -17409,22 +17409,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>2.09</v>
+        <v>3.21</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>2.01</v>
+        <v>3.38</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.52</v>
+        <v>3.18</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.79</v>
+        <v>3.34</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>3.22</v>
+        <v>2.25</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>3.52</v>
+        <v>2.23</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-york-city/n1nTrU2q/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-woking/ULa1mAfS/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>2.61</v>
+        <v>2.09</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>3.02</v>
+        <v>2.01</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.41</v>
+        <v>3.52</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.7</v>
+        <v>3.79</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>2.54</v>
+        <v>3.22</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>2.25</v>
+        <v>3.52</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-hartlepool/2ekshYuc/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-york-city/n1nTrU2q/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,14 +17601,14 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -17616,15 +17616,15 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 12:23</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>4.52</v>
+        <v>4.72</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -17632,15 +17632,15 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>4.91</v>
+        <v>4.96</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>6.21</v>
+        <v>7.36</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -17648,16 +17648,16 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>6.3</v>
+        <v>7.46</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-oxford-city/Yg6hkWPF/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-maidenhead/f37ljCA9/</t>
         </is>
       </c>
     </row>
@@ -17685,22 +17685,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>1.36</v>
+        <v>2.61</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1.4</v>
+        <v>3.02</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>21/10/2023 12:23</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>4.72</v>
+        <v>3.41</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>4.96</v>
+        <v>3.7</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>7.36</v>
+        <v>2.54</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>7.46</v>
+        <v>2.25</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-maidenhead/f37ljCA9/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-hartlepool/2ekshYuc/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I190" t="n">
         <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>3.21</v>
+        <v>1.43</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>3.38</v>
+        <v>1.45</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.18</v>
+        <v>4.52</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.34</v>
+        <v>4.91</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>2.25</v>
+        <v>6.21</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>2.23</v>
+        <v>6.3</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-woking/ULa1mAfS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-oxford-city/Yg6hkWPF/</t>
         </is>
       </c>
     </row>
@@ -18053,71 +18053,71 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>2.84</v>
+        <v>1.71</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:24</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.64</v>
+        <v>4.35</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:24</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>2.5</v>
+        <v>4.49</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.37</v>
+        <v>4.84</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>24/10/2023 19:50</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-woking/A3aJgoH1/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oxford-city/Us9watgs/</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -18153,26 +18153,26 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="L193" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N193" t="n">
@@ -18180,11 +18180,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>4.35</v>
+        <v>4.67</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -18192,15 +18192,15 @@
         </is>
       </c>
       <c r="R193" t="n">
-        <v>4.49</v>
+        <v>4.84</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="T193" t="n">
-        <v>4.84</v>
+        <v>5.78</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oxford-city/Us9watgs/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-ebbsfleet/2ZuAG8OE/</t>
         </is>
       </c>
     </row>
@@ -18237,22 +18237,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>1.67</v>
+        <v>2.84</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>1.51</v>
+        <v>3.41</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.96</v>
+        <v>3.42</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>4.67</v>
+        <v>3.88</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>4.84</v>
+        <v>2.44</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>5.78</v>
+        <v>2.02</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-ebbsfleet/2ZuAG8OE/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-gateshead/Ors6Hl98/</t>
         </is>
       </c>
     </row>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G195" t="n">
@@ -18337,14 +18337,14 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.84</v>
+        <v>2.58</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>3.41</v>
+        <v>2.63</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 19:49</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 18:54</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.02</v>
+        <v>2.73</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 19:49</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-gateshead/Ors6Hl98/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-hartlepool/Mw3Nh5W7/</t>
         </is>
       </c>
     </row>
@@ -18421,22 +18421,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I196" t="n">
         <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -18444,15 +18444,15 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.63</v>
+        <v>2.87</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>24/10/2023 19:49</t>
+          <t>24/10/2023 20:24</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -18460,15 +18460,15 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.35</v>
+        <v>3.64</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>24/10/2023 18:54</t>
+          <t>24/10/2023 20:24</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -18476,16 +18476,16 @@
         </is>
       </c>
       <c r="T196" t="n">
-        <v>2.73</v>
+        <v>2.37</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>24/10/2023 19:49</t>
+          <t>24/10/2023 19:50</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-hartlepool/Mw3Nh5W7/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-woking/A3aJgoH1/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>2.73</v>
+        <v>1.76</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.82</v>
+        <v>1.57</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.34</v>
+        <v>3.77</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.71</v>
+        <v>4.27</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>2.58</v>
+        <v>4.14</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>2.38</v>
+        <v>5.58</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-oldham/SGRR3Vv9/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-dorking-wanderers/KE66dmXr/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I199" t="n">
         <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.77</v>
+        <v>3.9</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>4.27</v>
+        <v>4.32</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>4.14</v>
+        <v>4.44</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>5.58</v>
+        <v>5.25</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:35</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-dorking-wanderers/KE66dmXr/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-solihull-moors/I5Kv1TOR/</t>
         </is>
       </c>
     </row>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -18797,14 +18797,14 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I200" t="n">
         <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,15 +18812,15 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1.6</v>
+        <v>2.23</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>3.9</v>
+        <v>3.56</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,15 +18828,15 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>4.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>4.44</v>
+        <v>3.77</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>5.25</v>
+        <v>3.27</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>24/10/2023 20:35</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-solihull-moors/I5Kv1TOR/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-kidderminster/OrLz299L/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         </is>
       </c>
       <c r="R201" t="n">
-        <v>3.77</v>
+        <v>3.69</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>3.27</v>
+        <v>3.72</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-kidderminster/OrLz299L/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-maidenhead/AuHW2kfF/</t>
         </is>
       </c>
     </row>
@@ -18973,22 +18973,22 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>2.01</v>
+        <v>2.73</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -18996,15 +18996,15 @@
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1.95</v>
+        <v>2.82</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>3.49</v>
+        <v>3.34</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
@@ -19012,15 +19012,15 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3.77</v>
+        <v>3.71</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="R202" t="n">
-        <v>3.69</v>
+        <v>2.58</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
@@ -19028,16 +19028,16 @@
         </is>
       </c>
       <c r="T202" t="n">
-        <v>3.72</v>
+        <v>2.38</v>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-maidenhead/AuHW2kfF/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-oldham/SGRR3Vv9/</t>
         </is>
       </c>
     </row>
@@ -19157,22 +19157,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
         <v>1</v>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Wealdstone</t>
-        </is>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
       <c r="J204" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -19180,15 +19180,15 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>28/10/2023 15:50</t>
+          <t>28/10/2023 14:22</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.77</v>
+        <v>3.73</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -19196,32 +19196,32 @@
         </is>
       </c>
       <c r="P204" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:22</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T204" t="n">
         <v>3.64</v>
       </c>
-      <c r="Q204" t="inlineStr">
-        <is>
-          <t>28/10/2023 15:50</t>
-        </is>
-      </c>
-      <c r="R204" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="S204" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:13</t>
-        </is>
-      </c>
-      <c r="T204" t="n">
-        <v>3.08</v>
-      </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>28/10/2023 15:50</t>
+          <t>28/10/2023 14:22</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-wealdstone/GEaDBJxm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-bromley/f5bHAwhg/</t>
         </is>
       </c>
     </row>
@@ -19249,71 +19249,71 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G205" t="n">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Barnet</t>
-        </is>
-      </c>
-      <c r="I205" t="n">
-        <v>2</v>
-      </c>
       <c r="J205" t="n">
-        <v>4.85</v>
+        <v>2.02</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>6.39</v>
+        <v>2.24</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:50</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>4.27</v>
+        <v>3.77</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>5.14</v>
+        <v>3.64</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:50</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>1.64</v>
+        <v>3.19</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>1.43</v>
+        <v>3.08</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:50</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-barnet/YkA8CaNt/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-wealdstone/GEaDBJxm/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>2</v>
       </c>
       <c r="J206" t="n">
-        <v>1.91</v>
+        <v>4.85</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.54</v>
+        <v>6.39</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.67</v>
+        <v>4.27</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.83</v>
+        <v>5.14</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.85</v>
+        <v>1.64</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>2.57</v>
+        <v>1.43</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-altrincham/dUItHuFP/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-barnet/YkA8CaNt/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>2.77</v>
+        <v>1.91</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.47</v>
+        <v>2.54</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.58</v>
+        <v>3.83</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>28/10/2023 14:43</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>2.63</v>
+        <v>3.85</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>2.78</v>
+        <v>2.57</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-eastleigh/rRUbhdxP/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-altrincham/dUItHuFP/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>4.12</v>
+        <v>2.77</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>6.98</v>
+        <v>2.47</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="N208" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
         <v>3.58</v>
       </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:13</t>
-        </is>
-      </c>
-      <c r="P208" t="n">
-        <v>4.1</v>
-      </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 14:43</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>1.81</v>
+        <v>2.63</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>1.51</v>
+        <v>2.78</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-chesterfield/4zWfgxNI/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-eastleigh/rRUbhdxP/</t>
         </is>
       </c>
     </row>
@@ -19709,71 +19709,71 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J210" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>2.63</v>
+        <v>2.46</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>28/10/2023 15:48</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="N210" t="n">
-        <v>3.61</v>
+        <v>3.69</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>3.77</v>
+        <v>3.86</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>28/10/2023 14:09</t>
+          <t>28/10/2023 15:15</t>
         </is>
       </c>
       <c r="R210" t="n">
-        <v>2.83</v>
+        <v>3.54</v>
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="T210" t="n">
-        <v>2.51</v>
+        <v>2.64</v>
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>28/10/2023 15:48</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-dagenham-red/401jdvw0/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-rochdale/xEabfI7C/</t>
         </is>
       </c>
     </row>
@@ -19801,22 +19801,22 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I211" t="n">
         <v>1</v>
       </c>
       <c r="J211" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -19824,15 +19824,15 @@
         </is>
       </c>
       <c r="L211" t="n">
-        <v>3.33</v>
+        <v>2.63</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:48</t>
         </is>
       </c>
       <c r="N211" t="n">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -19840,15 +19840,15 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>4.07</v>
+        <v>3.77</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 14:09</t>
         </is>
       </c>
       <c r="R211" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="S211" t="inlineStr">
         <is>
@@ -19856,16 +19856,16 @@
         </is>
       </c>
       <c r="T211" t="n">
-        <v>2</v>
+        <v>2.51</v>
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:48</t>
         </is>
       </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-aldershot/jccncKNg/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-dagenham-red/401jdvw0/</t>
         </is>
       </c>
     </row>
@@ -19893,22 +19893,22 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I212" t="n">
         <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -19916,15 +19916,15 @@
         </is>
       </c>
       <c r="L212" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.15</v>
+        <v>3.54</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -19932,15 +19932,15 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.44</v>
+        <v>4.07</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>3.04</v>
+        <v>2.87</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
@@ -19948,16 +19948,16 @@
         </is>
       </c>
       <c r="T212" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-southend/8Y7sb08m/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-aldershot/jccncKNg/</t>
         </is>
       </c>
     </row>
@@ -19985,22 +19985,22 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I213" t="n">
         <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1.71</v>
+        <v>2.45</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -20008,15 +20008,15 @@
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.16</v>
+        <v>3.67</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>28/10/2023 14:22</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.73</v>
+        <v>3.15</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -20024,15 +20024,15 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.26</v>
+        <v>3.44</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>28/10/2023 14:22</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>4.43</v>
+        <v>3.04</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
@@ -20040,16 +20040,16 @@
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.64</v>
+        <v>2.08</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>28/10/2023 14:22</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-bromley/f5bHAwhg/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-southend/8Y7sb08m/</t>
         </is>
       </c>
     </row>
@@ -20077,71 +20077,71 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>3</v>
       </c>
       <c r="J214" t="n">
-        <v>2.03</v>
+        <v>4.12</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>2.46</v>
+        <v>6.98</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.69</v>
+        <v>3.58</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3.86</v>
+        <v>4.1</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>28/10/2023 15:15</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>3.54</v>
+        <v>1.81</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="T214" t="n">
-        <v>2.64</v>
+        <v>1.51</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-rochdale/xEabfI7C/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-chesterfield/4zWfgxNI/</t>
         </is>
       </c>
     </row>
@@ -20234,6 +20234,98 @@
       <c r="V215" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/national-league/york-city-halifax/Ov3L9c7a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Dorking</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Dag &amp; Red</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>3</v>
+      </c>
+      <c r="J216" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:10</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:10</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:10</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-dagenham-red/Yi3DY11c/</t>
         </is>
       </c>
     </row>

--- a/2023/england_national-league_2023-2024.xlsx
+++ b/2023/england_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V216"/>
+  <dimension ref="A1:V228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.37</v>
+        <v>2.53</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.38</v>
+        <v>2.03</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.49</v>
+        <v>3.56</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:43</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>3.67</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-york-city/vRPdEzrn/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-dagenham-red/6anG1cbt/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>28/07/2023 16:42</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.83</v>
+        <v>1.2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:36</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.46</v>
+        <v>5.03</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>28/07/2023 16:42</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>7.27</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:36</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.47</v>
+        <v>7.87</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>28/07/2023 16:42</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>12.33</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:36</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-oldham/0zRhFGSu/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-dorking-wanderers/vDpOayTh/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.99</v>
+        <v>2.36</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.47</v>
+        <v>1.93</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:29</t>
+          <t>05/08/2023 08:49</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.59</v>
+        <v>3.26</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.77</v>
+        <v>3.48</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:29</t>
+          <t>05/08/2023 08:49</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.63</v>
+        <v>3.08</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.67</v>
+        <v>4.15</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:29</t>
+          <t>05/08/2023 08:49</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-eastleigh/l2pmfXdU/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-boreham-wood/zuvXcFc5/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.73</v>
+        <v>2.18</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.58</v>
+        <v>2.61</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:45</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:45</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.59</v>
+        <v>3.37</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:44</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-afc-fylde/SndvdgSH/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-bromley/dluTbera/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hartlepool</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Bromley</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.61</v>
+        <v>2.15</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>04/08/2023 23:02</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.33</v>
+        <v>3.51</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.15</v>
+        <v>3.66</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>04/08/2023 23:02</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.37</v>
+        <v>3.45</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.92</v>
+        <v>3.27</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>04/08/2023 23:02</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-bromley/dluTbera/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-hartlepool/0MoK0HDn/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.36</v>
+        <v>1.99</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.93</v>
+        <v>2.47</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 08:49</t>
+          <t>05/08/2023 15:29</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.26</v>
+        <v>3.59</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 08:49</t>
+          <t>05/08/2023 15:29</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.08</v>
+        <v>3.63</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>4.15</v>
+        <v>2.67</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 08:49</t>
+          <t>05/08/2023 15:29</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-boreham-wood/zuvXcFc5/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-eastleigh/l2pmfXdU/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,63 +1317,63 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>28/07/2023 16:42</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>3.83</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:36</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.03</v>
+        <v>3.46</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>28/07/2023 16:42</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>7.27</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:36</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>7.87</v>
+        <v>4.47</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>28/07/2023 16:42</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>12.33</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:36</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-dorking-wanderers/vDpOayTh/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-oldham/0zRhFGSu/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.08</v>
+        <v>2.37</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.15</v>
+        <v>3.38</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>04/08/2023 23:02</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.66</v>
+        <v>3.49</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>04/08/2023 23:02</t>
+          <t>05/08/2023 15:43</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.27</v>
+        <v>2.16</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>04/08/2023 23:02</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-hartlepool/0MoK0HDn/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-york-city/vRPdEzrn/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.53</v>
+        <v>2.73</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.03</v>
+        <v>3.58</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:45</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:45</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.78</v>
+        <v>2.59</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.67</v>
+        <v>2.12</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:44</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-dagenham-red/6anG1cbt/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-afc-fylde/SndvdgSH/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,48 +1792,48 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>12/08/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>05/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>12/08/2023 15:57</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="R15" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>05/08/2023 16:12</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="T15" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>12/08/2023 15:57</t>
         </is>
       </c>
-      <c r="R15" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>05/08/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:57</t>
-        </is>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-halifax/6HwKgHtL/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-altrincham/nk4fiqxK/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>05/08/2023 18:43</t>
+          <t>07/08/2023 08:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.79</v>
+        <v>3.51</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:12</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>05/08/2023 18:43</t>
+          <t>07/08/2023 08:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 12:11</t>
+          <t>12/08/2023 15:12</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.15</v>
+        <v>2.51</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>05/08/2023 18:43</t>
+          <t>07/08/2023 08:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.53</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:12</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-southend/x0Ukle4r/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-rochdale/8b5jhPMD/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>2.14</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 06:44</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.21</v>
+        <v>1.93</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 13:18</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 06:44</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.68</v>
+        <v>3.55</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 13:18</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.37</v>
+        <v>3.55</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 06:44</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.11</v>
+        <v>4.06</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 13:18</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-maidenhead/GjTgmFJl/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-aldershot/4QvAqXID/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 08:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.63</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 13:03</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 08:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.05</v>
+        <v>3.56</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 13:03</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.16</v>
+        <v>3.79</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 08:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.33</v>
+        <v>2.43</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 13:03</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-wealdstone/YRNbnZYf/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-gateshead/6uM6pD37/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Altrincham</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
       <c r="J20" t="n">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 06:44</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.83</v>
+        <v>2.21</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 13:52</t>
+          <t>12/08/2023 13:18</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>3.43</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 06:44</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.77</v>
+        <v>3.68</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 13:18</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.81</v>
+        <v>3.37</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 06:44</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.24</v>
+        <v>3.11</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 13:18</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-altrincham/nk4fiqxK/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-maidenhead/GjTgmFJl/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>07/08/2023 08:12</t>
+          <t>05/08/2023 18:43</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.51</v>
+        <v>2.79</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:12</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>07/08/2023 08:12</t>
+          <t>05/08/2023 18:43</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:12</t>
+          <t>12/08/2023 12:11</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.51</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>07/08/2023 08:12</t>
+          <t>05/08/2023 18:43</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.04</v>
+        <v>2.53</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:12</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-rochdale/8b5jhPMD/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-southend/x0Ukle4r/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Kidderminster</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
       <c r="J22" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>07/08/2023 08:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 13:38</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.7</v>
+        <v>3.29</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>07/08/2023 08:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:31</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.7</v>
+        <v>4.63</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>07/08/2023 08:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 13:38</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-kidderminster/GO8bj3iQ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-halifax/6HwKgHtL/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.84</v>
+        <v>1.95</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 13:38</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:31</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.79</v>
+        <v>4.7</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.43</v>
+        <v>3.85</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 13:38</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-gateshead/6uM6pD37/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-kidderminster/GO8bj3iQ/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.63</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 13:03</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.27</v>
+        <v>3.53</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.55</v>
+        <v>4.05</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 13:03</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.55</v>
+        <v>4.16</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.06</v>
+        <v>5.33</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 13:03</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-aldershot/4QvAqXID/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-wealdstone/YRNbnZYf/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.92</v>
+        <v>3.31</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.01</v>
+        <v>4</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 15:39</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.62</v>
+        <v>3.42</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.47</v>
+        <v>3.72</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 15:39</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.62</v>
+        <v>2.17</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.85</v>
+        <v>1.89</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 13:49</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-rochdale/EJ8bnfjh/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-southend/8MmwqLq0/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>4.16</v>
+        <v>2.23</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6.52</v>
+        <v>2.27</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.96</v>
+        <v>3.34</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>5.15</v>
+        <v>3.7</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.71</v>
+        <v>3.26</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.42</v>
+        <v>3.01</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:21</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-chesterfield/WfJgmzyn/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-altrincham/hA72oE5b/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Kidderminster</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.18</v>
+        <v>2.01</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>15/08/2023 09:37</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15/08/2023 09:37</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.68</v>
+        <v>3.62</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.31</v>
+        <v>3.85</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15/08/2023 09:37</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-kidderminster/IXfQoNas/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-rochdale/EJ8bnfjh/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.88</v>
+        <v>4.16</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.78</v>
+        <v>6.52</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:43</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.71</v>
+        <v>3.96</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.87</v>
+        <v>5.15</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:43</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.68</v>
+        <v>1.71</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.39</v>
+        <v>1.42</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:43</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-maidenhead/6F2rtJTI/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-chesterfield/WfJgmzyn/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Aldershot</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.88</v>
+        <v>2.41</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 20:35</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.71</v>
+        <v>3.11</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.75</v>
+        <v>3.34</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 20:35</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.89</v>
+        <v>3.15</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>13/08/2023 15:12</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.78</v>
+        <v>4.51</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:38</t>
+          <t>15/08/2023 20:35</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-aldershot/SO3vsaEC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-halifax/IiFklGLu/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,63 +3249,63 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/08/2023 18:51</t>
+          <t>15/08/2023 19:43</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.34</v>
+        <v>3.71</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.55</v>
+        <v>3.87</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/08/2023 08:07</t>
+          <t>15/08/2023 19:43</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.96</v>
+        <v>3.68</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.58</v>
+        <v>4.39</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/08/2023 18:51</t>
+          <t>15/08/2023 19:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-barnet/nDnsrua6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-maidenhead/6F2rtJTI/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,63 +3341,63 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.31</v>
+        <v>1.88</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>1.94</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>15/08/2023 15:39</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15/08/2023 15:39</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.17</v>
+        <v>3.89</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.89</v>
+        <v>3.78</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15/08/2023 13:49</t>
+          <t>15/08/2023 20:38</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-southend/8MmwqLq0/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-aldershot/SO3vsaEC/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.46</v>
+        <v>2.4</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3.54</v>
+        <v>2.67</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 18:51</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.46</v>
+        <v>3.34</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 08:07</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.09</v>
+        <v>2.96</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.01</v>
+        <v>2.58</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:39</t>
+          <t>15/08/2023 18:51</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-gateshead/EalZq1Ug/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-barnet/nDnsrua6/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>1.66</v>
+        <v>3.46</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.86</v>
+        <v>3.54</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.92</v>
+        <v>3.46</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.89</v>
+        <v>3.76</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.99</v>
+        <v>2.09</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>12/08/2023 18:43</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.94</v>
+        <v>2.01</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:39</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-wealdstone/0dpVpsFm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-gateshead/EalZq1Ug/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,63 +3617,63 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.41</v>
+        <v>1.66</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:35</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.11</v>
+        <v>3.92</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.34</v>
+        <v>3.89</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:35</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.15</v>
+        <v>4.99</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>12/08/2023 18:43</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.51</v>
+        <v>3.94</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:35</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-halifax/IiFklGLu/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-wealdstone/0dpVpsFm/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 09:37</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.34</v>
+        <v>3.57</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.7</v>
+        <v>3.53</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 09:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.26</v>
+        <v>3.68</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.01</v>
+        <v>3.31</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>15/08/2023 20:21</t>
+          <t>15/08/2023 09:37</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-altrincham/hA72oE5b/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-kidderminster/IXfQoNas/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,48 +4000,48 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N39" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>15/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
         <v>3.52</v>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>19/08/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S39" t="inlineStr">
         <is>
           <t>15/08/2023 21:12</t>
         </is>
       </c>
-      <c r="P39" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:58</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>15/08/2023 21:12</t>
-        </is>
-      </c>
       <c r="T39" t="n">
-        <v>3.44</v>
+        <v>2.89</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-ebbsfleet/SMYX0g5o/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-woking/fZ3JsW4N/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.04</v>
+        <v>2.11</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.69</v>
+        <v>1.99</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.34</v>
+        <v>3.52</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.83</v>
+        <v>3.95</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.35</v>
+        <v>3.37</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.43</v>
+        <v>3.44</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-afc-fylde/UTwdekZM/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-ebbsfleet/SMYX0g5o/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.78</v>
+        <v>2.53</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.18</v>
+        <v>2.51</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 04:37</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.41</v>
+        <v>3.54</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 04:37</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.12</v>
+        <v>2.84</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.42</v>
+        <v>2.76</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 04:37</t>
+          <t>19/08/2023 08:44</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-hartlepool/zgPhdVJG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-york-city/0zBAqhzB/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>2.42</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:51</t>
+          <t>19/08/2023 11:52</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.95</v>
+        <v>2.89</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.48</v>
+        <v>2.95</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:51</t>
+          <t>19/08/2023 11:52</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-dorking-wanderers/d2QlcB4A/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-boreham-wood/ra0FrCkH/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.56</v>
+        <v>1.84</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.22</v>
+        <v>3.46</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.58</v>
+        <v>3.67</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.84</v>
+        <v>4.47</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.69</v>
+        <v>5.68</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-eastleigh/Ewypbik4/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-oxford-city/j5kkxASp/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:53</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:53</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.81</v>
+        <v>3.49</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:53</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-dagenham-red/0zXuaXZc/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-bromley/6DXy0DKi/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.18</v>
+        <v>2.55</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:53</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:53</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.23</v>
+        <v>3.12</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.49</v>
+        <v>2.81</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:53</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-bromley/6DXy0DKi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-dagenham-red/0zXuaXZc/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.84</v>
+        <v>2.56</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.46</v>
+        <v>3.22</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.47</v>
+        <v>2.84</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.68</v>
+        <v>3.69</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-oxford-city/j5kkxASp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-eastleigh/Ewypbik4/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.64</v>
+        <v>1.8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>16/08/2023 21:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.42</v>
+        <v>1.88</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:51</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.26</v>
+        <v>3.75</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>16/08/2023 21:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.52</v>
+        <v>4.36</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>19/08/2023 12:26</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>16/08/2023 21:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.89</v>
+        <v>3.48</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:51</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-woking/fZ3JsW4N/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-dorking-wanderers/d2QlcB4A/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>16/08/2023 21:12</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19/08/2023 11:52</t>
+          <t>19/08/2023 04:37</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>16/08/2023 21:12</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="P48" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>19/08/2023 04:37</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>15/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>19/08/2023 09:20</t>
-        </is>
-      </c>
-      <c r="R48" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>16/08/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>2.95</v>
-      </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>19/08/2023 11:52</t>
+          <t>19/08/2023 04:37</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-boreham-wood/ra0FrCkH/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-hartlepool/zgPhdVJG/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.53</v>
+        <v>3.04</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.51</v>
+        <v>2.69</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.54</v>
+        <v>3.83</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.84</v>
+        <v>2.35</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.76</v>
+        <v>2.43</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>19/08/2023 08:44</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-york-city/0zBAqhzB/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-afc-fylde/UTwdekZM/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>25/08/2023 20:39</t>
+          <t>25/08/2023 20:44</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.77</v>
+        <v>3.9</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>25/08/2023 20:39</t>
+          <t>25/08/2023 20:44</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.63</v>
+        <v>4.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>5.05</v>
+        <v>4.5</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>25/08/2023 20:39</t>
+          <t>25/08/2023 20:44</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-bromley/4nhv8SIS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-eastleigh/zVrA26tj/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>25/08/2023 20:44</t>
+          <t>25/08/2023 20:39</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.9</v>
+        <v>3.77</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>25/08/2023 20:44</t>
+          <t>25/08/2023 20:39</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.09</v>
+        <v>3.63</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.5</v>
+        <v>5.05</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>25/08/2023 20:44</t>
+          <t>25/08/2023 20:39</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-eastleigh/zVrA26tj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-bromley/4nhv8SIS/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.13</v>
+        <v>3.44</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>26/08/2023 14:04</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.83</v>
+        <v>3.87</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:33</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.15</v>
+        <v>1.79</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.18</v>
+        <v>2.01</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-wealdstone/8Kx0f9lT/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-chesterfield/E1FSkTdp/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.85</v>
+        <v>3.46</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.87</v>
+        <v>3.6</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.79</v>
+        <v>2.56</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-chesterfield/E1FSkTdp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-barnet/t87EDWli/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.6</v>
+        <v>3.91</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-barnet/t87EDWli/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-york-city/Kb6ICj4c/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>26/08/2023 15:35</t>
+          <t>26/08/2023 15:40</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.44</v>
+        <v>3.86</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>26/08/2023 15:35</t>
+          <t>26/08/2023 15:39</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.58</v>
+        <v>4.08</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.03</v>
+        <v>3.25</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>26/08/2023 15:35</t>
+          <t>26/08/2023 15:40</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-kidderminster/xz1NBAJ3/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-oxford-city/MN2Z883M/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:40</t>
+          <t>26/08/2023 14:04</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.41</v>
+        <v>3.83</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:39</t>
+          <t>26/08/2023 15:33</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.08</v>
+        <v>4.15</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:40</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-oxford-city/MN2Z883M/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-wealdstone/8Kx0f9lT/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.53</v>
+        <v>1.99</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.38</v>
+        <v>2.31</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:35</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.91</v>
+        <v>3.55</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:35</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.78</v>
+        <v>3.58</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.02</v>
+        <v>3.03</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:35</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-york-city/Kb6ICj4c/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-kidderminster/xz1NBAJ3/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Solihull Moors</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>26/08/2023 19:40</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>28/08/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>26/08/2023 19:40</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>28/08/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>26/08/2023 19:40</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
         <v>2</v>
       </c>
-      <c r="J62" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:12</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="M62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>28/08/2023 15:57</t>
         </is>
       </c>
-      <c r="N62" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P62" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>28/08/2023 15:57</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T62" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>28/08/2023 15:48</t>
-        </is>
-      </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-solihull-moors/vPQyH5eq/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-boreham-wood/hSUuGPAk/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.77</v>
+        <v>2.58</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.85</v>
+        <v>2.33</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>28/08/2023 15:53</t>
+          <t>28/08/2023 15:40</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.46</v>
+        <v>3.73</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>28/08/2023 15:53</t>
+          <t>28/08/2023 15:40</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.49</v>
+        <v>2.63</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.47</v>
+        <v>2.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>28/08/2023 15:53</t>
+          <t>28/08/2023 15:40</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-rochdale/2cCWxmI2/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-dagenham-red/ziKpFqQe/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.58</v>
+        <v>2.77</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>26/08/2023 19:40</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.49</v>
+        <v>2.85</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>28/08/2023 15:59</t>
+          <t>28/08/2023 15:53</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>26/08/2023 19:40</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.71</v>
+        <v>3.46</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>28/08/2023 15:59</t>
+          <t>28/08/2023 15:53</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.78</v>
+        <v>2.49</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>26/08/2023 19:40</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.02</v>
+        <v>2.47</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>28/08/2023 15:59</t>
+          <t>28/08/2023 15:53</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-dorking-wanderers/EsJlE3u2/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-rochdale/2cCWxmI2/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.58</v>
+        <v>1.98</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,48 +6392,48 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.33</v>
+        <v>2.02</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>28/08/2023 15:40</t>
+          <t>28/08/2023 15:57</t>
         </is>
       </c>
       <c r="N65" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>26/08/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>28/08/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>26/08/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
         <v>3.31</v>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>28/08/2023 15:40</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T65" t="n">
-        <v>2.88</v>
-      </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>28/08/2023 15:40</t>
+          <t>28/08/2023 15:48</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-dagenham-red/ziKpFqQe/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-solihull-moors/vPQyH5eq/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.06</v>
+        <v>1.58</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.81</v>
+        <v>1.49</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>28/08/2023 15:57</t>
+          <t>28/08/2023 15:59</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.37</v>
+        <v>4.2</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.53</v>
+        <v>4.71</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>28/08/2023 15:55</t>
+          <t>28/08/2023 15:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.24</v>
+        <v>4.78</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>26/08/2023 19:40</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>6.02</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>28/08/2023 15:57</t>
+          <t>28/08/2023 15:59</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-boreham-wood/hSUuGPAk/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-dorking-wanderers/EsJlE3u2/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>1.73</v>
+        <v>3.89</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.92</v>
+        <v>5.03</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:53</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.75</v>
+        <v>3.71</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.48</v>
+        <v>4.46</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.69</v>
+        <v>1.88</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.19</v>
+        <v>1.6</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:53</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-kidderminster/8G2oXHos/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-chesterfield/tlBzx7X8/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.03</v>
+        <v>3.48</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.49</v>
+        <v>4.69</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.32</v>
+        <v>4.19</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-oxford-city/xYFJybwQ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-kidderminster/8G2oXHos/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.04</v>
+        <v>1.76</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.76</v>
+        <v>3.69</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.28</v>
+        <v>4.03</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.92</v>
+        <v>4.49</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4</v>
+        <v>4.32</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-halifax/bsHFxvOJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-oxford-city/xYFJybwQ/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.33</v>
+        <v>1.7</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.84</v>
+        <v>2.04</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>02/09/2023 15:55</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.35</v>
+        <v>3.76</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.52</v>
+        <v>3.28</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>02/09/2023 15:55</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.2</v>
+        <v>4.92</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.79</v>
+        <v>4</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>02/09/2023 10:14</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-woking/dxwXDfoJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-halifax/bsHFxvOJ/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.67</v>
+        <v>3.33</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.59</v>
+        <v>4.84</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:55</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.08</v>
+        <v>3.35</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.48</v>
+        <v>3.52</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:55</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.68</v>
+        <v>2.2</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>5.06</v>
+        <v>1.79</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 10:14</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-wealdstone/rZYSEzWC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-woking/dxwXDfoJ/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>3.89</v>
+        <v>1.67</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5.03</v>
+        <v>1.59</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>02/09/2023 15:53</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.71</v>
+        <v>4.08</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>02/09/2023 15:53</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.88</v>
+        <v>4.68</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.6</v>
+        <v>5.06</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>02/09/2023 15:53</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-chesterfield/tlBzx7X8/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-wealdstone/rZYSEzWC/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,63 +9413,63 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>3.23</v>
+        <v>2</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>09/09/2023 18:13</t>
+          <t>12/09/2023 05:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.31</v>
+        <v>1.89</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.49</v>
+        <v>3.64</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>09/09/2023 18:13</t>
+          <t>12/09/2023 05:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.09</v>
+        <v>3.89</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.18</v>
+        <v>3.36</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>09/09/2023 18:13</t>
+          <t>12/09/2023 05:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2</v>
+        <v>3.82</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-gateshead/CE8ptDUB/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-eastleigh/UkJusgF5/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.76</v>
+        <v>3.23</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.72</v>
+        <v>3.31</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.38</v>
+        <v>4.09</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.51</v>
+        <v>2.18</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-oldham/QHCluXqI/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-gateshead/CE8ptDUB/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>3</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Oldham</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Chesterfield</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
       <c r="J100" t="n">
-        <v>3.31</v>
+        <v>2.76</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>12/09/2023 05:42</t>
+          <t>09/09/2023 18:13</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.09</v>
+        <v>2.72</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.73</v>
+        <v>3.22</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>12/09/2023 05:42</t>
+          <t>09/09/2023 18:13</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>4.18</v>
+        <v>3.38</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>1.99</v>
+        <v>2.51</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>12/09/2023 05:42</t>
+          <t>09/09/2023 18:13</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.07</v>
+        <v>2.63</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-chesterfield/KvChviaO/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-oldham/QHCluXqI/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.64</v>
+        <v>3.48</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.89</v>
+        <v>3.61</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.36</v>
+        <v>2.98</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.82</v>
+        <v>3.18</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-eastleigh/UkJusgF5/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-woking/8jJfbfpt/</t>
         </is>
       </c>
     </row>
@@ -9865,30 +9865,30 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.75</v>
+        <v>3.31</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>09/09/2023 18:13</t>
+          <t>12/09/2023 05:42</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,40 +9896,40 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.26</v>
+        <v>3.73</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>09/09/2023 18:13</t>
+          <t>12/09/2023 05:42</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.57</v>
+        <v>4.18</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
+          <t>16/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>12/09/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
           <t>16/09/2023 15:56</t>
         </is>
       </c>
-      <c r="R103" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>09/09/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T103" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:56</t>
-        </is>
-      </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-southend/pdEJhjEH/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-chesterfield/KvChviaO/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,63 +9965,63 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.36</v>
+        <v>2.56</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>09/09/2023 18:13</t>
+          <t>12/09/2023 05:42</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:33</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>09/09/2023 18:13</t>
+          <t>12/09/2023 05:42</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.17</v>
+        <v>3.44</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:49</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>09/09/2023 18:13</t>
+          <t>12/09/2023 05:42</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:49</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-boreham-wood/t4H2dYEh/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-dagenham-red/f7L6ehUb/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.52</v>
+        <v>2.91</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>16/09/2023 15:33</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>16/09/2023 15:49</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>16/09/2023 15:49</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-dagenham-red/f7L6ehUb/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-barnet/xWABfCq5/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>12/09/2023 05:42</t>
+          <t>09/09/2023 18:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.91</v>
+        <v>2.07</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
+          <t>16/09/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>09/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
           <t>16/09/2023 15:57</t>
         </is>
       </c>
-      <c r="N106" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>12/09/2023 05:42</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q106" t="inlineStr">
+      <c r="R106" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>09/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="U106" t="inlineStr">
         <is>
           <t>16/09/2023 15:57</t>
         </is>
       </c>
-      <c r="R106" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>12/09/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T106" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:57</t>
-        </is>
-      </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-barnet/xWABfCq5/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-altrincham/GM9FgWbB/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.07</v>
+        <v>3.13</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.84</v>
+        <v>3.57</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.31</v>
+        <v>2.25</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-altrincham/GM9FgWbB/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-southend/pdEJhjEH/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,63 +10333,63 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2.23</v>
+        <v>3.36</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>12/09/2023 05:42</t>
+          <t>09/09/2023 18:13</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.21</v>
+        <v>3.2</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.48</v>
+        <v>3.04</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>12/09/2023 05:42</t>
+          <t>09/09/2023 18:13</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.61</v>
+        <v>3.17</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.98</v>
+        <v>2.25</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>12/09/2023 05:42</t>
+          <t>09/09/2023 18:13</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.18</v>
+        <v>2.4</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-woking/8jJfbfpt/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-boreham-wood/t4H2dYEh/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,63 +10517,63 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.2</v>
+        <v>2.96</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>19/09/2023 20:39</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.91</v>
+        <v>3.77</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>19/09/2023 20:36</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.99</v>
+        <v>2.27</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>19/09/2023 20:39</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-afc-fylde/xjwc69rH/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-hartlepool/OnDNiATN/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>19/09/2023 20:43</t>
+          <t>19/09/2023 19:20</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.79</v>
+        <v>4.49</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>19/09/2023 20:43</t>
+          <t>19/09/2023 19:20</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.13</v>
+        <v>5.11</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.32</v>
+        <v>5.38</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>19/09/2023 20:43</t>
+          <t>19/09/2023 19:20</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-york-city/OnZh7kTA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-aldershot/6B2SjUrU/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>18/09/2023 10:42</t>
+          <t>18/09/2023 15:38</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.74</v>
+        <v>2.43</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.72</v>
+        <v>3.13</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>18/09/2023 10:42</t>
+          <t>18/09/2023 15:38</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.89</v>
+        <v>3.17</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 18:44</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>18/09/2023 10:42</t>
+          <t>18/09/2023 15:38</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.63</v>
+        <v>3.16</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-ebbsfleet/dvjVm1Sk/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-rochdale/44kZnLsd/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.74</v>
+        <v>4.43</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:27</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.63</v>
+        <v>6.63</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.24</v>
+        <v>6.55</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-oxford-city/jZzo9Bbb/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-halifax/t4gfnlio/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.91</v>
+        <v>2.62</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.71</v>
+        <v>3.12</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.86</v>
+        <v>3.1</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.26</v>
+        <v>2.94</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-wealdstone/YcttAiqh/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-bromley/f7sxBXTo/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.12</v>
+        <v>3.74</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.1</v>
+        <v>3.63</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.94</v>
+        <v>3.24</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-bromley/f7sxBXTo/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-oxford-city/jZzo9Bbb/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.46</v>
+        <v>2.16</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:39</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.43</v>
+        <v>3.61</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.25</v>
+        <v>3.91</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>19/09/2023 20:27</t>
+          <t>19/09/2023 20:36</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>6.63</v>
+        <v>3.02</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>6.55</v>
+        <v>2.99</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:39</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-halifax/t4gfnlio/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-afc-fylde/xjwc69rH/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.54</v>
+        <v>1.83</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>18/09/2023 15:38</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.43</v>
+        <v>1.78</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.13</v>
+        <v>3.58</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>18/09/2023 15:38</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.17</v>
+        <v>3.9</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>19/09/2023 18:44</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.8</v>
+        <v>4.01</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>18/09/2023 15:38</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.16</v>
+        <v>4.36</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-rochdale/44kZnLsd/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-kidderminster/UPZl8VD4/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,14 +11253,14 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.56</v>
+        <v>2.08</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>19/09/2023 19:20</t>
+          <t>19/09/2023 20:43</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.49</v>
+        <v>3.79</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>19/09/2023 19:20</t>
+          <t>19/09/2023 20:43</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>5.11</v>
+        <v>4.13</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>5.38</v>
+        <v>3.32</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>19/09/2023 19:20</t>
+          <t>19/09/2023 20:43</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-aldershot/6B2SjUrU/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-york-city/OnZh7kTA/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,22 +11345,22 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.34</v>
+        <v>1.6</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.96</v>
+        <v>2.24</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,15 +11368,15 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.52</v>
+        <v>3.73</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.77</v>
+        <v>3.28</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,15 +11384,15 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.91</v>
+        <v>5.32</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.27</v>
+        <v>3.4</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-hartlepool/OnDNiATN/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-maidenhead/ImiRlsDq/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.6</v>
+        <v>2.47</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.24</v>
+        <v>2.91</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.28</v>
+        <v>3.86</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.32</v>
+        <v>2.52</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.4</v>
+        <v>2.26</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-maidenhead/ImiRlsDq/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-wealdstone/YcttAiqh/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>18/09/2023 10:42</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.58</v>
+        <v>3.72</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>18/09/2023 10:42</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>18/09/2023 10:42</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>4.36</v>
+        <v>4.63</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-kidderminster/UPZl8VD4/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-ebbsfleet/dvjVm1Sk/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1.81</v>
+        <v>2.86</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.74</v>
+        <v>2.99</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.7</v>
+        <v>3.41</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>4.36</v>
+        <v>2.28</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>4.98</v>
+        <v>2.4</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>2.86</v>
+        <v>1.81</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.99</v>
+        <v>1.74</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.41</v>
+        <v>3.7</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.28</v>
+        <v>4.36</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.4</v>
+        <v>4.98</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Chesterfield</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>2</v>
-      </c>
       <c r="J176" t="n">
-        <v>3.68</v>
+        <v>2.32</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>4.19</v>
+        <v>2.32</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:43</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>1.88</v>
+        <v>2.8</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
         </is>
       </c>
     </row>
@@ -16949,71 +16949,71 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="n">
-        <v>2.32</v>
+        <v>3.68</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="L180" t="n">
-        <v>2.32</v>
+        <v>4.19</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3.55</v>
+        <v>3.67</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:43</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>2.8</v>
+        <v>1.88</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="T180" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
         </is>
       </c>
     </row>
@@ -17409,22 +17409,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>3.21</v>
+        <v>2.09</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>3.38</v>
+        <v>2.01</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.18</v>
+        <v>3.52</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.34</v>
+        <v>3.79</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>2.25</v>
+        <v>3.22</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>2.23</v>
+        <v>3.52</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-woking/ULa1mAfS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-york-city/n1nTrU2q/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>2.09</v>
+        <v>3.21</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>2.01</v>
+        <v>3.38</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.52</v>
+        <v>3.18</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.79</v>
+        <v>3.34</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>3.22</v>
+        <v>2.25</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>3.52</v>
+        <v>2.23</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-york-city/n1nTrU2q/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-woking/ULa1mAfS/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,14 +17601,14 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -17616,15 +17616,15 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>21/10/2023 12:23</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>4.72</v>
+        <v>4.52</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -17632,15 +17632,15 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>4.96</v>
+        <v>4.91</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>7.36</v>
+        <v>6.21</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -17648,16 +17648,16 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>7.46</v>
+        <v>6.3</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-maidenhead/f37ljCA9/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-oxford-city/Yg6hkWPF/</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -17877,14 +17877,14 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 12:23</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>4.52</v>
+        <v>4.72</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>4.91</v>
+        <v>4.96</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>6.21</v>
+        <v>7.36</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>6.3</v>
+        <v>7.46</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-oxford-city/Yg6hkWPF/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-maidenhead/f37ljCA9/</t>
         </is>
       </c>
     </row>
@@ -18053,71 +18053,71 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="n">
-        <v>1.71</v>
+        <v>2.84</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>1.63</v>
+        <v>3.41</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.96</v>
+        <v>3.42</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>4.35</v>
+        <v>3.88</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>4.49</v>
+        <v>2.44</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>4.84</v>
+        <v>2.02</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oxford-city/Us9watgs/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-gateshead/Ors6Hl98/</t>
         </is>
       </c>
     </row>
@@ -18237,7 +18237,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -18245,14 +18245,14 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>2.84</v>
+        <v>2.58</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>3.41</v>
+        <v>2.63</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 19:49</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 18:54</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>2.02</v>
+        <v>2.73</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 19:49</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-gateshead/Ors6Hl98/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-hartlepool/Mw3Nh5W7/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I195" t="n">
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.58</v>
+        <v>1.71</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.63</v>
+        <v>1.63</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>24/10/2023 19:49</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.26</v>
+        <v>3.96</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.35</v>
+        <v>4.35</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>24/10/2023 18:54</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.78</v>
+        <v>4.49</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.73</v>
+        <v>4.84</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>24/10/2023 19:49</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-hartlepool/Mw3Nh5W7/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oxford-city/Us9watgs/</t>
         </is>
       </c>
     </row>
@@ -19157,22 +19157,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J204" t="n">
-        <v>1.71</v>
+        <v>4.12</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -19180,15 +19180,15 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>2.16</v>
+        <v>6.98</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>28/10/2023 14:22</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.73</v>
+        <v>3.58</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -19196,15 +19196,15 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.26</v>
+        <v>4.1</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>28/10/2023 14:22</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>4.43</v>
+        <v>1.81</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
@@ -19212,16 +19212,16 @@
         </is>
       </c>
       <c r="T204" t="n">
-        <v>3.64</v>
+        <v>1.51</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>28/10/2023 14:22</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-bromley/f5bHAwhg/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-chesterfield/4zWfgxNI/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
         <v>1</v>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Wealdstone</t>
-        </is>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
       <c r="J205" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>28/10/2023 15:50</t>
+          <t>28/10/2023 14:22</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.77</v>
+        <v>3.73</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,32 +19288,32 @@
         </is>
       </c>
       <c r="P205" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:22</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T205" t="n">
         <v>3.64</v>
       </c>
-      <c r="Q205" t="inlineStr">
-        <is>
-          <t>28/10/2023 15:50</t>
-        </is>
-      </c>
-      <c r="R205" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="S205" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:13</t>
-        </is>
-      </c>
-      <c r="T205" t="n">
-        <v>3.08</v>
-      </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>28/10/2023 15:50</t>
+          <t>28/10/2023 14:22</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-wealdstone/GEaDBJxm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-bromley/f5bHAwhg/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Barnet</t>
-        </is>
-      </c>
-      <c r="I206" t="n">
-        <v>2</v>
-      </c>
       <c r="J206" t="n">
-        <v>4.85</v>
+        <v>2.02</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>6.39</v>
+        <v>2.24</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:50</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>4.27</v>
+        <v>3.77</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>5.14</v>
+        <v>3.64</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:50</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>1.64</v>
+        <v>3.19</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>1.43</v>
+        <v>3.08</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:50</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-barnet/YkA8CaNt/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-wealdstone/GEaDBJxm/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>1.91</v>
+        <v>4.85</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.54</v>
+        <v>6.39</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.67</v>
+        <v>4.27</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.83</v>
+        <v>5.14</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.85</v>
+        <v>1.64</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>2.57</v>
+        <v>1.43</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-altrincham/dUItHuFP/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-barnet/YkA8CaNt/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>2.77</v>
+        <v>1.91</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.47</v>
+        <v>2.54</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.58</v>
+        <v>3.83</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>28/10/2023 14:43</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>2.63</v>
+        <v>3.85</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>2.78</v>
+        <v>2.57</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-eastleigh/rRUbhdxP/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-altrincham/dUItHuFP/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J209" t="n">
-        <v>1.51</v>
+        <v>2.77</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.52</v>
+        <v>2.47</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>4.52</v>
+        <v>3.22</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>4.64</v>
+        <v>3.58</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 14:43</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>5.62</v>
+        <v>2.63</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>5.69</v>
+        <v>2.78</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-afc-fylde/bN0febh6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-eastleigh/rRUbhdxP/</t>
         </is>
       </c>
     </row>
@@ -19709,71 +19709,71 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J210" t="n">
-        <v>2.03</v>
+        <v>1.51</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>2.46</v>
+        <v>1.52</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="N210" t="n">
-        <v>3.69</v>
+        <v>4.52</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>3.86</v>
+        <v>4.64</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>28/10/2023 15:15</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R210" t="n">
-        <v>3.54</v>
+        <v>5.62</v>
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="T210" t="n">
-        <v>2.64</v>
+        <v>5.69</v>
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-rochdale/xEabfI7C/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-afc-fylde/bN0febh6/</t>
         </is>
       </c>
     </row>
@@ -20077,71 +20077,71 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>3</v>
       </c>
       <c r="J214" t="n">
-        <v>4.12</v>
+        <v>2.03</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>6.98</v>
+        <v>2.46</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.58</v>
+        <v>3.69</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>4.1</v>
+        <v>3.86</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:15</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>1.81</v>
+        <v>3.54</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="T214" t="n">
-        <v>1.51</v>
+        <v>2.64</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-chesterfield/4zWfgxNI/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-rochdale/xEabfI7C/</t>
         </is>
       </c>
     </row>
@@ -20326,6 +20326,1110 @@
       <c r="V216" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-dagenham-red/Yi3DY11c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:40</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:40</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="T217" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:40</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-halifax/I1Ed7P2b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Hartlepool</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>2</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Ebbsfleet</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T218" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-ebbsfleet/4bAh85mh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Oldham</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Eastleigh</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-eastleigh/0Q316qI4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Gateshead</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>6</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Dorking</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-dorking-wanderers/AyBl9oYo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Oxford City</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>3</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Woking</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-woking/vH2553XA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T222" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-bromley/jifx6F6O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>2</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T223" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-southend/dUfY6eiI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Aldershot</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Kidderminster</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T224" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-kidderminster/pfiU7yxC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>AFC Fylde</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T225" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-york-city/2V1P8HM5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Chesterfield</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>4</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Barnet</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>2</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:16</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:16</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T226" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:08</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-barnet/Usgt5ZLU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>3</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>2</v>
+      </c>
+      <c r="J227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T227" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-rochdale/ns294NnH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45241.77083333334</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Dag &amp; Red</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Solihull Moors</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>2</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-solihull-moors/WpCpARIu/</t>
         </is>
       </c>
     </row>

--- a/2023/england_national-league_2023-2024.xlsx
+++ b/2023/england_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V228"/>
+  <dimension ref="A1:V240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.53</v>
+        <v>1.36</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.03</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:36</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>5.03</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.56</v>
+        <v>7.27</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:36</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.78</v>
+        <v>7.87</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.67</v>
+        <v>12.33</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:36</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-dagenham-red/6anG1cbt/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-dorking-wanderers/vDpOayTh/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.36</v>
+        <v>2.36</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:36</t>
+          <t>05/08/2023 08:49</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.03</v>
+        <v>3.26</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>7.27</v>
+        <v>3.48</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:36</t>
+          <t>05/08/2023 08:49</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.87</v>
+        <v>3.08</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>12.33</v>
+        <v>4.15</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:36</t>
+          <t>05/08/2023 08:49</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-dorking-wanderers/vDpOayTh/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-boreham-wood/zuvXcFc5/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.93</v>
+        <v>2.61</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 08:49</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.26</v>
+        <v>3.33</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.48</v>
+        <v>3.15</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 08:49</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.08</v>
+        <v>3.37</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.15</v>
+        <v>2.92</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 08:49</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-boreham-wood/zuvXcFc5/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-bromley/dluTbera/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.61</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 14:55</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.15</v>
+        <v>3.46</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 14:55</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.37</v>
+        <v>2.87</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.92</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 14:55</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-bromley/dluTbera/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-woking/U1wycZCB/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.45</v>
+        <v>2.08</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 14:55</t>
+          <t>04/08/2023 23:02</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.37</v>
+        <v>3.51</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.46</v>
+        <v>3.66</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 14:55</t>
+          <t>04/08/2023 23:02</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>3.27</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 14:55</t>
+          <t>04/08/2023 23:02</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-woking/U1wycZCB/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-hartlepool/0MoK0HDn/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>04/08/2023 23:02</t>
+          <t>05/08/2023 15:29</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.51</v>
+        <v>3.59</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.66</v>
+        <v>3.77</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>04/08/2023 23:02</t>
+          <t>05/08/2023 15:29</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.45</v>
+        <v>3.63</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.27</v>
+        <v>2.67</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>04/08/2023 23:02</t>
+          <t>05/08/2023 15:29</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-hartlepool/0MoK0HDn/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-eastleigh/l2pmfXdU/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>28/07/2023 16:42</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.47</v>
+        <v>3.83</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:29</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>28/07/2023 16:42</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:29</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.63</v>
+        <v>4.47</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>28/07/2023 16:42</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.67</v>
+        <v>2.04</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:29</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-eastleigh/l2pmfXdU/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-oldham/0zRhFGSu/</t>
         </is>
       </c>
     </row>
@@ -1309,30 +1309,30 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>28/07/2023 16:42</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3.83</v>
+        <v>3.38</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,40 +1340,40 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>28/07/2023 16:42</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>05/08/2023 15:43</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>28/07/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>05/08/2023 15:59</t>
         </is>
       </c>
-      <c r="R10" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>29/07/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>05/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-oldham/0zRhFGSu/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-york-city/vRPdEzrn/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.37</v>
+        <v>2.73</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.38</v>
+        <v>3.58</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:45</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>05/08/2023 15:43</t>
+          <t>05/08/2023 15:45</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.98</v>
+        <v>2.59</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:44</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-york-city/vRPdEzrn/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-afc-fylde/SndvdgSH/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.73</v>
+        <v>2.53</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.58</v>
+        <v>2.03</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:45</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:45</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.59</v>
+        <v>2.78</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.12</v>
+        <v>3.67</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:44</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-afc-fylde/SndvdgSH/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-dagenham-red/6anG1cbt/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>07/08/2023 06:44</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.21</v>
+        <v>1.63</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 13:18</t>
+          <t>12/08/2023 13:03</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>07/08/2023 06:44</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.68</v>
+        <v>4.05</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 13:18</t>
+          <t>12/08/2023 13:03</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.37</v>
+        <v>4.16</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>07/08/2023 06:44</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.11</v>
+        <v>5.33</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 13:18</t>
+          <t>12/08/2023 13:03</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-maidenhead/GjTgmFJl/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-wealdstone/YRNbnZYf/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>2.14</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>05/08/2023 18:43</t>
+          <t>07/08/2023 06:44</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.79</v>
+        <v>2.21</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 13:18</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.28</v>
+        <v>3.43</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>05/08/2023 18:43</t>
+          <t>07/08/2023 06:44</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.45</v>
+        <v>3.68</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 12:11</t>
+          <t>12/08/2023 13:18</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.15</v>
+        <v>3.37</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>05/08/2023 18:43</t>
+          <t>07/08/2023 06:44</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.53</v>
+        <v>3.11</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 13:18</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-southend/x0Ukle4r/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-maidenhead/GjTgmFJl/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>FC Halifax</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>1.86</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>05/08/2023 18:43</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.09</v>
+        <v>2.79</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>05/08/2023 18:43</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 12:11</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.63</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>05/08/2023 18:43</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>2.53</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-halifax/6HwKgHtL/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-southend/x0Ukle4r/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Kidderminster</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
       <c r="J23" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>07/08/2023 08:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 13:38</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>3.29</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>07/08/2023 08:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:31</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.7</v>
+        <v>4.63</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>07/08/2023 08:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 13:38</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-kidderminster/GO8bj3iQ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-halifax/6HwKgHtL/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 08:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/08/2023 13:03</t>
+          <t>12/08/2023 13:38</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.53</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 08:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.05</v>
+        <v>3.65</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12/08/2023 13:03</t>
+          <t>12/08/2023 15:31</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.16</v>
+        <v>4.7</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 08:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>5.33</v>
+        <v>3.85</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/08/2023 13:03</t>
+          <t>12/08/2023 13:38</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-wealdstone/YRNbnZYf/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-kidderminster/GO8bj3iQ/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2.51</v>
+        <v>1.79</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>3.06</v>
+        <v>1.96</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>26/09/2023 19:57</t>
+          <t>26/09/2023 15:22</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.21</v>
+        <v>3.84</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.41</v>
+        <v>3.82</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>26/09/2023 19:57</t>
+          <t>26/09/2023 16:01</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>2.78</v>
+        <v>3.92</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.36</v>
+        <v>3.63</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>26/09/2023 19:57</t>
+          <t>26/09/2023 20:30</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-oldham/pbipcQM0/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-solihull-moors/67htb67f/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>1.6</v>
+        <v>2.51</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.87</v>
+        <v>3.06</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 19:57</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>4.38</v>
+        <v>3.21</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>4.13</v>
+        <v>3.41</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 19:57</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>4.86</v>
+        <v>2.78</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>3.72</v>
+        <v>2.36</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 19:57</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-dorking-wanderers/n5xu0Sxr/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-oldham/pbipcQM0/</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -13277,14 +13277,14 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>26/09/2023 18:14</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.42</v>
+        <v>4.38</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.28</v>
+        <v>4.13</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>26/09/2023 18:16</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.09</v>
+        <v>4.86</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>26/09/2023 17:19</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-dagenham-red/Qeyqanhl/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-dorking-wanderers/n5xu0Sxr/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>26/09/2023 15:22</t>
+          <t>26/09/2023 18:14</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.84</v>
+        <v>3.42</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.82</v>
+        <v>3.28</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>26/09/2023 16:01</t>
+          <t>26/09/2023 18:16</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.92</v>
+        <v>4.09</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>3.63</v>
+        <v>3.69</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>26/09/2023 20:30</t>
+          <t>26/09/2023 17:19</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-solihull-moors/67htb67f/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-dagenham-red/Qeyqanhl/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="n">
-        <v>4.32</v>
+        <v>2.29</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>7.26</v>
+        <v>2.37</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.84</v>
+        <v>3.23</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>4.45</v>
+        <v>3.45</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>1.71</v>
+        <v>3.08</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-chesterfield/tpcIWQDJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-southend/0UwkR4ys/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,14 +14013,14 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>2.88</v>
+        <v>4.32</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.67</v>
+        <v>7.26</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:31</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.46</v>
+        <v>3.84</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.7</v>
+        <v>4.45</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:21</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.3</v>
+        <v>1.71</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:31</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oldham/vLxgQOjm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-chesterfield/tpcIWQDJ/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>2.29</v>
+        <v>3.13</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.37</v>
+        <v>3.48</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.08</v>
+        <v>2.24</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>3</v>
+        <v>2.11</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-southend/0UwkR4ys/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-barnet/St9z8syJ/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>2</v>
       </c>
       <c r="J150" t="n">
-        <v>3.13</v>
+        <v>1.49</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>3.48</v>
+        <v>1.62</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.27</v>
+        <v>4.39</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.53</v>
+        <v>4.45</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.24</v>
+        <v>6.2</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.11</v>
+        <v>4.85</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-barnet/St9z8syJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-dorking-wanderers/ljAW8NLC/</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -14289,14 +14289,14 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>2.45</v>
+        <v>3.13</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.65</v>
+        <v>4.15</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>30/09/2023 12:17</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.77</v>
+        <v>3.85</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>30/09/2023 08:28</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.61</v>
+        <v>2.22</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2.49</v>
+        <v>1.83</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>30/09/2023 12:17</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-boreham-wood/hOGNAqi0/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-gateshead/b1HJBPyf/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2.09</v>
+        <v>2.45</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.31</v>
+        <v>2.65</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 12:17</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.29</v>
+        <v>3.59</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.31</v>
+        <v>3.77</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 08:28</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>3.67</v>
+        <v>2.61</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>3.24</v>
+        <v>2.49</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 12:17</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-eastleigh/WEFR9366/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-boreham-wood/hOGNAqi0/</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -14473,14 +14473,14 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="n">
-        <v>3.13</v>
+        <v>2.17</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>4.15</v>
+        <v>2.52</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.85</v>
+        <v>3.51</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.22</v>
+        <v>3.12</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1.83</v>
+        <v>2.76</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-gateshead/b1HJBPyf/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-dagenham-red/nRDFC5Mm/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I154" t="n">
         <v>2</v>
       </c>
       <c r="J154" t="n">
-        <v>2.17</v>
+        <v>2.66</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.52</v>
+        <v>3.54</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.51</v>
+        <v>3.87</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.12</v>
+        <v>2.64</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-dagenham-red/nRDFC5Mm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-woking/42OADo7s/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J155" t="n">
-        <v>2.66</v>
+        <v>2.09</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>3.54</v>
+        <v>2.31</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.87</v>
+        <v>3.31</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.64</v>
+        <v>3.67</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>1.98</v>
+        <v>3.24</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-woking/42OADo7s/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-eastleigh/WEFR9366/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>1.49</v>
+        <v>2.88</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.62</v>
+        <v>2.67</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:31</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>4.39</v>
+        <v>3.46</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>4.45</v>
+        <v>3.7</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:21</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>4.85</v>
+        <v>2.5</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:31</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-dorking-wanderers/ljAW8NLC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oldham/vLxgQOjm/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Aldershot</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
         <v>1</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>FC Halifax</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>2</v>
-      </c>
       <c r="J158" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.01</v>
+        <v>1.77</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.4</v>
+        <v>4.04</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.57</v>
+        <v>4.02</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.94</v>
+        <v>4.27</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:42</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
         </is>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -15025,63 +15025,63 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>4.45</v>
+        <v>4.17</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.33</v>
+        <v>4.76</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>6.56</v>
+        <v>5.08</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>5.84</v>
+        <v>6.39</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -15117,14 +15117,14 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>2.47</v>
+        <v>1.47</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>2.22</v>
+        <v>1.49</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 19:52</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.36</v>
+        <v>4.57</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,15 +15148,15 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.39</v>
+        <v>4.64</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:06</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>2.84</v>
+        <v>6.29</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>3.36</v>
+        <v>6.15</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -15209,14 +15209,14 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="n">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.62</v>
+        <v>2.21</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 16:23</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.87</v>
+        <v>3.05</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4.11</v>
+        <v>3.34</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 16:22</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>5.09</v>
+        <v>2.99</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.32</v>
+        <v>3.4</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 18:22</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I162" t="n">
         <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>1.38</v>
+        <v>2.92</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4.92</v>
+        <v>3.36</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>6.39</v>
+        <v>2.32</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>6.49</v>
+        <v>2.99</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>1</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>York City</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>2</v>
-      </c>
       <c r="J164" t="n">
-        <v>2.45</v>
+        <v>1.38</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.21</v>
+        <v>1.44</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>03/10/2023 16:23</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.05</v>
+        <v>4.92</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.34</v>
+        <v>4.93</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>03/10/2023 16:22</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.99</v>
+        <v>6.39</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.4</v>
+        <v>6.49</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>03/10/2023 18:22</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>03/10/2023 19:52</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>4.57</v>
+        <v>3.87</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.64</v>
+        <v>4.11</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>6.29</v>
+        <v>5.09</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>6.15</v>
+        <v>5.32</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,14 +15669,14 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.56</v>
+        <v>2.47</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.46</v>
+        <v>2.22</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>4.17</v>
+        <v>3.36</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.76</v>
+        <v>3.39</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:06</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>5.08</v>
+        <v>2.84</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>6.39</v>
+        <v>3.36</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -15761,14 +15761,14 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.75</v>
+        <v>4.45</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>4.04</v>
+        <v>4.33</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>4.02</v>
+        <v>6.56</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>4.27</v>
+        <v>5.84</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:42</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-aldershot/Cnj0O2La/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="n">
-        <v>2.92</v>
+        <v>1.74</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.51</v>
+        <v>3.4</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>2.32</v>
+        <v>4.57</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2.99</v>
+        <v>3.94</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
         </is>
       </c>
     </row>
@@ -16029,71 +16029,71 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170" t="n">
-        <v>2.86</v>
+        <v>3.68</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.99</v>
+        <v>4.19</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.53</v>
+        <v>3.67</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.41</v>
+        <v>3.72</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:43</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>2.28</v>
+        <v>1.88</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="T170" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -16221,14 +16221,14 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.52</v>
+        <v>3.74</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.28</v>
+        <v>2.5</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,14 +16313,14 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.83</v>
+        <v>4.22</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.79</v>
+        <v>4.74</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>4.23</v>
+        <v>4.79</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.88</v>
+        <v>5.22</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
         </is>
       </c>
     </row>
@@ -16397,71 +16397,71 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
         <v>1.81</v>
       </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1.74</v>
-      </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:32</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.7</v>
+        <v>4.13</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:56</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>4.36</v>
+        <v>4.21</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>4.98</v>
+        <v>3.97</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:32</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-eastleigh/tQCAvFBc/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.26</v>
+        <v>2.32</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.23</v>
+        <v>3.11</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-rochdale/0SSBxgtA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>2.32</v>
+        <v>3.35</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.32</v>
+        <v>3.26</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.55</v>
+        <v>3.33</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,15 +16620,15 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.11</v>
+        <v>2.23</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-rochdale/0SSBxgtA/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:32</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4.13</v>
+        <v>3.7</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:56</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>4.21</v>
+        <v>4.36</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.97</v>
+        <v>4.98</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:32</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-eastleigh/tQCAvFBc/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G178" t="n">
+        <v>3</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>AFC Fylde</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Altrincham</t>
-        </is>
-      </c>
-      <c r="I178" t="n">
-        <v>2</v>
-      </c>
       <c r="J178" t="n">
-        <v>1.58</v>
+        <v>2.86</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.55</v>
+        <v>2.99</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>4.22</v>
+        <v>3.53</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4.74</v>
+        <v>3.41</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         </is>
       </c>
       <c r="R178" t="n">
-        <v>4.79</v>
+        <v>2.28</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>5.22</v>
+        <v>2.4</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -16865,14 +16865,14 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.65</v>
+        <v>1.91</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.44</v>
+        <v>3.83</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.74</v>
+        <v>3.79</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.4</v>
+        <v>4.23</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>2.5</v>
+        <v>3.88</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
         </is>
       </c>
     </row>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G180" t="n">
@@ -16957,63 +16957,63 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I180" t="n">
         <v>2</v>
       </c>
       <c r="J180" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
         <v>3.68</v>
       </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>04/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:15</t>
-        </is>
-      </c>
-      <c r="N180" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>04/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P180" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q180" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="R180" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="T180" t="n">
-        <v>1.85</v>
+        <v>3.28</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>3.21</v>
+        <v>1.99</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>3.38</v>
+        <v>2.12</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 13:44</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.18</v>
+        <v>3.64</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.34</v>
+        <v>4.04</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 13:44</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>2.25</v>
+        <v>3.58</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>2.23</v>
+        <v>3.07</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 13:44</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-woking/ULa1mAfS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-ebbsfleet/0jBbTl3d/</t>
         </is>
       </c>
     </row>
@@ -17685,22 +17685,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G188" t="n">
+        <v>3</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
         <v>2</v>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Hartlepool</t>
-        </is>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
       <c r="J188" t="n">
-        <v>2.61</v>
+        <v>1.36</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>3.02</v>
+        <v>1.4</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 12:23</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.41</v>
+        <v>4.72</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.7</v>
+        <v>4.96</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>2.54</v>
+        <v>7.36</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>2.25</v>
+        <v>7.46</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-hartlepool/2ekshYuc/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-maidenhead/f37ljCA9/</t>
         </is>
       </c>
     </row>
@@ -17777,22 +17777,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I189" t="n">
         <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>1.99</v>
+        <v>2.61</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17800,15 +17800,15 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.12</v>
+        <v>3.02</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>21/10/2023 13:44</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.64</v>
+        <v>3.41</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -17816,15 +17816,15 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>4.04</v>
+        <v>3.7</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>21/10/2023 13:44</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>3.58</v>
+        <v>2.54</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -17832,16 +17832,16 @@
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.07</v>
+        <v>2.25</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>21/10/2023 13:44</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-ebbsfleet/0jBbTl3d/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-hartlepool/2ekshYuc/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>1.36</v>
+        <v>3.21</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1.4</v>
+        <v>3.38</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>21/10/2023 12:23</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>4.72</v>
+        <v>3.18</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>4.96</v>
+        <v>3.34</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>7.36</v>
+        <v>2.25</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>7.46</v>
+        <v>2.23</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-maidenhead/f37ljCA9/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-woking/ULa1mAfS/</t>
         </is>
       </c>
     </row>
@@ -18053,71 +18053,71 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>2.84</v>
+        <v>1.71</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.41</v>
+        <v>1.63</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.42</v>
+        <v>3.96</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.88</v>
+        <v>4.35</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>2.44</v>
+        <v>4.49</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.02</v>
+        <v>4.84</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-gateshead/Ors6Hl98/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oxford-city/Us9watgs/</t>
         </is>
       </c>
     </row>
@@ -18237,7 +18237,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -18245,14 +18245,14 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.63</v>
+        <v>3.41</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>24/10/2023 19:49</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>24/10/2023 18:54</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>2.78</v>
+        <v>2.44</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>2.73</v>
+        <v>2.02</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>24/10/2023 19:49</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-hartlepool/Mw3Nh5W7/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-gateshead/Ors6Hl98/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I195" t="n">
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>1.71</v>
+        <v>2.58</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>1.63</v>
+        <v>2.63</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 19:49</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.96</v>
+        <v>3.26</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>4.35</v>
+        <v>3.35</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 18:54</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>4.49</v>
+        <v>2.78</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>4.84</v>
+        <v>2.73</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 19:49</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oxford-city/Us9watgs/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-hartlepool/Mw3Nh5W7/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>1.76</v>
+        <v>1.35</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 13:02</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.77</v>
+        <v>5.17</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>4.27</v>
+        <v>5.79</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>4.14</v>
+        <v>7.75</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>5.58</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-dorking-wanderers/KE66dmXr/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-york-city/xj1Be7nk/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I199" t="n">
         <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.9</v>
+        <v>3.77</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>4.32</v>
+        <v>4.27</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>4.44</v>
+        <v>4.14</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>5.25</v>
+        <v>5.58</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>24/10/2023 20:35</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-solihull-moors/I5Kv1TOR/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-dorking-wanderers/KE66dmXr/</t>
         </is>
       </c>
     </row>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -18797,14 +18797,14 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I200" t="n">
         <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,15 +18812,15 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.23</v>
+        <v>1.6</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>3.56</v>
+        <v>3.9</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,15 +18828,15 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.44</v>
+        <v>4.32</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>3.77</v>
+        <v>4.44</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>3.27</v>
+        <v>5.25</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:35</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-kidderminster/OrLz299L/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-solihull-moors/I5Kv1TOR/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.49</v>
+        <v>3.56</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,32 +18920,32 @@
         </is>
       </c>
       <c r="P201" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
         <v>3.77</v>
       </c>
-      <c r="Q201" t="inlineStr">
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T201" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U201" t="inlineStr">
         <is>
           <t>24/10/2023 20:37</t>
         </is>
       </c>
-      <c r="R201" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="S201" t="inlineStr">
-        <is>
-          <t>21/10/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T201" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="U201" t="inlineStr">
-        <is>
-          <t>24/10/2023 20:37</t>
-        </is>
-      </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-maidenhead/AuHW2kfF/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-kidderminster/OrLz299L/</t>
         </is>
       </c>
     </row>
@@ -18973,22 +18973,22 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202" t="n">
-        <v>2.73</v>
+        <v>2.01</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -18996,15 +18996,15 @@
         </is>
       </c>
       <c r="L202" t="n">
-        <v>2.82</v>
+        <v>1.95</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>3.34</v>
+        <v>3.49</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
@@ -19012,15 +19012,15 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3.71</v>
+        <v>3.77</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="R202" t="n">
-        <v>2.58</v>
+        <v>3.69</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
@@ -19028,16 +19028,16 @@
         </is>
       </c>
       <c r="T202" t="n">
-        <v>2.38</v>
+        <v>3.72</v>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-oldham/SGRR3Vv9/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-maidenhead/AuHW2kfF/</t>
         </is>
       </c>
     </row>
@@ -19065,22 +19065,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>1.35</v>
+        <v>2.73</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -19088,15 +19088,15 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.26</v>
+        <v>2.82</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>24/10/2023 13:02</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>5.17</v>
+        <v>3.34</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -19104,15 +19104,15 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>5.79</v>
+        <v>3.71</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>7.75</v>
+        <v>2.58</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
@@ -19120,16 +19120,16 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>9.699999999999999</v>
+        <v>2.38</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-york-city/xj1Be7nk/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-oldham/SGRR3Vv9/</t>
         </is>
       </c>
     </row>
@@ -19157,22 +19157,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
         <v>1</v>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Chesterfield</t>
-        </is>
-      </c>
-      <c r="I204" t="n">
-        <v>3</v>
-      </c>
       <c r="J204" t="n">
-        <v>4.12</v>
+        <v>1.71</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -19180,15 +19180,15 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>6.98</v>
+        <v>2.16</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 14:22</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.58</v>
+        <v>3.73</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -19196,15 +19196,15 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>4.1</v>
+        <v>3.26</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 14:22</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>1.81</v>
+        <v>4.43</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
@@ -19212,16 +19212,16 @@
         </is>
       </c>
       <c r="T204" t="n">
-        <v>1.51</v>
+        <v>3.64</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 14:22</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-chesterfield/4zWfgxNI/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-bromley/f5bHAwhg/</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -19257,63 +19257,63 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" t="n">
-        <v>1.71</v>
+        <v>4.85</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.16</v>
+        <v>6.39</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>28/10/2023 14:22</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.73</v>
+        <v>4.27</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.26</v>
+        <v>5.14</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>28/10/2023 14:22</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>4.43</v>
+        <v>1.64</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>24/10/2023 21:13</t>
+          <t>24/10/2023 21:12</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.64</v>
+        <v>1.43</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>28/10/2023 14:22</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-bromley/f5bHAwhg/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-barnet/YkA8CaNt/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.24</v>
+        <v>2.54</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>28/10/2023 15:50</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.77</v>
+        <v>3.67</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.64</v>
+        <v>3.83</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>28/10/2023 15:50</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.19</v>
+        <v>3.85</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.08</v>
+        <v>2.57</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>28/10/2023 15:50</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-wealdstone/GEaDBJxm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-altrincham/dUItHuFP/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>4.85</v>
+        <v>2.77</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>6.39</v>
+        <v>2.47</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>4.27</v>
+        <v>3.22</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>5.14</v>
+        <v>3.58</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 14:43</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>1.64</v>
+        <v>2.63</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>1.43</v>
+        <v>2.78</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-barnet/YkA8CaNt/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-eastleigh/rRUbhdxP/</t>
         </is>
       </c>
     </row>
@@ -19525,22 +19525,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J208" t="n">
-        <v>1.91</v>
+        <v>4.12</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -19548,15 +19548,15 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.54</v>
+        <v>6.98</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -19564,15 +19564,15 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.83</v>
+        <v>4.1</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.85</v>
+        <v>1.81</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -19580,16 +19580,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>2.57</v>
+        <v>1.51</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-altrincham/dUItHuFP/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-chesterfield/4zWfgxNI/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>2.77</v>
+        <v>2.02</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.47</v>
+        <v>2.24</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:50</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.22</v>
+        <v>3.77</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>3.58</v>
+        <v>3.64</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>28/10/2023 14:43</t>
+          <t>28/10/2023 15:50</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>2.63</v>
+        <v>3.19</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>24/10/2023 21:12</t>
+          <t>24/10/2023 21:13</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>2.78</v>
+        <v>3.08</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:50</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-eastleigh/rRUbhdxP/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-wealdstone/GEaDBJxm/</t>
         </is>
       </c>
     </row>
@@ -20353,71 +20353,71 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>03/11/2023 16:44</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="L217" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
         <v>2.65</v>
       </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:40</t>
-        </is>
-      </c>
-      <c r="N217" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>03/11/2023 16:44</t>
-        </is>
-      </c>
-      <c r="P217" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="Q217" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:40</t>
-        </is>
-      </c>
-      <c r="R217" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>03/11/2023 16:44</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="T217" t="n">
-        <v>2.82</v>
+        <v>2.4</v>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>11/11/2023 15:40</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-halifax/I1Ed7P2b/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-rochdale/ns294NnH/</t>
         </is>
       </c>
     </row>
@@ -20445,71 +20445,71 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I218" t="n">
         <v>2</v>
       </c>
       <c r="J218" t="n">
-        <v>1.53</v>
+        <v>3.58</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>03/11/2023 16:43</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>1.74</v>
+        <v>4.65</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>11/11/2023 15:56</t>
+          <t>11/11/2023 15:30</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>4.26</v>
+        <v>3.67</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>03/11/2023 16:43</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>4.51</v>
+        <v>4.21</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:30</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>5.14</v>
+        <v>2.03</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>03/11/2023 16:43</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="T218" t="n">
-        <v>4.01</v>
+        <v>1.68</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:30</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-ebbsfleet/4bAh85mh/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-woking/vH2553XA/</t>
         </is>
       </c>
     </row>
@@ -20629,71 +20629,71 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>04/11/2023 17:13</t>
+          <t>03/11/2023 16:43</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:56</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>4.4</v>
+        <v>4.26</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>04/11/2023 17:13</t>
+          <t>03/11/2023 16:43</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>5.77</v>
+        <v>4.51</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>5.8</v>
+        <v>5.14</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>04/11/2023 17:13</t>
+          <t>03/11/2023 16:43</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>6.62</v>
+        <v>4.01</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-dorking-wanderers/AyBl9oYo/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-ebbsfleet/4bAh85mh/</t>
         </is>
       </c>
     </row>
@@ -20721,71 +20721,71 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>3.58</v>
+        <v>1.51</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>04/11/2023 17:13</t>
         </is>
       </c>
       <c r="L221" t="n">
-        <v>4.65</v>
+        <v>1.38</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>11/11/2023 15:30</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.67</v>
+        <v>4.4</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>04/11/2023 17:13</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>4.21</v>
+        <v>5.77</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>11/11/2023 15:30</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>2.03</v>
+        <v>5.8</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>04/11/2023 17:13</t>
         </is>
       </c>
       <c r="T221" t="n">
-        <v>1.68</v>
+        <v>6.62</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>11/11/2023 15:30</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-woking/vH2553XA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-dorking-wanderers/AyBl9oYo/</t>
         </is>
       </c>
     </row>
@@ -20813,7 +20813,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G222" t="n">
@@ -20821,63 +20821,63 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>03/11/2023 16:43</t>
+          <t>03/11/2023 16:44</t>
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:40</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>03/11/2023 16:43</t>
+          <t>03/11/2023 16:44</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.42</v>
+        <v>3.21</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:40</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>03/11/2023 16:43</t>
+          <t>03/11/2023 16:44</t>
         </is>
       </c>
       <c r="T222" t="n">
-        <v>3.07</v>
+        <v>2.82</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:40</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-bromley/jifx6F6O/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-halifax/I1Ed7P2b/</t>
         </is>
       </c>
     </row>
@@ -20905,71 +20905,71 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G223" t="n">
+        <v>4</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Barnet</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
         <v>2</v>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Southend</t>
-        </is>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
       <c r="J223" t="n">
-        <v>2.39</v>
+        <v>1.74</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>03/11/2023 16:43</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>2.71</v>
+        <v>1.66</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>11/11/2023 15:22</t>
+          <t>11/11/2023 15:16</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.5</v>
+        <v>3.98</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>03/11/2023 16:43</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.44</v>
+        <v>4.47</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>11/11/2023 15:22</t>
+          <t>11/11/2023 15:16</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>2.94</v>
+        <v>4.33</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>03/11/2023 16:43</t>
         </is>
       </c>
       <c r="T223" t="n">
-        <v>2.6</v>
+        <v>4.51</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>11/11/2023 15:22</t>
+          <t>11/11/2023 15:08</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-southend/dUfY6eiI/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-barnet/Usgt5ZLU/</t>
         </is>
       </c>
     </row>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G224" t="n">
@@ -21005,14 +21005,14 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="n">
-        <v>2.07</v>
+        <v>2.37</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -21020,15 +21020,15 @@
         </is>
       </c>
       <c r="L224" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>11/11/2023 15:50</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -21036,15 +21036,15 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>11/11/2023 15:50</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R224" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
@@ -21052,16 +21052,16 @@
         </is>
       </c>
       <c r="T224" t="n">
-        <v>3.36</v>
+        <v>3.07</v>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>11/11/2023 15:50</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-kidderminster/pfiU7yxC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-bromley/jifx6F6O/</t>
         </is>
       </c>
     </row>
@@ -21089,71 +21089,71 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G225" t="n">
+        <v>2</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>York City</t>
-        </is>
-      </c>
-      <c r="I225" t="n">
-        <v>2</v>
-      </c>
       <c r="J225" t="n">
-        <v>1.98</v>
+        <v>2.39</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>03/11/2023 16:43</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="L225" t="n">
-        <v>1.62</v>
+        <v>2.71</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:22</t>
         </is>
       </c>
       <c r="N225" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>03/11/2023 16:43</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>4.29</v>
+        <v>3.44</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:22</t>
         </is>
       </c>
       <c r="R225" t="n">
-        <v>3.56</v>
+        <v>2.94</v>
       </c>
       <c r="S225" t="inlineStr">
         <is>
-          <t>03/11/2023 16:43</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="T225" t="n">
-        <v>5.04</v>
+        <v>2.6</v>
       </c>
       <c r="U225" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:22</t>
         </is>
       </c>
       <c r="V225" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-york-city/2V1P8HM5/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-southend/dUfY6eiI/</t>
         </is>
       </c>
     </row>
@@ -21181,22 +21181,22 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>1.74</v>
+        <v>2.07</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -21204,15 +21204,15 @@
         </is>
       </c>
       <c r="L226" t="n">
-        <v>1.66</v>
+        <v>2.18</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>11/11/2023 15:16</t>
+          <t>11/11/2023 15:50</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>3.98</v>
+        <v>3.4</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -21220,15 +21220,15 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>4.47</v>
+        <v>3.47</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>11/11/2023 15:16</t>
+          <t>11/11/2023 15:50</t>
         </is>
       </c>
       <c r="R226" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
@@ -21236,16 +21236,16 @@
         </is>
       </c>
       <c r="T226" t="n">
-        <v>4.51</v>
+        <v>3.36</v>
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>11/11/2023 15:08</t>
+          <t>11/11/2023 15:50</t>
         </is>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-barnet/Usgt5ZLU/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-kidderminster/pfiU7yxC/</t>
         </is>
       </c>
     </row>
@@ -21273,71 +21273,71 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I227" t="n">
         <v>2</v>
       </c>
       <c r="J227" t="n">
-        <v>2.65</v>
+        <v>1.98</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>03/11/2023 16:43</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>2.93</v>
+        <v>1.62</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>03/11/2023 16:43</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>3.5</v>
+        <v>4.29</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>11/11/2023 14:56</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R227" t="n">
-        <v>2.65</v>
+        <v>3.56</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>03/11/2023 16:43</t>
         </is>
       </c>
       <c r="T227" t="n">
-        <v>2.4</v>
+        <v>5.04</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-rochdale/ns294NnH/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-york-city/2V1P8HM5/</t>
         </is>
       </c>
     </row>
@@ -21430,6 +21430,1110 @@
       <c r="V228" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-solihull-moors/WpCpARIu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>2</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Chesterfield</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T229" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-chesterfield/8AVjH0WM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Solihull Moors</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-maidenhead/QotnItHG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>2</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Aldershot</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T231" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-aldershot/S0NrJM1A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kidderminster</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Dag &amp; Red</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T232" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-dagenham-red/YwOvK2n4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>FC Halifax</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-wealdstone/fmPzLrXc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Dorking</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>2</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-boreham-wood/pIspbLPp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Eastleigh</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>2</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-altrincham/bLVRM42o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>AFC Fylde</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-afc-fylde/8djI21HT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Barnet</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Gateshead</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>2</v>
+      </c>
+      <c r="J237" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T237" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-gateshead/QX0D3s2N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Woking</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Oldham</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T238" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-oldham/n1UfGKoT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Ebbsfleet</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Oxford City</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>4</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T239" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-oxford-city/xCUVLOHi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Hartlepool</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>3</v>
+      </c>
+      <c r="J240" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:35</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:35</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T240" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:35</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-hartlepool/vgMMBvfp/</t>
         </is>
       </c>
     </row>

--- a/2023/england_national-league_2023-2024.xlsx
+++ b/2023/england_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V249"/>
+  <dimension ref="A1:V250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.36</v>
+        <v>2.36</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:36</t>
+          <t>05/08/2023 08:49</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5.03</v>
+        <v>3.26</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>7.27</v>
+        <v>3.48</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:36</t>
+          <t>05/08/2023 08:49</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.87</v>
+        <v>3.08</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>12.33</v>
+        <v>4.15</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:36</t>
+          <t>05/08/2023 08:49</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-dorking-wanderers/vDpOayTh/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-boreham-wood/zuvXcFc5/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.36</v>
+        <v>1.36</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.93</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 08:49</t>
+          <t>05/08/2023 15:36</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.26</v>
+        <v>5.03</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.48</v>
+        <v>7.27</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 08:49</t>
+          <t>05/08/2023 15:36</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.08</v>
+        <v>7.87</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.15</v>
+        <v>12.33</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 08:49</t>
+          <t>05/08/2023 15:36</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-boreham-wood/zuvXcFc5/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-dorking-wanderers/vDpOayTh/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,11 +11912,11 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>23/09/2023 13:22</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N125" t="n">
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>23/09/2023 13:22</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>5.15</v>
+        <v>6.92</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-halifax/nTEJfX02/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-oxford-city/pxG9pmwe/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>23/09/2023 15:33</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.69</v>
+        <v>3.91</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>23/09/2023 15:33</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>4.4</v>
+        <v>4.26</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>4.15</v>
+        <v>4.65</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>23/09/2023 15:33</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-aldershot/0WINgiG8/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-afc-fylde/6i4IrR77/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>23/09/2023 15:38</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>5.42</v>
+        <v>4.12</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>5.84</v>
+        <v>5.4</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>6.4</v>
+        <v>5.88</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>7.68</v>
+        <v>9.19</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-wealdstone/fgIRhBVE/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-maidenhead/nic6oTNl/</t>
         </is>
       </c>
     </row>
@@ -12165,71 +12165,71 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>1</v>
       </c>
       <c r="J128" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:01</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
         <v>2.71</v>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:58</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P128" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:58</t>
-        </is>
-      </c>
-      <c r="R128" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T128" t="n">
-        <v>2.33</v>
-      </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:38</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-hartlepool/YqHViVpL/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-kidderminster/hUc2n98r/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.73</v>
+        <v>3.84</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.91</v>
+        <v>3.82</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.26</v>
+        <v>2.13</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>4.65</v>
+        <v>1.91</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-afc-fylde/6i4IrR77/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-rochdale/jLBzik0R/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>2.19</v>
+        <v>2.71</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.68</v>
+        <v>3.13</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>23/09/2023 15:38</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.29</v>
+        <v>3.39</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>23/09/2023 15:01</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>23/09/2023 15:38</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-kidderminster/hUc2n98r/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-hartlepool/YqHViVpL/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:38</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>4.12</v>
+        <v>5.42</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>5.4</v>
+        <v>5.84</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>5.88</v>
+        <v>6.4</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>9.19</v>
+        <v>7.68</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-maidenhead/nic6oTNl/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-wealdstone/fgIRhBVE/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:33</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4.75</v>
+        <v>3.69</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:33</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>4.59</v>
+        <v>4.4</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>6.92</v>
+        <v>4.15</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:33</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-oxford-city/pxG9pmwe/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-aldershot/0WINgiG8/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>3.15</v>
+        <v>1.67</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>3.84</v>
+        <v>1.75</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 13:22</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.51</v>
+        <v>3.85</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.82</v>
+        <v>3.55</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 13:22</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.13</v>
+        <v>4.58</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>1.91</v>
+        <v>5.15</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-rochdale/jLBzik0R/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-halifax/nTEJfX02/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>2</v>
       </c>
       <c r="J146" t="n">
-        <v>3.13</v>
+        <v>2.29</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>3.48</v>
+        <v>2.37</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>2.24</v>
+        <v>3.08</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.11</v>
+        <v>3</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-barnet/St9z8syJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-southend/0UwkR4ys/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>30/09/2023 15:31</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.46</v>
+        <v>3.47</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.7</v>
+        <v>3.53</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>30/09/2023 15:21</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.3</v>
+        <v>3.33</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>30/09/2023 15:31</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oldham/vLxgQOjm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-solihull-moors/YeidPr6g/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>2.29</v>
+        <v>4.32</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.37</v>
+        <v>7.26</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.23</v>
+        <v>3.84</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.45</v>
+        <v>4.45</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.08</v>
+        <v>1.71</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:41</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-southend/0UwkR4ys/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-chesterfield/tpcIWQDJ/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>4.32</v>
+        <v>3.13</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>7.26</v>
+        <v>3.48</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.84</v>
+        <v>3.27</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4.45</v>
+        <v>3.53</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>1.45</v>
+        <v>2.11</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>30/09/2023 15:41</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-chesterfield/tpcIWQDJ/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-barnet/St9z8syJ/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>2.15</v>
+        <v>3.13</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.62</v>
+        <v>4.15</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.47</v>
+        <v>3.32</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.53</v>
+        <v>3.85</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>3.33</v>
+        <v>2.22</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-solihull-moors/YeidPr6g/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-gateshead/b1HJBPyf/</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -14473,14 +14473,14 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="n">
-        <v>3.13</v>
+        <v>2.17</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>4.15</v>
+        <v>2.52</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.85</v>
+        <v>3.51</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.22</v>
+        <v>3.12</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1.83</v>
+        <v>2.76</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-gateshead/b1HJBPyf/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-dagenham-red/nRDFC5Mm/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Woking</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
         <v>2</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Eastleigh</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>3</v>
-      </c>
       <c r="J154" t="n">
-        <v>2.09</v>
+        <v>2.66</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.31</v>
+        <v>3.54</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.31</v>
+        <v>3.87</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.67</v>
+        <v>2.64</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>3.24</v>
+        <v>1.98</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-eastleigh/WEFR9366/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-woking/42OADo7s/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G155" t="n">
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Eastleigh</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
         <v>3</v>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Dag &amp; Red</t>
-        </is>
-      </c>
-      <c r="I155" t="n">
-        <v>2</v>
-      </c>
       <c r="J155" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.52</v>
+        <v>2.31</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.51</v>
+        <v>3.31</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.12</v>
+        <v>3.67</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.76</v>
+        <v>3.24</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-dagenham-red/nRDFC5Mm/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-eastleigh/WEFR9366/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>3.54</v>
+        <v>2.67</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:31</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.34</v>
+        <v>3.46</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.87</v>
+        <v>3.7</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:21</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:31</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/afc-fylde-woking/42OADo7s/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oldham/vLxgQOjm/</t>
         </is>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -15025,63 +15025,63 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>4.45</v>
+        <v>4.17</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.33</v>
+        <v>4.76</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>6.56</v>
+        <v>5.08</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>30/09/2023 17:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>5.84</v>
+        <v>6.39</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>03/10/2023 20:24</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -15117,14 +15117,14 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>2.47</v>
+        <v>1.47</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>2.22</v>
+        <v>1.49</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 19:52</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.36</v>
+        <v>4.57</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,15 +15148,15 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.39</v>
+        <v>4.64</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:06</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>2.84</v>
+        <v>6.29</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>3.36</v>
+        <v>6.15</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:25</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -15209,14 +15209,14 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="n">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.62</v>
+        <v>2.21</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 16:23</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.87</v>
+        <v>3.05</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4.11</v>
+        <v>3.34</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 16:22</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>5.09</v>
+        <v>2.99</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.32</v>
+        <v>3.4</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 18:22</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I162" t="n">
         <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>1.38</v>
+        <v>2.92</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4.92</v>
+        <v>3.36</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>6.39</v>
+        <v>2.32</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>6.49</v>
+        <v>2.99</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,48 +15408,48 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
+          <t>03/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
           <t>03/10/2023 20:37</t>
         </is>
       </c>
-      <c r="N163" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O163" t="inlineStr">
+      <c r="R163" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S163" t="inlineStr">
         <is>
           <t>30/09/2023 17:13</t>
         </is>
       </c>
-      <c r="P163" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:37</t>
-        </is>
-      </c>
-      <c r="R163" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="S163" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
       <c r="T163" t="n">
-        <v>3.94</v>
+        <v>3.07</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:20</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>2.92</v>
+        <v>1.38</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.35</v>
+        <v>1.44</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.36</v>
+        <v>4.92</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.51</v>
+        <v>4.93</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.32</v>
+        <v>6.39</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>2.99</v>
+        <v>6.49</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-kidderminster/v16t4YZp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-wealdstone/f9lTRySi/</t>
         </is>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -15577,14 +15577,14 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>2.21</v>
+        <v>1.62</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>03/10/2023 16:23</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.05</v>
+        <v>3.87</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.34</v>
+        <v>4.11</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>03/10/2023 16:22</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>2.99</v>
+        <v>5.09</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>3.4</v>
+        <v>5.32</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>03/10/2023 18:22</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-york-city/2yqDL05I/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-maidenhead/lWmXQesb/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,14 +15669,14 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.47</v>
+        <v>2.47</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.49</v>
+        <v>2.22</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>03/10/2023 19:52</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>4.57</v>
+        <v>3.36</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.64</v>
+        <v>3.39</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:06</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>6.29</v>
+        <v>2.84</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>6.15</v>
+        <v>3.36</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>03/10/2023 20:25</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-bromley/8Eq9MtjC/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-rochdale/06iyQFd4/</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -15761,63 +15761,63 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>4.17</v>
+        <v>4.45</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>4.76</v>
+        <v>4.33</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>5.08</v>
+        <v>6.56</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 17:42</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>6.39</v>
+        <v>5.84</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:24</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-afc-fylde/fBu5NMz6/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-oxford-city/rVttPZBA/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>2</v>
       </c>
       <c r="J168" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.44</v>
+        <v>3.56</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,32 +15884,32 @@
         </is>
       </c>
       <c r="P168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
         <v>3.94</v>
       </c>
-      <c r="Q168" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:37</t>
-        </is>
-      </c>
-      <c r="R168" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="S168" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T168" t="n">
-        <v>3.07</v>
-      </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>03/10/2023 20:20</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-ebbsfleet/GIkPSHCo/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-halifax/MLupOgRG/</t>
         </is>
       </c>
     </row>
@@ -16029,71 +16029,71 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>2</v>
       </c>
       <c r="J170" t="n">
-        <v>2.22</v>
+        <v>3.68</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.41</v>
+        <v>4.19</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.28</v>
+        <v>3.67</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.36</v>
+        <v>3.72</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:43</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>3.16</v>
+        <v>1.88</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="T170" t="n">
-        <v>3.01</v>
+        <v>1.85</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-bromley/MaCfUUmj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>2</v>
       </c>
       <c r="J171" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.41</v>
+        <v>3.28</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.52</v>
+        <v>3.36</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>3.68</v>
+        <v>3.16</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>3.28</v>
+        <v>3.01</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-bromley/MaCfUUmj/</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -16221,14 +16221,14 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.91</v>
+        <v>2.65</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.83</v>
+        <v>3.44</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>4.23</v>
+        <v>3.4</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.88</v>
+        <v>2.5</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="n">
-        <v>2.86</v>
+        <v>1.58</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.99</v>
+        <v>1.55</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.53</v>
+        <v>4.22</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.41</v>
+        <v>4.74</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.28</v>
+        <v>4.79</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.4</v>
+        <v>5.22</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
         </is>
       </c>
     </row>
@@ -16397,71 +16397,71 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
         <v>1.81</v>
       </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1.74</v>
-      </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:32</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.7</v>
+        <v>4.13</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:56</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>4.36</v>
+        <v>4.21</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>03/10/2023 20:12</t>
+          <t>04/10/2023 20:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>4.98</v>
+        <v>3.97</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:32</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-eastleigh/tQCAvFBc/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.26</v>
+        <v>2.32</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.23</v>
+        <v>3.11</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-rochdale/0SSBxgtA/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>1.79</v>
+        <v>3.35</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.81</v>
+        <v>3.26</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:32</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>4.13</v>
+        <v>3.46</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:56</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>4.21</v>
+        <v>2.2</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.97</v>
+        <v>2.23</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>07/10/2023 15:32</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-eastleigh/tQCAvFBc/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-rochdale/0SSBxgtA/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>4.22</v>
+        <v>3.4</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4.74</v>
+        <v>3.7</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>4.79</v>
+        <v>4.36</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>5.22</v>
+        <v>4.98</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-altrincham/2ZD6uedi/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-dagenham-red/fkSFyDeG/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G178" t="n">
+        <v>3</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>AFC Fylde</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>FC Halifax</t>
-        </is>
-      </c>
-      <c r="I178" t="n">
-        <v>2</v>
-      </c>
       <c r="J178" t="n">
-        <v>2.05</v>
+        <v>2.86</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.65</v>
+        <v>2.99</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.74</v>
+        <v>3.41</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.4</v>
+        <v>2.28</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-halifax/lWPOGBJj/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-afc-fylde/8hWJzXAM/</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -16865,63 +16865,63 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="n">
-        <v>3.68</v>
+        <v>1.79</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>4.19</v>
+        <v>1.91</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.72</v>
+        <v>3.79</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>07/10/2023 15:43</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>1.88</v>
+        <v>4.23</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>04/10/2023 20:12</t>
+          <t>03/10/2023 20:12</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>1.85</v>
+        <v>3.88</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-chesterfield/UoqhMXeT/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-aldershot/jHLOZjQS/</t>
         </is>
       </c>
     </row>
@@ -16949,22 +16949,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -16972,15 +16972,15 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -16988,15 +16988,15 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3.43</v>
+        <v>3.52</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>2.8</v>
+        <v>3.68</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-wealdstone/MyU7wZQ3/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-southend/hQ7jVAYq/</t>
         </is>
       </c>
     </row>
@@ -17133,22 +17133,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J182" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1.92</v>
+        <v>2.51</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -17176,11 +17176,11 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>4.22</v>
+        <v>2.81</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-solihull-moors/MJvttSn2/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-oldham/rTuxs8Xe/</t>
         </is>
       </c>
     </row>
@@ -17225,22 +17225,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.01</v>
+        <v>2.48</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.52</v>
+        <v>3.13</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.79</v>
+        <v>3.07</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:34</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>3.22</v>
+        <v>4.03</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>3.52</v>
+        <v>3.18</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-york-city/n1nTrU2q/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-kidderminster/04jXslIk/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2.51</v>
+        <v>1.92</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17360,28 +17360,28 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
+          <t>21/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
           <t>21/10/2023 15:57</t>
         </is>
       </c>
-      <c r="R184" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>13/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="T184" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="U184" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:57</t>
-        </is>
-      </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-oldham/rTuxs8Xe/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-solihull-moors/MJvttSn2/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>1.98</v>
+        <v>3.21</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>2.48</v>
+        <v>3.38</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.07</v>
+        <v>3.34</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>21/10/2023 15:34</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>4.03</v>
+        <v>2.25</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>3.18</v>
+        <v>2.23</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:30</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-kidderminster/04jXslIk/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-woking/ULa1mAfS/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>3.21</v>
+        <v>2.09</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>3.38</v>
+        <v>2.01</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.18</v>
+        <v>3.52</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.34</v>
+        <v>3.79</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>2.25</v>
+        <v>3.22</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>2.23</v>
+        <v>3.52</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>21/10/2023 15:30</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-woking/ULa1mAfS/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-york-city/n1nTrU2q/</t>
         </is>
       </c>
     </row>
@@ -21733,71 +21733,71 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G232" t="n">
+        <v>2</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Aldershot</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
         <v>1</v>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Maidenhead</t>
-        </is>
-      </c>
-      <c r="I232" t="n">
-        <v>2</v>
-      </c>
       <c r="J232" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>11/11/2023 18:43</t>
+          <t>11/11/2023 18:12</t>
         </is>
       </c>
       <c r="L232" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>18/11/2023 15:49</t>
+          <t>18/11/2023 15:36</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3.69</v>
+        <v>3.71</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>11/11/2023 18:43</t>
+          <t>11/11/2023 18:12</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>3.39</v>
+        <v>4.18</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>18/11/2023 15:49</t>
+          <t>18/11/2023 15:36</t>
         </is>
       </c>
       <c r="R232" t="n">
-        <v>4.43</v>
+        <v>4.02</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t>11/11/2023 18:43</t>
+          <t>11/11/2023 18:12</t>
         </is>
       </c>
       <c r="T232" t="n">
-        <v>4.04</v>
+        <v>3.87</v>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>18/11/2023 15:49</t>
+          <t>18/11/2023 15:36</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-maidenhead/QotnItHG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-aldershot/S0NrJM1A/</t>
         </is>
       </c>
     </row>
@@ -21917,71 +21917,71 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
         <v>2</v>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Aldershot</t>
-        </is>
-      </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
       <c r="J234" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>11/11/2023 18:12</t>
+          <t>11/11/2023 18:43</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>18/11/2023 15:36</t>
+          <t>18/11/2023 15:49</t>
         </is>
       </c>
       <c r="N234" t="n">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>11/11/2023 18:12</t>
+          <t>11/11/2023 18:43</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>4.18</v>
+        <v>3.39</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>18/11/2023 15:36</t>
+          <t>18/11/2023 15:49</t>
         </is>
       </c>
       <c r="R234" t="n">
-        <v>4.02</v>
+        <v>4.43</v>
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>11/11/2023 18:12</t>
+          <t>11/11/2023 18:43</t>
         </is>
       </c>
       <c r="T234" t="n">
-        <v>3.87</v>
+        <v>4.04</v>
       </c>
       <c r="U234" t="inlineStr">
         <is>
-          <t>18/11/2023 15:36</t>
+          <t>18/11/2023 15:49</t>
         </is>
       </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-aldershot/S0NrJM1A/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-maidenhead/QotnItHG/</t>
         </is>
       </c>
     </row>
@@ -22561,22 +22561,22 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G241" t="n">
+        <v>2</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Oxford City</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Chesterfield</t>
-        </is>
-      </c>
-      <c r="I241" t="n">
-        <v>2</v>
-      </c>
       <c r="J241" t="n">
-        <v>3.45</v>
+        <v>1.74</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -22584,15 +22584,15 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>6.23</v>
+        <v>2.02</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>21/11/2023 20:30</t>
+          <t>21/11/2023 20:40</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>3.55</v>
+        <v>3.91</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -22600,32 +22600,32 @@
         </is>
       </c>
       <c r="P241" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>21/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
         <v>4.43</v>
       </c>
-      <c r="Q241" t="inlineStr">
-        <is>
-          <t>21/11/2023 20:30</t>
-        </is>
-      </c>
-      <c r="R241" t="n">
-        <v>2.06</v>
-      </c>
       <c r="S241" t="inlineStr">
         <is>
           <t>18/11/2023 18:12</t>
         </is>
       </c>
       <c r="T241" t="n">
-        <v>1.51</v>
+        <v>3.38</v>
       </c>
       <c r="U241" t="inlineStr">
         <is>
-          <t>21/11/2023 20:25</t>
+          <t>21/11/2023 20:40</t>
         </is>
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-chesterfield/hMX2AkF7/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-oxford-city/txRpZYi8/</t>
         </is>
       </c>
     </row>
@@ -23297,22 +23297,22 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Chesterfield</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
         <v>2</v>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Oxford City</t>
-        </is>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
       <c r="J249" t="n">
-        <v>1.74</v>
+        <v>3.45</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.02</v>
+        <v>6.23</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>21/11/2023 20:40</t>
+          <t>21/11/2023 20:30</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.91</v>
+        <v>3.55</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.91</v>
+        <v>4.43</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>21/11/2023 20:40</t>
+          <t>21/11/2023 20:30</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>4.43</v>
+        <v>2.06</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,108 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>3.38</v>
+        <v>1.51</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>21/11/2023 20:40</t>
+          <t>21/11/2023 20:25</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-oxford-city/txRpZYi8/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-chesterfield/hMX2AkF7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45252.875</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Barnet</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Oldham</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>4</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>22/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>22/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R250" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T250" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>22/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-oldham/IqLQAb9j/</t>
         </is>
       </c>
     </row>

--- a/2023/england_national-league_2023-2024.xlsx
+++ b/2023/england_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V262"/>
+  <dimension ref="A1:V265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,30 +573,30 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>28/07/2023 16:42</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3.83</v>
+        <v>3.38</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -604,40 +604,40 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>28/07/2023 16:42</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>05/08/2023 15:43</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>28/07/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>05/08/2023 15:59</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>29/07/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>05/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-oldham/0zRhFGSu/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-york-city/vRPdEzrn/</t>
         </is>
       </c>
     </row>
@@ -1401,30 +1401,30 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.37</v>
+        <v>1.78</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>28/07/2023 16:42</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.38</v>
+        <v>3.83</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,31 +1432,31 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>28/07/2023 16:42</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>05/08/2023 15:43</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.98</v>
+        <v>4.47</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>28/07/2023 16:42</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-york-city/vRPdEzrn/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-oldham/0zRhFGSu/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 13:22</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.68</v>
+        <v>3.85</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.91</v>
+        <v>3.55</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 13:22</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>4.26</v>
+        <v>4.58</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>4.65</v>
+        <v>5.15</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-afc-fylde/6i4IrR77/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/barnet-halifax/nTEJfX02/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>23/09/2023 13:22</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.85</v>
+        <v>3.68</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.55</v>
+        <v>3.91</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>23/09/2023 13:22</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.58</v>
+        <v>4.26</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.15</v>
+        <v>4.65</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/barnet-halifax/nTEJfX02/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-afc-fylde/6i4IrR77/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>1.71</v>
+        <v>2.84</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>1.63</v>
+        <v>3.41</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.96</v>
+        <v>3.42</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>4.35</v>
+        <v>3.88</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>4.49</v>
+        <v>2.44</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>21/10/2023 17:44</t>
+          <t>21/10/2023 17:13</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>4.84</v>
+        <v>2.02</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:23</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oxford-city/Us9watgs/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-gateshead/Ors6Hl98/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.84</v>
+        <v>1.71</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>3.41</v>
+        <v>1.63</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.42</v>
+        <v>3.96</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.88</v>
+        <v>4.35</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.44</v>
+        <v>4.49</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>21/10/2023 17:13</t>
+          <t>21/10/2023 17:44</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.02</v>
+        <v>4.84</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>24/10/2023 20:23</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-gateshead/Ors6Hl98/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/wealdstone-oxford-city/Us9watgs/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.49</v>
+        <v>3.56</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,32 +18644,32 @@
         </is>
       </c>
       <c r="P198" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
         <v>3.77</v>
       </c>
-      <c r="Q198" t="inlineStr">
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T198" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U198" t="inlineStr">
         <is>
           <t>24/10/2023 20:37</t>
         </is>
       </c>
-      <c r="R198" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t>21/10/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T198" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="U198" t="inlineStr">
-        <is>
-          <t>24/10/2023 20:37</t>
-        </is>
-      </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-maidenhead/AuHW2kfF/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-kidderminster/OrLz299L/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         </is>
       </c>
       <c r="R201" t="n">
-        <v>3.77</v>
+        <v>3.69</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>3.27</v>
+        <v>3.72</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-kidderminster/OrLz299L/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-maidenhead/AuHW2kfF/</t>
         </is>
       </c>
     </row>
@@ -21641,22 +21641,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G231" t="n">
+        <v>2</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Chesterfield</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
         <v>1</v>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Hartlepool</t>
-        </is>
-      </c>
-      <c r="I231" t="n">
-        <v>3</v>
-      </c>
       <c r="J231" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21664,15 +21664,15 @@
         </is>
       </c>
       <c r="L231" t="n">
-        <v>2.11</v>
+        <v>4.12</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>18/11/2023 15:35</t>
+          <t>18/11/2023 15:49</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>3.38</v>
+        <v>3.41</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,15 +21680,15 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3.84</v>
+        <v>4.09</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>18/11/2023 15:35</t>
+          <t>18/11/2023 15:49</t>
         </is>
       </c>
       <c r="R231" t="n">
-        <v>2.53</v>
+        <v>2.25</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>3.21</v>
+        <v>1.79</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>18/11/2023 15:35</t>
+          <t>18/11/2023 15:49</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-hartlepool/vgMMBvfp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-chesterfield/8AVjH0WM/</t>
         </is>
       </c>
     </row>
@@ -21733,30 +21733,30 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
         <v>2</v>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Chesterfield</t>
-        </is>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
       <c r="J232" t="n">
-        <v>3.15</v>
+        <v>1.78</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>11/11/2023 18:12</t>
+          <t>11/11/2023 18:43</t>
         </is>
       </c>
       <c r="L232" t="n">
-        <v>4.12</v>
+        <v>1.99</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
@@ -21764,15 +21764,15 @@
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3.41</v>
+        <v>3.69</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>11/11/2023 18:12</t>
+          <t>11/11/2023 18:43</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>4.09</v>
+        <v>3.39</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -21780,15 +21780,15 @@
         </is>
       </c>
       <c r="R232" t="n">
-        <v>2.25</v>
+        <v>4.43</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t>11/11/2023 18:12</t>
+          <t>11/11/2023 18:43</t>
         </is>
       </c>
       <c r="T232" t="n">
-        <v>1.79</v>
+        <v>4.04</v>
       </c>
       <c r="U232" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-chesterfield/8AVjH0WM/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-maidenhead/QotnItHG/</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -21833,63 +21833,63 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J233" t="n">
-        <v>1.78</v>
+        <v>2.75</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>11/11/2023 18:43</t>
+          <t>11/11/2023 18:12</t>
         </is>
       </c>
       <c r="L233" t="n">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>18/11/2023 15:49</t>
+          <t>18/11/2023 15:35</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>3.69</v>
+        <v>3.38</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>11/11/2023 18:43</t>
+          <t>11/11/2023 18:12</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3.39</v>
+        <v>3.84</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>18/11/2023 15:49</t>
+          <t>18/11/2023 15:35</t>
         </is>
       </c>
       <c r="R233" t="n">
-        <v>4.43</v>
+        <v>2.53</v>
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>11/11/2023 18:43</t>
+          <t>11/11/2023 18:12</t>
         </is>
       </c>
       <c r="T233" t="n">
-        <v>4.04</v>
+        <v>3.21</v>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>18/11/2023 15:49</t>
+          <t>18/11/2023 15:35</t>
         </is>
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-maidenhead/QotnItHG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-hartlepool/vgMMBvfp/</t>
         </is>
       </c>
     </row>
@@ -22009,22 +22009,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G235" t="n">
+        <v>2</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
         <v>1</v>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>AFC Fylde</t>
-        </is>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
       <c r="J235" t="n">
-        <v>1.94</v>
+        <v>2.72</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -22032,11 +22032,11 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>1.75</v>
+        <v>3.02</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>18/11/2023 15:59</t>
+          <t>18/11/2023 15:56</t>
         </is>
       </c>
       <c r="N235" t="n">
@@ -22048,15 +22048,15 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>3.92</v>
+        <v>3.76</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>18/11/2023 15:59</t>
+          <t>18/11/2023 15:56</t>
         </is>
       </c>
       <c r="R235" t="n">
-        <v>3.77</v>
+        <v>2.34</v>
       </c>
       <c r="S235" t="inlineStr">
         <is>
@@ -22064,16 +22064,16 @@
         </is>
       </c>
       <c r="T235" t="n">
-        <v>4.52</v>
+        <v>2.23</v>
       </c>
       <c r="U235" t="inlineStr">
         <is>
-          <t>18/11/2023 15:59</t>
+          <t>18/11/2023 13:29</t>
         </is>
       </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-afc-fylde/8djI21HT/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-altrincham/bLVRM42o/</t>
         </is>
       </c>
     </row>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dorking</t>
         </is>
       </c>
       <c r="G237" t="n">
@@ -22201,14 +22201,14 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="I237" t="n">
         <v>1</v>
       </c>
       <c r="J237" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -22216,15 +22216,15 @@
         </is>
       </c>
       <c r="L237" t="n">
-        <v>3.02</v>
+        <v>4.19</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>18/11/2023 15:56</t>
+          <t>18/11/2023 15:53</t>
         </is>
       </c>
       <c r="N237" t="n">
-        <v>3.62</v>
+        <v>3.42</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -22232,15 +22232,15 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>3.76</v>
+        <v>3.86</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>18/11/2023 15:56</t>
+          <t>18/11/2023 15:53</t>
         </is>
       </c>
       <c r="R237" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="S237" t="inlineStr">
         <is>
@@ -22248,16 +22248,16 @@
         </is>
       </c>
       <c r="T237" t="n">
-        <v>2.23</v>
+        <v>1.82</v>
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>18/11/2023 13:29</t>
+          <t>18/11/2023 15:53</t>
         </is>
       </c>
       <c r="V237" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-altrincham/bLVRM42o/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-boreham-wood/pIspbLPp/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Dorking</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>3.1</v>
+        <v>1.94</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,15 +22308,15 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>4.19</v>
+        <v>1.75</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>18/11/2023 15:53</t>
+          <t>18/11/2023 15:59</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>3.42</v>
+        <v>3.62</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,15 +22324,15 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>18/11/2023 15:53</t>
+          <t>18/11/2023 15:59</t>
         </is>
       </c>
       <c r="R238" t="n">
-        <v>2.28</v>
+        <v>3.77</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,16 +22340,16 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>1.82</v>
+        <v>4.52</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>18/11/2023 15:53</t>
+          <t>18/11/2023 15:59</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dorking-wanderers-boreham-wood/pIspbLPp/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-afc-fylde/8djI21HT/</t>
         </is>
       </c>
     </row>
@@ -22561,22 +22561,22 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="I241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J241" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -22584,15 +22584,15 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>6.23</v>
+        <v>1.72</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>21/11/2023 20:30</t>
+          <t>21/11/2023 20:44</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>3.55</v>
+        <v>3.62</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -22600,15 +22600,15 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4.43</v>
+        <v>3.96</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>21/11/2023 20:30</t>
+          <t>21/11/2023 20:44</t>
         </is>
       </c>
       <c r="R241" t="n">
-        <v>2.06</v>
+        <v>3.86</v>
       </c>
       <c r="S241" t="inlineStr">
         <is>
@@ -22616,16 +22616,16 @@
         </is>
       </c>
       <c r="T241" t="n">
-        <v>1.51</v>
+        <v>4.62</v>
       </c>
       <c r="U241" t="inlineStr">
         <is>
-          <t>21/11/2023 20:25</t>
+          <t>21/11/2023 20:44</t>
         </is>
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/woking-chesterfield/hMX2AkF7/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-aldershot/Kla9Zsni/</t>
         </is>
       </c>
     </row>
@@ -22653,22 +22653,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="G242" t="n">
+        <v>2</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
         <v>1</v>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Gateshead</t>
-        </is>
-      </c>
-      <c r="I242" t="n">
-        <v>2</v>
-      </c>
       <c r="J242" t="n">
-        <v>3.8</v>
+        <v>2.22</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,15 +22676,15 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>4.04</v>
+        <v>2.89</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>21/11/2023 20:17</t>
+          <t>21/11/2023 20:15</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>3.82</v>
+        <v>3.4</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -22692,15 +22692,15 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>3.93</v>
+        <v>3.61</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>21/11/2023 20:40</t>
+          <t>21/11/2023 20:03</t>
         </is>
       </c>
       <c r="R242" t="n">
-        <v>1.82</v>
+        <v>3.21</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -22708,16 +22708,16 @@
         </is>
       </c>
       <c r="T242" t="n">
-        <v>1.83</v>
+        <v>2.37</v>
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>21/11/2023 20:40</t>
+          <t>21/11/2023 20:15</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-gateshead/W6qfCBpe/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-boreham-wood/SE2HXLG3/</t>
         </is>
       </c>
     </row>
@@ -22745,22 +22745,22 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,15 +22768,15 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>2.59</v>
+        <v>2.42</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>21/11/2023 20:21</t>
+          <t>21/11/2023 20:44</t>
         </is>
       </c>
       <c r="N243" t="n">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -22784,15 +22784,15 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>3.69</v>
+        <v>3.62</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>21/11/2023 20:21</t>
+          <t>21/11/2023 20:34</t>
         </is>
       </c>
       <c r="R243" t="n">
-        <v>3.2</v>
+        <v>2.68</v>
       </c>
       <c r="S243" t="inlineStr">
         <is>
@@ -22800,16 +22800,16 @@
         </is>
       </c>
       <c r="T243" t="n">
-        <v>2.59</v>
+        <v>2.82</v>
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>21/11/2023 20:21</t>
+          <t>21/11/2023 20:44</t>
         </is>
       </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/rochdale-altrincham/I3ujDiVl/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-maidenhead/651LWuW9/</t>
         </is>
       </c>
     </row>
@@ -22837,22 +22837,22 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J244" t="n">
-        <v>2.74</v>
+        <v>1.96</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -22860,15 +22860,15 @@
         </is>
       </c>
       <c r="L244" t="n">
-        <v>2.59</v>
+        <v>1.83</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>21/11/2023 20:44</t>
+          <t>21/11/2023 20:37</t>
         </is>
       </c>
       <c r="N244" t="n">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -22876,15 +22876,15 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>21/11/2023 20:44</t>
+          <t>21/11/2023 20:37</t>
         </is>
       </c>
       <c r="R244" t="n">
-        <v>2.46</v>
+        <v>3.77</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
@@ -22892,16 +22892,16 @@
         </is>
       </c>
       <c r="T244" t="n">
-        <v>2.76</v>
+        <v>4.24</v>
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>21/11/2023 20:44</t>
+          <t>21/11/2023 20:20</t>
         </is>
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-hartlepool/OttnEXFr/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/halifax-afc-fylde/nHIIVaoG/</t>
         </is>
       </c>
     </row>
@@ -22929,22 +22929,22 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
-        <v>1.74</v>
+        <v>2.74</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -22952,15 +22952,15 @@
         </is>
       </c>
       <c r="L245" t="n">
-        <v>2.02</v>
+        <v>2.59</v>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>21/11/2023 20:40</t>
+          <t>21/11/2023 20:44</t>
         </is>
       </c>
       <c r="N245" t="n">
-        <v>3.91</v>
+        <v>3.34</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
@@ -22968,15 +22968,15 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>3.91</v>
+        <v>3.4</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>21/11/2023 20:40</t>
+          <t>21/11/2023 20:44</t>
         </is>
       </c>
       <c r="R245" t="n">
-        <v>4.43</v>
+        <v>2.46</v>
       </c>
       <c r="S245" t="inlineStr">
         <is>
@@ -22984,16 +22984,16 @@
         </is>
       </c>
       <c r="T245" t="n">
-        <v>3.38</v>
+        <v>2.76</v>
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>21/11/2023 20:40</t>
+          <t>21/11/2023 20:44</t>
         </is>
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/york-city-oxford-city/txRpZYi8/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-hartlepool/OttnEXFr/</t>
         </is>
       </c>
     </row>
@@ -23021,22 +23021,22 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>2.35</v>
+        <v>2.19</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>2.42</v>
+        <v>2.59</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>21/11/2023 20:44</t>
+          <t>21/11/2023 20:21</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>3.62</v>
+        <v>3.69</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>21/11/2023 20:34</t>
+          <t>21/11/2023 20:21</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>2.82</v>
+        <v>2.59</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>21/11/2023 20:44</t>
+          <t>21/11/2023 20:21</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/ebbsfleet-maidenhead/651LWuW9/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/rochdale-altrincham/I3ujDiVl/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G247" t="n">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Gateshead</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
         <v>2</v>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Boreham Wood</t>
-        </is>
-      </c>
-      <c r="I247" t="n">
-        <v>1</v>
-      </c>
       <c r="J247" t="n">
-        <v>2.22</v>
+        <v>3.8</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>2.89</v>
+        <v>4.04</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>21/11/2023 20:15</t>
+          <t>21/11/2023 20:17</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.4</v>
+        <v>3.82</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.61</v>
+        <v>3.93</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>21/11/2023 20:03</t>
+          <t>21/11/2023 20:40</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>3.21</v>
+        <v>1.82</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>2.37</v>
+        <v>1.83</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>21/11/2023 20:15</t>
+          <t>21/11/2023 20:40</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/eastleigh-boreham-wood/SE2HXLG3/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-gateshead/W6qfCBpe/</t>
         </is>
       </c>
     </row>
@@ -23205,22 +23205,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Chesterfield</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
         <v>2</v>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Aldershot</t>
-        </is>
-      </c>
-      <c r="I248" t="n">
-        <v>3</v>
-      </c>
       <c r="J248" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.72</v>
+        <v>6.23</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>21/11/2023 20:44</t>
+          <t>21/11/2023 20:30</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.96</v>
+        <v>4.43</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>21/11/2023 20:44</t>
+          <t>21/11/2023 20:30</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>3.86</v>
+        <v>2.06</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>4.62</v>
+        <v>1.51</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>21/11/2023 20:44</t>
+          <t>21/11/2023 20:25</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/bromley-aldershot/Kla9Zsni/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/woking-chesterfield/hMX2AkF7/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,14 +23305,14 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>21/11/2023 20:37</t>
+          <t>21/11/2023 20:40</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.56</v>
+        <v>3.91</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.8</v>
+        <v>3.91</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>21/11/2023 20:37</t>
+          <t>21/11/2023 20:40</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.77</v>
+        <v>4.43</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,16 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>4.24</v>
+        <v>3.38</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>21/11/2023 20:20</t>
+          <t>21/11/2023 20:40</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/halifax-afc-fylde/nHIIVaoG/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/york-city-oxford-city/txRpZYi8/</t>
         </is>
       </c>
     </row>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="G252" t="n">
@@ -23581,63 +23581,63 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Ebbsfleet</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I252" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>22/11/2023 21:12</t>
+          <t>21/11/2023 21:12</t>
         </is>
       </c>
       <c r="L252" t="n">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>25/11/2023 15:59</t>
+          <t>25/11/2023 15:58</t>
         </is>
       </c>
       <c r="N252" t="n">
-        <v>4.03</v>
+        <v>3.29</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>22/11/2023 21:12</t>
+          <t>21/11/2023 21:12</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>4.64</v>
+        <v>3.95</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>25/11/2023 15:59</t>
+          <t>25/11/2023 15:58</t>
         </is>
       </c>
       <c r="R252" t="n">
-        <v>4.49</v>
+        <v>2.92</v>
       </c>
       <c r="S252" t="inlineStr">
         <is>
-          <t>22/11/2023 21:12</t>
+          <t>21/11/2023 21:12</t>
         </is>
       </c>
       <c r="T252" t="n">
-        <v>6.33</v>
+        <v>3.56</v>
       </c>
       <c r="U252" t="inlineStr">
         <is>
-          <t>25/11/2023 15:59</t>
+          <t>25/11/2023 15:58</t>
         </is>
       </c>
       <c r="V252" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oldham-ebbsfleet/biCmTLs8/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/aldershot-halifax/W6NOUD1F/</t>
         </is>
       </c>
     </row>
@@ -23665,22 +23665,22 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="I253" t="n">
         <v>1</v>
       </c>
       <c r="J253" t="n">
-        <v>2.36</v>
+        <v>1.89</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -23688,15 +23688,15 @@
         </is>
       </c>
       <c r="L253" t="n">
-        <v>2.29</v>
+        <v>1.88</v>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>25/11/2023 15:59</t>
+          <t>25/11/2023 14:13</t>
         </is>
       </c>
       <c r="N253" t="n">
-        <v>3.31</v>
+        <v>3.64</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -23704,15 +23704,15 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>3.35</v>
+        <v>3.82</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>25/11/2023 15:51</t>
+          <t>25/11/2023 14:13</t>
         </is>
       </c>
       <c r="R253" t="n">
-        <v>3.05</v>
+        <v>3.68</v>
       </c>
       <c r="S253" t="inlineStr">
         <is>
@@ -23720,16 +23720,16 @@
         </is>
       </c>
       <c r="T253" t="n">
-        <v>3.24</v>
+        <v>3.92</v>
       </c>
       <c r="U253" t="inlineStr">
         <is>
-          <t>25/11/2023 15:59</t>
+          <t>25/11/2023 11:52</t>
         </is>
       </c>
       <c r="V253" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-york-city/fJo7KTw8/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/altrincham-solihull-moors/pARSTXGL/</t>
         </is>
       </c>
     </row>
@@ -23757,22 +23757,22 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I254" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J254" t="n">
-        <v>2.41</v>
+        <v>2.7</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -23780,15 +23780,15 @@
         </is>
       </c>
       <c r="L254" t="n">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>25/11/2023 15:58</t>
+          <t>25/11/2023 15:51</t>
         </is>
       </c>
       <c r="N254" t="n">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
@@ -23796,15 +23796,15 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>4.1</v>
+        <v>3.37</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>25/11/2023 15:58</t>
+          <t>25/11/2023 15:51</t>
         </is>
       </c>
       <c r="R254" t="n">
-        <v>2.63</v>
+        <v>2.74</v>
       </c>
       <c r="S254" t="inlineStr">
         <is>
@@ -23812,16 +23812,16 @@
         </is>
       </c>
       <c r="T254" t="n">
-        <v>3.37</v>
+        <v>3.58</v>
       </c>
       <c r="U254" t="inlineStr">
         <is>
-          <t>25/11/2023 15:58</t>
+          <t>25/11/2023 15:51</t>
         </is>
       </c>
       <c r="V254" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-bromley/tGs3L9O1/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-woking/vXQWSiWR/</t>
         </is>
       </c>
     </row>
@@ -23849,22 +23849,22 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="I255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>1.88</v>
+        <v>1.36</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -23872,15 +23872,15 @@
         </is>
       </c>
       <c r="L255" t="n">
-        <v>1.97</v>
+        <v>1.23</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>25/11/2023 13:53</t>
+          <t>25/11/2023 15:12</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.68</v>
+        <v>5.22</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -23888,15 +23888,15 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3.72</v>
+        <v>6.48</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>25/11/2023 13:53</t>
+          <t>25/11/2023 15:36</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>3.92</v>
+        <v>7.43</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
@@ -23904,16 +23904,16 @@
         </is>
       </c>
       <c r="T255" t="n">
-        <v>3.7</v>
+        <v>10.95</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>25/11/2023 13:53</t>
+          <t>25/11/2023 15:36</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/gateshead-southend/ngraMk9e/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-eastleigh/ttDbOBvq/</t>
         </is>
       </c>
     </row>
@@ -23941,22 +23941,22 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Dag &amp; Red</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I256" t="n">
         <v>2</v>
       </c>
       <c r="J256" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -23964,15 +23964,15 @@
         </is>
       </c>
       <c r="L256" t="n">
-        <v>2.13</v>
+        <v>2.6</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>25/11/2023 15:51</t>
+          <t>25/11/2023 15:12</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
@@ -23980,15 +23980,15 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3.37</v>
+        <v>3.48</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>25/11/2023 15:51</t>
+          <t>25/11/2023 15:12</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>2.74</v>
+        <v>2.93</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
@@ -23996,16 +23996,16 @@
         </is>
       </c>
       <c r="T256" t="n">
-        <v>3.58</v>
+        <v>2.69</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>25/11/2023 15:51</t>
+          <t>25/11/2023 15:12</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-woking/vXQWSiWR/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-rochdale/82qeNVgk/</t>
         </is>
       </c>
     </row>
@@ -24033,22 +24033,22 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J257" t="n">
-        <v>1.36</v>
+        <v>1.88</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -24056,15 +24056,15 @@
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.23</v>
+        <v>1.97</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>25/11/2023 15:12</t>
+          <t>25/11/2023 13:53</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>5.22</v>
+        <v>3.68</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
@@ -24072,15 +24072,15 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>6.48</v>
+        <v>3.72</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>25/11/2023 15:36</t>
+          <t>25/11/2023 13:53</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>7.43</v>
+        <v>3.92</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
@@ -24088,16 +24088,16 @@
         </is>
       </c>
       <c r="T257" t="n">
-        <v>10.95</v>
+        <v>3.7</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>25/11/2023 15:36</t>
+          <t>25/11/2023 13:53</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/chesterfield-eastleigh/ttDbOBvq/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/gateshead-southend/ngraMk9e/</t>
         </is>
       </c>
     </row>
@@ -24125,22 +24125,22 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J258" t="n">
-        <v>1.89</v>
+        <v>2.41</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -24148,15 +24148,15 @@
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>25/11/2023 14:13</t>
+          <t>25/11/2023 15:58</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -24164,15 +24164,15 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3.82</v>
+        <v>4.1</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>25/11/2023 14:13</t>
+          <t>25/11/2023 15:58</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>3.68</v>
+        <v>2.63</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
@@ -24180,16 +24180,16 @@
         </is>
       </c>
       <c r="T258" t="n">
-        <v>3.92</v>
+        <v>3.37</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>25/11/2023 11:52</t>
+          <t>25/11/2023 15:58</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/altrincham-solihull-moors/pARSTXGL/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/hartlepool-bromley/tGs3L9O1/</t>
         </is>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Maidenhead</t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -24225,14 +24225,14 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="n">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -24240,15 +24240,15 @@
         </is>
       </c>
       <c r="L259" t="n">
-        <v>1.95</v>
+        <v>2.29</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>25/11/2023 15:58</t>
+          <t>25/11/2023 15:59</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
@@ -24256,15 +24256,15 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>25/11/2023 15:58</t>
+          <t>25/11/2023 15:51</t>
         </is>
       </c>
       <c r="R259" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="S259" t="inlineStr">
         <is>
@@ -24272,16 +24272,16 @@
         </is>
       </c>
       <c r="T259" t="n">
-        <v>3.56</v>
+        <v>3.24</v>
       </c>
       <c r="U259" t="inlineStr">
         <is>
-          <t>25/11/2023 15:58</t>
+          <t>25/11/2023 15:59</t>
         </is>
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/aldershot-halifax/W6NOUD1F/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/maidenhead-york-city/fJo7KTw8/</t>
         </is>
       </c>
     </row>
@@ -24309,30 +24309,30 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Oldham</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Kidderminster</t>
+          <t>Ebbsfleet</t>
         </is>
       </c>
       <c r="I260" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J260" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>21/11/2023 21:12</t>
+          <t>22/11/2023 21:12</t>
         </is>
       </c>
       <c r="L260" t="n">
-        <v>2.97</v>
+        <v>1.48</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
@@ -24340,15 +24340,15 @@
         </is>
       </c>
       <c r="N260" t="n">
-        <v>3.37</v>
+        <v>4.03</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>21/11/2023 21:12</t>
+          <t>22/11/2023 21:12</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3.31</v>
+        <v>4.64</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -24356,15 +24356,15 @@
         </is>
       </c>
       <c r="R260" t="n">
-        <v>2.25</v>
+        <v>4.49</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
-          <t>21/11/2023 21:12</t>
+          <t>22/11/2023 21:12</t>
         </is>
       </c>
       <c r="T260" t="n">
-        <v>2.47</v>
+        <v>6.33</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-kidderminster/xrBiSucE/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oldham-ebbsfleet/biCmTLs8/</t>
         </is>
       </c>
     </row>
@@ -24401,22 +24401,22 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Dag &amp; Red</t>
+          <t>Oxford City</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Kidderminster</t>
         </is>
       </c>
       <c r="I261" t="n">
         <v>2</v>
       </c>
       <c r="J261" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -24424,15 +24424,15 @@
         </is>
       </c>
       <c r="L261" t="n">
-        <v>2.6</v>
+        <v>2.97</v>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>25/11/2023 15:12</t>
+          <t>25/11/2023 15:59</t>
         </is>
       </c>
       <c r="N261" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
@@ -24440,15 +24440,15 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>25/11/2023 15:12</t>
+          <t>25/11/2023 15:59</t>
         </is>
       </c>
       <c r="R261" t="n">
-        <v>2.93</v>
+        <v>2.25</v>
       </c>
       <c r="S261" t="inlineStr">
         <is>
@@ -24456,16 +24456,16 @@
         </is>
       </c>
       <c r="T261" t="n">
-        <v>2.69</v>
+        <v>2.47</v>
       </c>
       <c r="U261" t="inlineStr">
         <is>
-          <t>25/11/2023 15:12</t>
+          <t>25/11/2023 15:59</t>
         </is>
       </c>
       <c r="V261" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/dagenham-red-rochdale/82qeNVgk/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-kidderminster/xrBiSucE/</t>
         </is>
       </c>
     </row>
@@ -24558,6 +24558,282 @@
       <c r="V262" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/national-league/wealdstone-barnet/6HFeRaCK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P263" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R263" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T263" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/bromley-rochdale/2PfWKckl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Kidderminster</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>2</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Ebbsfleet</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P264" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R264" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T264" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/kidderminster-ebbsfleet/W4nmHFlD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Oxford City</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>4</v>
+      </c>
+      <c r="J265" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P265" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R265" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T265" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/oxford-city-maidenhead/dp3bOWet/</t>
         </is>
       </c>
     </row>

--- a/2023/england_national-league_2023-2024.xlsx
+++ b/2023/england_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V320"/>
+  <dimension ref="A1:V321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29185,7 +29185,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="G313" t="n">
@@ -29193,14 +29193,14 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>FC Halifax</t>
         </is>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
       <c r="J313" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -29208,15 +29208,15 @@
         </is>
       </c>
       <c r="L313" t="n">
-        <v>2.41</v>
+        <v>2.12</v>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>06/01/2024 15:54</t>
+          <t>06/01/2024 15:52</t>
         </is>
       </c>
       <c r="N313" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
@@ -29224,15 +29224,15 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3.37</v>
+        <v>2.99</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>06/01/2024 15:54</t>
+          <t>06/01/2024 15:53</t>
         </is>
       </c>
       <c r="R313" t="n">
-        <v>2.88</v>
+        <v>3.92</v>
       </c>
       <c r="S313" t="inlineStr">
         <is>
@@ -29240,16 +29240,16 @@
         </is>
       </c>
       <c r="T313" t="n">
-        <v>3.01</v>
+        <v>4.19</v>
       </c>
       <c r="U313" t="inlineStr">
         <is>
-          <t>06/01/2024 15:54</t>
+          <t>06/01/2024 15:53</t>
         </is>
       </c>
       <c r="V313" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-woking/CIMUJB5m/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/southend-halifax/thRYIVKg/</t>
         </is>
       </c>
     </row>
@@ -29829,7 +29829,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="G320" t="n">
@@ -29837,14 +29837,14 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>FC Halifax</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
       <c r="J320" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -29852,15 +29852,15 @@
         </is>
       </c>
       <c r="L320" t="n">
-        <v>2.12</v>
+        <v>2.41</v>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>06/01/2024 15:52</t>
+          <t>06/01/2024 15:54</t>
         </is>
       </c>
       <c r="N320" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="O320" t="inlineStr">
         <is>
@@ -29868,15 +29868,15 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>2.99</v>
+        <v>3.37</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>06/01/2024 15:53</t>
+          <t>06/01/2024 15:54</t>
         </is>
       </c>
       <c r="R320" t="n">
-        <v>3.92</v>
+        <v>2.88</v>
       </c>
       <c r="S320" t="inlineStr">
         <is>
@@ -29884,16 +29884,108 @@
         </is>
       </c>
       <c r="T320" t="n">
-        <v>4.19</v>
+        <v>3.01</v>
       </c>
       <c r="U320" t="inlineStr">
         <is>
-          <t>06/01/2024 15:53</t>
+          <t>06/01/2024 15:54</t>
         </is>
       </c>
       <c r="V320" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/national-league/southend-halifax/thRYIVKg/</t>
+          <t>https://www.betexplorer.com/football/england/national-league/solihull-moors-woking/CIMUJB5m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45298.625</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>1</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>01/01/2024 16:13</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:59</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>01/01/2024 16:13</t>
+        </is>
+      </c>
+      <c r="P321" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:59</t>
+        </is>
+      </c>
+      <c r="R321" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>01/01/2024 16:13</t>
+        </is>
+      </c>
+      <c r="T321" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:59</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/national-league/boreham-wood-york-city/8Ov35Cjf/</t>
         </is>
       </c>
     </row>
